--- a/name/vnindex/20230210/VNINDEX_HOSE_5p_20230210.xlsx
+++ b/name/vnindex/20230210/VNINDEX_HOSE_5p_20230210.xlsx
@@ -457,49 +457,49 @@
         <v>1676020440000</v>
       </c>
       <c r="B2">
-        <v>1066800</v>
+        <v>1188000</v>
       </c>
       <c r="C2">
-        <v>1765000</v>
+        <v>1715400</v>
       </c>
       <c r="D2">
-        <v>2091300</v>
+        <v>2019700</v>
       </c>
       <c r="E2">
-        <v>19172774000</v>
+        <v>15720705300</v>
       </c>
       <c r="F2">
-        <v>23493273000</v>
+        <v>22001891500</v>
       </c>
       <c r="G2">
-        <v>37330697000</v>
+        <v>32400231000</v>
       </c>
       <c r="H2">
         <v>4923100</v>
       </c>
       <c r="I2">
-        <v>79996744000</v>
+        <v>70122827800</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-10T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>79996744000</v>
+        <v>70122827800</v>
       </c>
       <c r="L2">
         <v>4923100</v>
       </c>
       <c r="M2">
-        <v>698200</v>
+        <v>527400</v>
       </c>
       <c r="N2">
-        <v>4320499000</v>
+        <v>6281186200</v>
       </c>
       <c r="O2">
-        <v>698200</v>
+        <v>527400</v>
       </c>
       <c r="P2">
-        <v>4320499000</v>
+        <v>6281186200</v>
       </c>
     </row>
     <row r="3">
@@ -507,49 +507,49 @@
         <v>1676020560000</v>
       </c>
       <c r="B3">
-        <v>1186800</v>
+        <v>1207700</v>
       </c>
       <c r="C3">
-        <v>1045200</v>
+        <v>1015700</v>
       </c>
       <c r="D3">
-        <v>24600</v>
+        <v>33200</v>
       </c>
       <c r="E3">
-        <v>17233876000</v>
+        <v>16932927700</v>
       </c>
       <c r="F3">
-        <v>14308761000</v>
+        <v>13195477400</v>
       </c>
       <c r="G3">
-        <v>329902000</v>
+        <v>329450000</v>
       </c>
       <c r="H3">
         <v>2256600</v>
       </c>
       <c r="I3">
-        <v>31872539000</v>
+        <v>30457855100</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-10T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>111869283000</v>
+        <v>100580682900</v>
       </c>
       <c r="L3">
         <v>7179700</v>
       </c>
       <c r="M3">
-        <v>-141600</v>
+        <v>-192000</v>
       </c>
       <c r="N3">
-        <v>-2925115000</v>
+        <v>-3737450300</v>
       </c>
       <c r="O3">
-        <v>556600</v>
+        <v>335400</v>
       </c>
       <c r="P3">
-        <v>1395384000</v>
+        <v>2543735900</v>
       </c>
     </row>
     <row r="4">
@@ -557,49 +557,49 @@
         <v>1676020680000</v>
       </c>
       <c r="B4">
-        <v>778300</v>
+        <v>795200</v>
       </c>
       <c r="C4">
-        <v>1057000</v>
+        <v>1049800</v>
       </c>
       <c r="D4">
-        <v>11900</v>
+        <v>2200</v>
       </c>
       <c r="E4">
-        <v>12309884000</v>
+        <v>11680495000</v>
       </c>
       <c r="F4">
-        <v>17800404000</v>
+        <v>17028876200</v>
       </c>
       <c r="G4">
-        <v>191660000</v>
+        <v>108862000</v>
       </c>
       <c r="H4">
         <v>1847200</v>
       </c>
       <c r="I4">
-        <v>30301948000</v>
+        <v>28818233200</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-10T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>142171231000</v>
+        <v>129398916100</v>
       </c>
       <c r="L4">
         <v>9026900</v>
       </c>
       <c r="M4">
-        <v>278700</v>
+        <v>254600</v>
       </c>
       <c r="N4">
-        <v>5490520000</v>
+        <v>5348381200</v>
       </c>
       <c r="O4">
-        <v>835300</v>
+        <v>590000</v>
       </c>
       <c r="P4">
-        <v>6885904000</v>
+        <v>7892117100</v>
       </c>
     </row>
     <row r="5">
@@ -607,49 +607,49 @@
         <v>1676020800000</v>
       </c>
       <c r="B5">
-        <v>711200</v>
+        <v>727500</v>
       </c>
       <c r="C5">
-        <v>1199000</v>
+        <v>1186000</v>
       </c>
       <c r="D5">
-        <v>25600</v>
+        <v>22300</v>
       </c>
       <c r="E5">
-        <v>9878006000</v>
+        <v>9748381800</v>
       </c>
       <c r="F5">
-        <v>20868365000</v>
+        <v>20425579600</v>
       </c>
       <c r="G5">
-        <v>401123000</v>
+        <v>341765000</v>
       </c>
       <c r="H5">
         <v>1935800</v>
       </c>
       <c r="I5">
-        <v>31147494000</v>
+        <v>30515726400</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-10T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>173318725000</v>
+        <v>159914642500</v>
       </c>
       <c r="L5">
         <v>10962700</v>
       </c>
       <c r="M5">
-        <v>487800</v>
+        <v>458500</v>
       </c>
       <c r="N5">
-        <v>10990359000</v>
+        <v>10677197800</v>
       </c>
       <c r="O5">
-        <v>1323100</v>
+        <v>1048500</v>
       </c>
       <c r="P5">
-        <v>17876263000</v>
+        <v>18569314900</v>
       </c>
     </row>
     <row r="6">
@@ -657,49 +657,49 @@
         <v>1676020920000</v>
       </c>
       <c r="B6">
-        <v>638200</v>
+        <v>652200</v>
       </c>
       <c r="C6">
-        <v>1340600</v>
+        <v>1326100</v>
       </c>
       <c r="D6">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="E6">
-        <v>9408606000</v>
+        <v>9087472100</v>
       </c>
       <c r="F6">
-        <v>25790050000</v>
+        <v>25290146300</v>
       </c>
       <c r="G6">
-        <v>23630000</v>
+        <v>63050000</v>
       </c>
       <c r="H6">
         <v>1980700</v>
       </c>
       <c r="I6">
-        <v>35222286000</v>
+        <v>34440668400</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-10T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>208541011000</v>
+        <v>194355310900</v>
       </c>
       <c r="L6">
         <v>12943400</v>
       </c>
       <c r="M6">
-        <v>702400</v>
+        <v>673900</v>
       </c>
       <c r="N6">
-        <v>16381444000</v>
+        <v>16202674200</v>
       </c>
       <c r="O6">
-        <v>2025500</v>
+        <v>1722400</v>
       </c>
       <c r="P6">
-        <v>34257707000</v>
+        <v>34771989100</v>
       </c>
     </row>
     <row r="7">
@@ -707,49 +707,49 @@
         <v>1676021040000</v>
       </c>
       <c r="B7">
-        <v>893000</v>
+        <v>905700</v>
       </c>
       <c r="C7">
-        <v>835600</v>
+        <v>830200</v>
       </c>
       <c r="D7">
-        <v>16400</v>
+        <v>9100</v>
       </c>
       <c r="E7">
-        <v>14147979000</v>
+        <v>13647963500</v>
       </c>
       <c r="F7">
-        <v>14978084000</v>
+        <v>14397265900</v>
       </c>
       <c r="G7">
-        <v>177010000</v>
+        <v>157545000</v>
       </c>
       <c r="H7">
         <v>1745000</v>
       </c>
       <c r="I7">
-        <v>29303073000</v>
+        <v>28202774400</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-10T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>237844084000</v>
+        <v>222558085300</v>
       </c>
       <c r="L7">
         <v>14688400</v>
       </c>
       <c r="M7">
-        <v>-57400</v>
+        <v>-75500</v>
       </c>
       <c r="N7">
-        <v>830105000</v>
+        <v>749302400</v>
       </c>
       <c r="O7">
-        <v>1968100</v>
+        <v>1646900</v>
       </c>
       <c r="P7">
-        <v>35087812000</v>
+        <v>35521291500</v>
       </c>
     </row>
     <row r="8">
@@ -757,49 +757,49 @@
         <v>1676021160000</v>
       </c>
       <c r="B8">
-        <v>1735700</v>
+        <v>1744500</v>
       </c>
       <c r="C8">
-        <v>809100</v>
+        <v>802700</v>
       </c>
       <c r="D8">
-        <v>11700</v>
+        <v>13000</v>
       </c>
       <c r="E8">
-        <v>25208375000</v>
+        <v>25272458200</v>
       </c>
       <c r="F8">
-        <v>12969608000</v>
+        <v>12596655000</v>
       </c>
       <c r="G8">
-        <v>137318000</v>
+        <v>160792000</v>
       </c>
       <c r="H8">
-        <v>2556500</v>
+        <v>2560200</v>
       </c>
       <c r="I8">
-        <v>38315301000</v>
+        <v>38029905200</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-10T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>276159385000</v>
+        <v>260587990500</v>
       </c>
       <c r="L8">
-        <v>17244900</v>
+        <v>17248600</v>
       </c>
       <c r="M8">
-        <v>-926600</v>
+        <v>-941800</v>
       </c>
       <c r="N8">
-        <v>-12238767000</v>
+        <v>-12675803200</v>
       </c>
       <c r="O8">
-        <v>1041500</v>
+        <v>705100</v>
       </c>
       <c r="P8">
-        <v>22849045000</v>
+        <v>22845488300</v>
       </c>
     </row>
     <row r="9">
@@ -807,49 +807,49 @@
         <v>1676021280000</v>
       </c>
       <c r="B9">
-        <v>1791800</v>
+        <v>1778200</v>
       </c>
       <c r="C9">
-        <v>463900</v>
+        <v>495600</v>
       </c>
       <c r="D9">
-        <v>22300</v>
+        <v>500</v>
       </c>
       <c r="E9">
-        <v>26581145000</v>
+        <v>25633576800</v>
       </c>
       <c r="F9">
-        <v>9783481000</v>
+        <v>9970565700</v>
       </c>
       <c r="G9">
-        <v>288766000</v>
+        <v>8273000</v>
       </c>
       <c r="H9">
-        <v>2278000</v>
+        <v>2274300</v>
       </c>
       <c r="I9">
-        <v>36653392000</v>
+        <v>35612415500</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-10T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>312812777000</v>
+        <v>296200406000</v>
       </c>
       <c r="L9">
         <v>19522900</v>
       </c>
       <c r="M9">
-        <v>-1327900</v>
+        <v>-1282600</v>
       </c>
       <c r="N9">
-        <v>-16797664000</v>
+        <v>-15663011100</v>
       </c>
       <c r="O9">
-        <v>-286400</v>
+        <v>-577500</v>
       </c>
       <c r="P9">
-        <v>6051381000</v>
+        <v>7182477200</v>
       </c>
     </row>
     <row r="10">
@@ -857,49 +857,49 @@
         <v>1676021400000</v>
       </c>
       <c r="B10">
-        <v>1751900</v>
+        <v>1767900</v>
       </c>
       <c r="C10">
-        <v>1192200</v>
+        <v>1187400</v>
       </c>
       <c r="D10">
-        <v>12700</v>
+        <v>1500</v>
       </c>
       <c r="E10">
-        <v>25187903000</v>
+        <v>25212964000</v>
       </c>
       <c r="F10">
-        <v>21400504000</v>
+        <v>16953581300</v>
       </c>
       <c r="G10">
-        <v>348807000</v>
+        <v>12132000</v>
       </c>
       <c r="H10">
         <v>2956800</v>
       </c>
       <c r="I10">
-        <v>46937214000</v>
+        <v>42178677300</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-10T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>359749991000</v>
+        <v>338379083300</v>
       </c>
       <c r="L10">
         <v>22479700</v>
       </c>
       <c r="M10">
-        <v>-559700</v>
+        <v>-580500</v>
       </c>
       <c r="N10">
-        <v>-3787399000</v>
+        <v>-8259382700</v>
       </c>
       <c r="O10">
-        <v>-846100</v>
+        <v>-1158000</v>
       </c>
       <c r="P10">
-        <v>2263982000</v>
+        <v>-1076905500</v>
       </c>
     </row>
     <row r="11">
@@ -907,19 +907,19 @@
         <v>1676021520000</v>
       </c>
       <c r="B11">
-        <v>1166100</v>
+        <v>1161600</v>
       </c>
       <c r="C11">
-        <v>829000</v>
+        <v>833500</v>
       </c>
       <c r="D11">
         <v>2400</v>
       </c>
       <c r="E11">
-        <v>18183175000</v>
+        <v>17820850600</v>
       </c>
       <c r="F11">
-        <v>14057345000</v>
+        <v>14012976500</v>
       </c>
       <c r="G11">
         <v>97890000</v>
@@ -928,28 +928,28 @@
         <v>1997500</v>
       </c>
       <c r="I11">
-        <v>32338410000</v>
+        <v>31931717100</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-10T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>392088401000</v>
+        <v>370310800400</v>
       </c>
       <c r="L11">
         <v>24477200</v>
       </c>
       <c r="M11">
-        <v>-337100</v>
+        <v>-328100</v>
       </c>
       <c r="N11">
-        <v>-4125830000</v>
+        <v>-3807874100</v>
       </c>
       <c r="O11">
-        <v>-1183200</v>
+        <v>-1486100</v>
       </c>
       <c r="P11">
-        <v>-1861848000</v>
+        <v>-4884779600</v>
       </c>
     </row>
     <row r="12">
@@ -957,49 +957,49 @@
         <v>1676021640000</v>
       </c>
       <c r="B12">
-        <v>1711600</v>
+        <v>1707600</v>
       </c>
       <c r="C12">
-        <v>745900</v>
+        <v>755900</v>
       </c>
       <c r="D12">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="E12">
-        <v>31415302000</v>
+        <v>28064287600</v>
       </c>
       <c r="F12">
-        <v>13651603000</v>
+        <v>13644692200</v>
       </c>
       <c r="G12">
-        <v>94102000</v>
+        <v>37845800</v>
       </c>
       <c r="H12">
         <v>2466000</v>
       </c>
       <c r="I12">
-        <v>45161007000</v>
+        <v>41746825600</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-10T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>437249408000</v>
+        <v>412057626000</v>
       </c>
       <c r="L12">
         <v>26943200</v>
       </c>
       <c r="M12">
-        <v>-965700</v>
+        <v>-951700</v>
       </c>
       <c r="N12">
-        <v>-17763699000</v>
+        <v>-14419595400</v>
       </c>
       <c r="O12">
-        <v>-2148900</v>
+        <v>-2437800</v>
       </c>
       <c r="P12">
-        <v>-19625547000</v>
+        <v>-19304375000</v>
       </c>
     </row>
     <row r="13">
@@ -1007,49 +1007,49 @@
         <v>1676021760000</v>
       </c>
       <c r="B13">
-        <v>2268900</v>
+        <v>2298500</v>
       </c>
       <c r="C13">
-        <v>781900</v>
+        <v>756300</v>
       </c>
       <c r="D13">
-        <v>12300</v>
+        <v>8300</v>
       </c>
       <c r="E13">
-        <v>37173886000</v>
+        <v>32246698700</v>
       </c>
       <c r="F13">
-        <v>12227005000</v>
+        <v>11311127300</v>
       </c>
       <c r="G13">
-        <v>418769000</v>
+        <v>62040000</v>
       </c>
       <c r="H13">
         <v>3063100</v>
       </c>
       <c r="I13">
-        <v>49819660000</v>
+        <v>43619866000</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-10T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>487069068000</v>
+        <v>455677492000</v>
       </c>
       <c r="L13">
         <v>30006300</v>
       </c>
       <c r="M13">
-        <v>-1487000</v>
+        <v>-1542200</v>
       </c>
       <c r="N13">
-        <v>-24946881000</v>
+        <v>-20935571400</v>
       </c>
       <c r="O13">
-        <v>-3635900</v>
+        <v>-3980000</v>
       </c>
       <c r="P13">
-        <v>-44572428000</v>
+        <v>-40239946400</v>
       </c>
     </row>
     <row r="14">
@@ -1057,49 +1057,49 @@
         <v>1676021880000</v>
       </c>
       <c r="B14">
-        <v>2293700</v>
+        <v>2309300</v>
       </c>
       <c r="C14">
-        <v>854800</v>
+        <v>851500</v>
       </c>
       <c r="D14">
-        <v>20500</v>
+        <v>6000</v>
       </c>
       <c r="E14">
-        <v>37668060000</v>
+        <v>34985175000</v>
       </c>
       <c r="F14">
-        <v>15100334000</v>
+        <v>14551458200</v>
       </c>
       <c r="G14">
-        <v>979033000</v>
+        <v>55683000</v>
       </c>
       <c r="H14">
-        <v>3169000</v>
+        <v>3166800</v>
       </c>
       <c r="I14">
-        <v>53747427000</v>
+        <v>49592316200</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-10T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>540816495000</v>
+        <v>505269808200</v>
       </c>
       <c r="L14">
-        <v>33175300</v>
+        <v>33173100</v>
       </c>
       <c r="M14">
-        <v>-1438900</v>
+        <v>-1457800</v>
       </c>
       <c r="N14">
-        <v>-22567726000</v>
+        <v>-20433716800</v>
       </c>
       <c r="O14">
-        <v>-5074800</v>
+        <v>-5437800</v>
       </c>
       <c r="P14">
-        <v>-67140154000</v>
+        <v>-60673663200</v>
       </c>
     </row>
     <row r="15">
@@ -1107,49 +1107,49 @@
         <v>1676022000000</v>
       </c>
       <c r="B15">
-        <v>1037100</v>
+        <v>1084600</v>
       </c>
       <c r="C15">
-        <v>670800</v>
+        <v>652800</v>
       </c>
       <c r="D15">
-        <v>37100</v>
+        <v>9800</v>
       </c>
       <c r="E15">
-        <v>17253131000</v>
+        <v>17525635200</v>
       </c>
       <c r="F15">
-        <v>11919770000</v>
+        <v>11379656700</v>
       </c>
       <c r="G15">
-        <v>799215000</v>
+        <v>229835000</v>
       </c>
       <c r="H15">
-        <v>1745000</v>
+        <v>1747200</v>
       </c>
       <c r="I15">
-        <v>29972116000</v>
+        <v>29135126900</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-10T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>570788611000</v>
+        <v>534404935100</v>
       </c>
       <c r="L15">
         <v>34920300</v>
       </c>
       <c r="M15">
-        <v>-366300</v>
+        <v>-431800</v>
       </c>
       <c r="N15">
-        <v>-5333361000</v>
+        <v>-6145978500</v>
       </c>
       <c r="O15">
-        <v>-5441100</v>
+        <v>-5869600</v>
       </c>
       <c r="P15">
-        <v>-72473515000</v>
+        <v>-66819641700</v>
       </c>
     </row>
     <row r="16">
@@ -1157,49 +1157,49 @@
         <v>1676022120000</v>
       </c>
       <c r="B16">
-        <v>1004900</v>
+        <v>997000</v>
       </c>
       <c r="C16">
-        <v>827600</v>
+        <v>836800</v>
       </c>
       <c r="D16">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="E16">
-        <v>16163956000</v>
+        <v>15791821500</v>
       </c>
       <c r="F16">
-        <v>13183804000</v>
+        <v>13011646500</v>
       </c>
       <c r="G16">
-        <v>32640000</v>
+        <v>1508000</v>
       </c>
       <c r="H16">
         <v>1834000</v>
       </c>
       <c r="I16">
-        <v>29380400000</v>
+        <v>28804976000</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-10T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>600169011000</v>
+        <v>563209911100</v>
       </c>
       <c r="L16">
         <v>36754300</v>
       </c>
       <c r="M16">
-        <v>-177300</v>
+        <v>-160200</v>
       </c>
       <c r="N16">
-        <v>-2980152000</v>
+        <v>-2780175000</v>
       </c>
       <c r="O16">
-        <v>-5618400</v>
+        <v>-6029800</v>
       </c>
       <c r="P16">
-        <v>-75453667000</v>
+        <v>-69599816700</v>
       </c>
     </row>
     <row r="17">
@@ -1207,49 +1207,49 @@
         <v>1676022240000</v>
       </c>
       <c r="B17">
-        <v>1073300</v>
+        <v>1062700</v>
       </c>
       <c r="C17">
-        <v>1233100</v>
+        <v>1247700</v>
       </c>
       <c r="D17">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="E17">
-        <v>15517099000</v>
+        <v>15220105000</v>
       </c>
       <c r="F17">
-        <v>22107186000</v>
+        <v>21795767500</v>
       </c>
       <c r="G17">
-        <v>125880000</v>
+        <v>69458000</v>
       </c>
       <c r="H17">
         <v>2319900</v>
       </c>
       <c r="I17">
-        <v>37750165000</v>
+        <v>37085330500</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-10T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>637919176000</v>
+        <v>600295241600</v>
       </c>
       <c r="L17">
         <v>39074200</v>
       </c>
       <c r="M17">
-        <v>159800</v>
+        <v>185000</v>
       </c>
       <c r="N17">
-        <v>6590087000</v>
+        <v>6575662500</v>
       </c>
       <c r="O17">
-        <v>-5458600</v>
+        <v>-5844800</v>
       </c>
       <c r="P17">
-        <v>-68863580000</v>
+        <v>-63024154200</v>
       </c>
     </row>
     <row r="18">
@@ -1257,49 +1257,49 @@
         <v>1676022360000</v>
       </c>
       <c r="B18">
-        <v>1302500</v>
+        <v>1299900</v>
       </c>
       <c r="C18">
-        <v>1110200</v>
+        <v>1126100</v>
       </c>
       <c r="D18">
-        <v>26300</v>
+        <v>13000</v>
       </c>
       <c r="E18">
-        <v>15208899000</v>
+        <v>15037313700</v>
       </c>
       <c r="F18">
-        <v>19237119000</v>
+        <v>19053387200</v>
       </c>
       <c r="G18">
-        <v>450925000</v>
+        <v>193955000</v>
       </c>
       <c r="H18">
         <v>2439000</v>
       </c>
       <c r="I18">
-        <v>34896943000</v>
+        <v>34284655900</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-10T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>672816119000</v>
+        <v>634579897500</v>
       </c>
       <c r="L18">
         <v>41513200</v>
       </c>
       <c r="M18">
-        <v>-192300</v>
+        <v>-173800</v>
       </c>
       <c r="N18">
-        <v>4028220000</v>
+        <v>4016073500</v>
       </c>
       <c r="O18">
-        <v>-5650900</v>
+        <v>-6018600</v>
       </c>
       <c r="P18">
-        <v>-64835360000</v>
+        <v>-59008080700</v>
       </c>
     </row>
     <row r="19">
@@ -1307,49 +1307,49 @@
         <v>1676022480000</v>
       </c>
       <c r="B19">
-        <v>643900</v>
+        <v>641900</v>
       </c>
       <c r="C19">
-        <v>1523900</v>
+        <v>1526800</v>
       </c>
       <c r="D19">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="E19">
-        <v>8944191000</v>
+        <v>8790659100</v>
       </c>
       <c r="F19">
-        <v>25684565000</v>
+        <v>24695068200</v>
       </c>
       <c r="G19">
-        <v>93373000</v>
+        <v>58281000</v>
       </c>
       <c r="H19">
         <v>2171200</v>
       </c>
       <c r="I19">
-        <v>34722129000</v>
+        <v>33544008300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-10T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>707538248000</v>
+        <v>668123905800</v>
       </c>
       <c r="L19">
         <v>43684400</v>
       </c>
       <c r="M19">
-        <v>880000</v>
+        <v>884900</v>
       </c>
       <c r="N19">
-        <v>16740374000</v>
+        <v>15904409100</v>
       </c>
       <c r="O19">
-        <v>-4770900</v>
+        <v>-5133700</v>
       </c>
       <c r="P19">
-        <v>-48094986000</v>
+        <v>-43103671600</v>
       </c>
     </row>
     <row r="20">
@@ -1357,49 +1357,49 @@
         <v>1676022600000</v>
       </c>
       <c r="B20">
-        <v>626300</v>
+        <v>617300</v>
       </c>
       <c r="C20">
-        <v>1082100</v>
+        <v>1093100</v>
       </c>
       <c r="D20">
-        <v>3900</v>
+        <v>1900</v>
       </c>
       <c r="E20">
-        <v>9070778000</v>
+        <v>8756350400</v>
       </c>
       <c r="F20">
-        <v>19789796000</v>
+        <v>19478960200</v>
       </c>
       <c r="G20">
-        <v>67388000</v>
+        <v>98646000</v>
       </c>
       <c r="H20">
         <v>1712300</v>
       </c>
       <c r="I20">
-        <v>28927962000</v>
+        <v>28333956600</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-10T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>736466210000</v>
+        <v>696457862400</v>
       </c>
       <c r="L20">
         <v>45396700</v>
       </c>
       <c r="M20">
-        <v>455800</v>
+        <v>475800</v>
       </c>
       <c r="N20">
-        <v>10719018000</v>
+        <v>10722609800</v>
       </c>
       <c r="O20">
-        <v>-4315100</v>
+        <v>-4657900</v>
       </c>
       <c r="P20">
-        <v>-37375968000</v>
+        <v>-32381061800</v>
       </c>
     </row>
     <row r="21">
@@ -1407,49 +1407,49 @@
         <v>1676022720000</v>
       </c>
       <c r="B21">
-        <v>973200</v>
+        <v>967600</v>
       </c>
       <c r="C21">
-        <v>1227100</v>
+        <v>1260900</v>
       </c>
       <c r="D21">
-        <v>29200</v>
+        <v>1000</v>
       </c>
       <c r="E21">
-        <v>15772481000</v>
+        <v>15238361900</v>
       </c>
       <c r="F21">
-        <v>21762789000</v>
+        <v>21059778700</v>
       </c>
       <c r="G21">
-        <v>135025000</v>
+        <v>27900000</v>
       </c>
       <c r="H21">
         <v>2229500</v>
       </c>
       <c r="I21">
-        <v>37670295000</v>
+        <v>36326040600</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-10T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>774136505000</v>
+        <v>732783903000</v>
       </c>
       <c r="L21">
         <v>47626200</v>
       </c>
       <c r="M21">
-        <v>253900</v>
+        <v>293300</v>
       </c>
       <c r="N21">
-        <v>5990308000</v>
+        <v>5821416800</v>
       </c>
       <c r="O21">
-        <v>-4061200</v>
+        <v>-4364600</v>
       </c>
       <c r="P21">
-        <v>-31385660000</v>
+        <v>-26559645000</v>
       </c>
     </row>
     <row r="22">
@@ -1457,49 +1457,49 @@
         <v>1676022840000</v>
       </c>
       <c r="B22">
-        <v>1515800</v>
+        <v>1514800</v>
       </c>
       <c r="C22">
-        <v>730900</v>
+        <v>739300</v>
       </c>
       <c r="D22">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="E22">
-        <v>24942282000</v>
+        <v>24094008800</v>
       </c>
       <c r="F22">
-        <v>12634970000</v>
+        <v>11975229500</v>
       </c>
       <c r="G22">
-        <v>269675000</v>
+        <v>22545600</v>
       </c>
       <c r="H22">
         <v>2254700</v>
       </c>
       <c r="I22">
-        <v>37846927000</v>
+        <v>36091783900</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-10T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>811983432000</v>
+        <v>768875686900</v>
       </c>
       <c r="L22">
         <v>49880900</v>
       </c>
       <c r="M22">
-        <v>-784900</v>
+        <v>-775500</v>
       </c>
       <c r="N22">
-        <v>-12307312000</v>
+        <v>-12118779300</v>
       </c>
       <c r="O22">
-        <v>-4846100</v>
+        <v>-5140100</v>
       </c>
       <c r="P22">
-        <v>-43692972000</v>
+        <v>-38678424300</v>
       </c>
     </row>
     <row r="23">
@@ -1507,49 +1507,49 @@
         <v>1676022960000</v>
       </c>
       <c r="B23">
-        <v>924900</v>
+        <v>918400</v>
       </c>
       <c r="C23">
-        <v>795500</v>
+        <v>804800</v>
       </c>
       <c r="D23">
-        <v>4400</v>
+        <v>1600</v>
       </c>
       <c r="E23">
-        <v>14169874000</v>
+        <v>13973502400</v>
       </c>
       <c r="F23">
-        <v>13802218000</v>
+        <v>13095438200</v>
       </c>
       <c r="G23">
-        <v>158420000</v>
+        <v>56977000</v>
       </c>
       <c r="H23">
         <v>1724800</v>
       </c>
       <c r="I23">
-        <v>28130512000</v>
+        <v>27125917600</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-10T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>840113944000</v>
+        <v>796001604500</v>
       </c>
       <c r="L23">
         <v>51605700</v>
       </c>
       <c r="M23">
-        <v>-129400</v>
+        <v>-113600</v>
       </c>
       <c r="N23">
-        <v>-367656000</v>
+        <v>-878064200</v>
       </c>
       <c r="O23">
-        <v>-4975500</v>
+        <v>-5253700</v>
       </c>
       <c r="P23">
-        <v>-44060628000</v>
+        <v>-39556488500</v>
       </c>
     </row>
     <row r="24">
@@ -1560,46 +1560,46 @@
         <v>444200</v>
       </c>
       <c r="C24">
-        <v>1151800</v>
+        <v>1152600</v>
       </c>
       <c r="D24">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E24">
-        <v>6990574000</v>
+        <v>6655622300</v>
       </c>
       <c r="F24">
-        <v>20150147000</v>
+        <v>18019989600</v>
       </c>
       <c r="G24">
-        <v>24983000</v>
+        <v>9688000</v>
       </c>
       <c r="H24">
         <v>1597600</v>
       </c>
       <c r="I24">
-        <v>27165704000</v>
+        <v>24685299900</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-10T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>867279648000</v>
+        <v>820686904400</v>
       </c>
       <c r="L24">
         <v>53203300</v>
       </c>
       <c r="M24">
-        <v>707600</v>
+        <v>708400</v>
       </c>
       <c r="N24">
-        <v>13159573000</v>
+        <v>11364367300</v>
       </c>
       <c r="O24">
-        <v>-4267900</v>
+        <v>-4545300</v>
       </c>
       <c r="P24">
-        <v>-30901055000</v>
+        <v>-28192121200</v>
       </c>
     </row>
     <row r="25">
@@ -1607,49 +1607,49 @@
         <v>1676023200000</v>
       </c>
       <c r="B25">
-        <v>660600</v>
+        <v>599900</v>
       </c>
       <c r="C25">
-        <v>924800</v>
+        <v>987100</v>
       </c>
       <c r="D25">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>10713756000</v>
+        <v>9182341500</v>
       </c>
       <c r="F25">
-        <v>16044195000</v>
+        <v>13920027600</v>
       </c>
       <c r="G25">
-        <v>23835000</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>1587000</v>
       </c>
       <c r="I25">
-        <v>26781786000</v>
+        <v>23102369100</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-10T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>894061434000</v>
+        <v>843789273500</v>
       </c>
       <c r="L25">
         <v>54790300</v>
       </c>
       <c r="M25">
-        <v>264200</v>
+        <v>387200</v>
       </c>
       <c r="N25">
-        <v>5330439000</v>
+        <v>4737686100</v>
       </c>
       <c r="O25">
-        <v>-4003700</v>
+        <v>-4158100</v>
       </c>
       <c r="P25">
-        <v>-25570616000</v>
+        <v>-23454435100</v>
       </c>
     </row>
     <row r="26">
@@ -1657,19 +1657,19 @@
         <v>1676023320000</v>
       </c>
       <c r="B26">
-        <v>449100</v>
+        <v>449600</v>
       </c>
       <c r="C26">
-        <v>627300</v>
+        <v>626800</v>
       </c>
       <c r="D26">
         <v>17500</v>
       </c>
       <c r="E26">
-        <v>8421121000</v>
+        <v>7943612400</v>
       </c>
       <c r="F26">
-        <v>10889099000</v>
+        <v>9890784900</v>
       </c>
       <c r="G26">
         <v>182875000</v>
@@ -1678,28 +1678,28 @@
         <v>1093900</v>
       </c>
       <c r="I26">
-        <v>19493095000</v>
+        <v>18017272300</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-10T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>913554529000</v>
+        <v>861806545800</v>
       </c>
       <c r="L26">
         <v>55884200</v>
       </c>
       <c r="M26">
-        <v>178200</v>
+        <v>177200</v>
       </c>
       <c r="N26">
-        <v>2467978000</v>
+        <v>1947172500</v>
       </c>
       <c r="O26">
-        <v>-3825500</v>
+        <v>-3980900</v>
       </c>
       <c r="P26">
-        <v>-23102638000</v>
+        <v>-21507262600</v>
       </c>
     </row>
     <row r="27">
@@ -1707,19 +1707,19 @@
         <v>1676023440000</v>
       </c>
       <c r="B27">
-        <v>639900</v>
+        <v>661900</v>
       </c>
       <c r="C27">
-        <v>878500</v>
+        <v>856500</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>10582329000</v>
+        <v>10718817700</v>
       </c>
       <c r="F27">
-        <v>12470648000</v>
+        <v>11235658900</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1728,28 +1728,28 @@
         <v>1518400</v>
       </c>
       <c r="I27">
-        <v>23052977000</v>
+        <v>21954476600</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-10T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>936607506000</v>
+        <v>883761022400</v>
       </c>
       <c r="L27">
         <v>57402600</v>
       </c>
       <c r="M27">
-        <v>238600</v>
+        <v>194600</v>
       </c>
       <c r="N27">
-        <v>1888319000</v>
+        <v>516841200</v>
       </c>
       <c r="O27">
-        <v>-3586900</v>
+        <v>-3786300</v>
       </c>
       <c r="P27">
-        <v>-21214319000</v>
+        <v>-20990421400</v>
       </c>
     </row>
     <row r="28">
@@ -1757,49 +1757,49 @@
         <v>1676023560000</v>
       </c>
       <c r="B28">
-        <v>807000</v>
+        <v>818000</v>
       </c>
       <c r="C28">
-        <v>780400</v>
+        <v>781000</v>
       </c>
       <c r="D28">
-        <v>15800</v>
+        <v>4200</v>
       </c>
       <c r="E28">
-        <v>16723542000</v>
+        <v>15813938200</v>
       </c>
       <c r="F28">
-        <v>14924664000</v>
+        <v>12063478200</v>
       </c>
       <c r="G28">
-        <v>294504000</v>
+        <v>33929000</v>
       </c>
       <c r="H28">
         <v>1603200</v>
       </c>
       <c r="I28">
-        <v>31942710000</v>
+        <v>27911345400</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-10T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>968550216000</v>
+        <v>911672367800</v>
       </c>
       <c r="L28">
         <v>59005800</v>
       </c>
       <c r="M28">
-        <v>-26600</v>
+        <v>-37000</v>
       </c>
       <c r="N28">
-        <v>-1798878000</v>
+        <v>-3750460000</v>
       </c>
       <c r="O28">
-        <v>-3613500</v>
+        <v>-3823300</v>
       </c>
       <c r="P28">
-        <v>-23013197000</v>
+        <v>-24740881400</v>
       </c>
     </row>
     <row r="29">
@@ -1807,49 +1807,49 @@
         <v>1676023680000</v>
       </c>
       <c r="B29">
-        <v>712200</v>
+        <v>719300</v>
       </c>
       <c r="C29">
-        <v>676000</v>
+        <v>674800</v>
       </c>
       <c r="D29">
-        <v>6100</v>
+        <v>200</v>
       </c>
       <c r="E29">
-        <v>12622951000</v>
+        <v>10836349100</v>
       </c>
       <c r="F29">
-        <v>13237413000</v>
+        <v>12953413200</v>
       </c>
       <c r="G29">
-        <v>127328000</v>
+        <v>1828000</v>
       </c>
       <c r="H29">
         <v>1394300</v>
       </c>
       <c r="I29">
-        <v>25987692000</v>
+        <v>23791590300</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-10T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>994537908000</v>
+        <v>935463958100</v>
       </c>
       <c r="L29">
         <v>60400100</v>
       </c>
       <c r="M29">
-        <v>-36200</v>
+        <v>-44500</v>
       </c>
       <c r="N29">
-        <v>614462000</v>
+        <v>2117064100</v>
       </c>
       <c r="O29">
-        <v>-3649700</v>
+        <v>-3867800</v>
       </c>
       <c r="P29">
-        <v>-22398735000</v>
+        <v>-22623817300</v>
       </c>
     </row>
     <row r="30">
@@ -1857,49 +1857,49 @@
         <v>1676023800000</v>
       </c>
       <c r="B30">
-        <v>622200</v>
+        <v>622600</v>
       </c>
       <c r="C30">
         <v>565900</v>
       </c>
       <c r="D30">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>9110217000</v>
+        <v>8799739800</v>
       </c>
       <c r="F30">
-        <v>10353696000</v>
+        <v>9370180500</v>
       </c>
       <c r="G30">
-        <v>11140000</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>1188500</v>
       </c>
       <c r="I30">
-        <v>19475053000</v>
+        <v>18169920300</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-10T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1014012961000</v>
+        <v>953633878400</v>
       </c>
       <c r="L30">
         <v>61588600</v>
       </c>
       <c r="M30">
-        <v>-56300</v>
+        <v>-56700</v>
       </c>
       <c r="N30">
-        <v>1243479000</v>
+        <v>570440700</v>
       </c>
       <c r="O30">
-        <v>-3706000</v>
+        <v>-3924500</v>
       </c>
       <c r="P30">
-        <v>-21155256000</v>
+        <v>-22053376600</v>
       </c>
     </row>
     <row r="31">
@@ -1907,49 +1907,49 @@
         <v>1676023920000</v>
       </c>
       <c r="B31">
-        <v>390200</v>
+        <v>382300</v>
       </c>
       <c r="C31">
-        <v>979500</v>
+        <v>986600</v>
       </c>
       <c r="D31">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="E31">
-        <v>7289993000</v>
+        <v>6348509600</v>
       </c>
       <c r="F31">
-        <v>17824289000</v>
+        <v>16880470900</v>
       </c>
       <c r="G31">
-        <v>46800000</v>
+        <v>95440000</v>
       </c>
       <c r="H31">
         <v>1372100</v>
       </c>
       <c r="I31">
-        <v>25161082000</v>
+        <v>23324420500</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-10T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1039174043000</v>
+        <v>976958298900</v>
       </c>
       <c r="L31">
         <v>62960700</v>
       </c>
       <c r="M31">
-        <v>589300</v>
+        <v>604300</v>
       </c>
       <c r="N31">
-        <v>10534296000</v>
+        <v>10531961300</v>
       </c>
       <c r="O31">
-        <v>-3116700</v>
+        <v>-3320200</v>
       </c>
       <c r="P31">
-        <v>-10620960000</v>
+        <v>-11521415300</v>
       </c>
     </row>
     <row r="32">
@@ -1957,49 +1957,49 @@
         <v>1676024040000</v>
       </c>
       <c r="B32">
-        <v>445500</v>
+        <v>444100</v>
       </c>
       <c r="C32">
-        <v>1196300</v>
+        <v>1198400</v>
       </c>
       <c r="D32">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="E32">
-        <v>8225252000</v>
+        <v>7845558500</v>
       </c>
       <c r="F32">
-        <v>19491840000</v>
+        <v>17960429800</v>
       </c>
       <c r="G32">
-        <v>57332000</v>
+        <v>34072000</v>
       </c>
       <c r="H32">
         <v>1645800</v>
       </c>
       <c r="I32">
-        <v>27774424000</v>
+        <v>25840060300</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-10T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1066948467000</v>
+        <v>1002798359200</v>
       </c>
       <c r="L32">
         <v>64606500</v>
       </c>
       <c r="M32">
-        <v>750800</v>
+        <v>754300</v>
       </c>
       <c r="N32">
-        <v>11266588000</v>
+        <v>10114871300</v>
       </c>
       <c r="O32">
-        <v>-2365900</v>
+        <v>-2565900</v>
       </c>
       <c r="P32">
-        <v>645628000</v>
+        <v>-1406544000</v>
       </c>
     </row>
     <row r="33">
@@ -2007,49 +2007,49 @@
         <v>1676024160000</v>
       </c>
       <c r="B33">
-        <v>411700</v>
+        <v>454200</v>
       </c>
       <c r="C33">
-        <v>1796300</v>
+        <v>1747200</v>
       </c>
       <c r="D33">
-        <v>20300</v>
+        <v>26900</v>
       </c>
       <c r="E33">
-        <v>6943036000</v>
+        <v>6662884900</v>
       </c>
       <c r="F33">
-        <v>31195031000</v>
+        <v>29819804000</v>
       </c>
       <c r="G33">
-        <v>144395000</v>
+        <v>103352000</v>
       </c>
       <c r="H33">
         <v>2228300</v>
       </c>
       <c r="I33">
-        <v>38282462000</v>
+        <v>36586040900</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-10T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1105230929000</v>
+        <v>1039384400100</v>
       </c>
       <c r="L33">
         <v>66834800</v>
       </c>
       <c r="M33">
-        <v>1384600</v>
+        <v>1293000</v>
       </c>
       <c r="N33">
-        <v>24251995000</v>
+        <v>23156919100</v>
       </c>
       <c r="O33">
-        <v>-981300</v>
+        <v>-1272900</v>
       </c>
       <c r="P33">
-        <v>24897623000</v>
+        <v>21750375100</v>
       </c>
     </row>
     <row r="34">
@@ -2057,49 +2057,49 @@
         <v>1676024280000</v>
       </c>
       <c r="B34">
-        <v>848100</v>
+        <v>839600</v>
       </c>
       <c r="C34">
-        <v>1264700</v>
+        <v>1281400</v>
       </c>
       <c r="D34">
-        <v>36300</v>
+        <v>28100</v>
       </c>
       <c r="E34">
-        <v>19268712000</v>
+        <v>16097968000</v>
       </c>
       <c r="F34">
-        <v>19681681000</v>
+        <v>19407045600</v>
       </c>
       <c r="G34">
-        <v>756742000</v>
+        <v>639088000</v>
       </c>
       <c r="H34">
         <v>2149100</v>
       </c>
       <c r="I34">
-        <v>39707135000</v>
+        <v>36144101600</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-10T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1144938064000</v>
+        <v>1075528501700</v>
       </c>
       <c r="L34">
         <v>68983900</v>
       </c>
       <c r="M34">
-        <v>416600</v>
+        <v>441800</v>
       </c>
       <c r="N34">
-        <v>412969000</v>
+        <v>3309077600</v>
       </c>
       <c r="O34">
-        <v>-564700</v>
+        <v>-831100</v>
       </c>
       <c r="P34">
-        <v>25310592000</v>
+        <v>25059452700</v>
       </c>
     </row>
     <row r="35">
@@ -2107,49 +2107,49 @@
         <v>1676024400000</v>
       </c>
       <c r="B35">
-        <v>1523000</v>
+        <v>1572000</v>
       </c>
       <c r="C35">
-        <v>707700</v>
+        <v>662000</v>
       </c>
       <c r="D35">
-        <v>5900</v>
+        <v>2600</v>
       </c>
       <c r="E35">
-        <v>28919806000</v>
+        <v>27844222700</v>
       </c>
       <c r="F35">
-        <v>12594956000</v>
+        <v>11197723800</v>
       </c>
       <c r="G35">
-        <v>223437000</v>
+        <v>72379000</v>
       </c>
       <c r="H35">
         <v>2236600</v>
       </c>
       <c r="I35">
-        <v>41738199000</v>
+        <v>39114325500</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-10T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1186676263000</v>
+        <v>1114642827200</v>
       </c>
       <c r="L35">
         <v>71220500</v>
       </c>
       <c r="M35">
-        <v>-815300</v>
+        <v>-910000</v>
       </c>
       <c r="N35">
-        <v>-16324850000</v>
+        <v>-16646498900</v>
       </c>
       <c r="O35">
-        <v>-1380000</v>
+        <v>-1741100</v>
       </c>
       <c r="P35">
-        <v>8985742000</v>
+        <v>8412953800</v>
       </c>
     </row>
     <row r="36">
@@ -2157,49 +2157,49 @@
         <v>1676024520000</v>
       </c>
       <c r="B36">
-        <v>1013800</v>
+        <v>1027000</v>
       </c>
       <c r="C36">
-        <v>580500</v>
+        <v>569400</v>
       </c>
       <c r="D36">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>17976119000</v>
+        <v>17130277700</v>
       </c>
       <c r="F36">
-        <v>8235374000</v>
+        <v>7558257900</v>
       </c>
       <c r="G36">
-        <v>105015000</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1596400</v>
       </c>
       <c r="I36">
-        <v>26316508000</v>
+        <v>24688535600</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-10T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1212992771000</v>
+        <v>1139331362800</v>
       </c>
       <c r="L36">
         <v>72816900</v>
       </c>
       <c r="M36">
-        <v>-433300</v>
+        <v>-457600</v>
       </c>
       <c r="N36">
-        <v>-9740745000</v>
+        <v>-9572019800</v>
       </c>
       <c r="O36">
-        <v>-1813300</v>
+        <v>-2198700</v>
       </c>
       <c r="P36">
-        <v>-755003000</v>
+        <v>-1159066000</v>
       </c>
     </row>
     <row r="37">
@@ -2207,49 +2207,49 @@
         <v>1676024640000</v>
       </c>
       <c r="B37">
-        <v>726600</v>
+        <v>727000</v>
       </c>
       <c r="C37">
-        <v>458100</v>
+        <v>458000</v>
       </c>
       <c r="D37">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E37">
-        <v>12947998000</v>
+        <v>12335469200</v>
       </c>
       <c r="F37">
-        <v>6885344000</v>
+        <v>6835191800</v>
       </c>
       <c r="G37">
-        <v>136823000</v>
+        <v>105199000</v>
       </c>
       <c r="H37">
         <v>1193900</v>
       </c>
       <c r="I37">
-        <v>19970165000</v>
+        <v>19275860000</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-10T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1232962936000</v>
+        <v>1158607222800</v>
       </c>
       <c r="L37">
         <v>74010800</v>
       </c>
       <c r="M37">
-        <v>-268500</v>
+        <v>-269000</v>
       </c>
       <c r="N37">
-        <v>-6062654000</v>
+        <v>-5500277400</v>
       </c>
       <c r="O37">
-        <v>-2081800</v>
+        <v>-2467700</v>
       </c>
       <c r="P37">
-        <v>-6817657000</v>
+        <v>-6659343400</v>
       </c>
     </row>
     <row r="38">
@@ -2257,19 +2257,19 @@
         <v>1676024760000</v>
       </c>
       <c r="B38">
-        <v>612600</v>
+        <v>614800</v>
       </c>
       <c r="C38">
-        <v>366400</v>
+        <v>364200</v>
       </c>
       <c r="D38">
         <v>1400</v>
       </c>
       <c r="E38">
-        <v>10023770000</v>
+        <v>9680795600</v>
       </c>
       <c r="F38">
-        <v>7980047000</v>
+        <v>7791553400</v>
       </c>
       <c r="G38">
         <v>6202000</v>
@@ -2278,28 +2278,28 @@
         <v>980400</v>
       </c>
       <c r="I38">
-        <v>18010019000</v>
+        <v>17478551000</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-10T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1250972955000</v>
+        <v>1176085773800</v>
       </c>
       <c r="L38">
         <v>74991200</v>
       </c>
       <c r="M38">
-        <v>-246200</v>
+        <v>-250600</v>
       </c>
       <c r="N38">
-        <v>-2043723000</v>
+        <v>-1889242200</v>
       </c>
       <c r="O38">
-        <v>-2328000</v>
+        <v>-2718300</v>
       </c>
       <c r="P38">
-        <v>-8861380000</v>
+        <v>-8548585600</v>
       </c>
     </row>
     <row r="39">
@@ -2307,19 +2307,19 @@
         <v>1676024880000</v>
       </c>
       <c r="B39">
-        <v>717700</v>
+        <v>723300</v>
       </c>
       <c r="C39">
-        <v>508300</v>
+        <v>502700</v>
       </c>
       <c r="D39">
         <v>100</v>
       </c>
       <c r="E39">
-        <v>13932400000</v>
+        <v>13488758400</v>
       </c>
       <c r="F39">
-        <v>9574588000</v>
+        <v>9012436400</v>
       </c>
       <c r="G39">
         <v>3815000</v>
@@ -2328,28 +2328,28 @@
         <v>1226100</v>
       </c>
       <c r="I39">
-        <v>23510803000</v>
+        <v>22505009800</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-10T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1274483758000</v>
+        <v>1198590783600</v>
       </c>
       <c r="L39">
         <v>76217300</v>
       </c>
       <c r="M39">
-        <v>-209400</v>
+        <v>-220600</v>
       </c>
       <c r="N39">
-        <v>-4357812000</v>
+        <v>-4476322000</v>
       </c>
       <c r="O39">
-        <v>-2537400</v>
+        <v>-2938900</v>
       </c>
       <c r="P39">
-        <v>-13219192000</v>
+        <v>-13024907600</v>
       </c>
     </row>
     <row r="40">
@@ -2357,49 +2357,49 @@
         <v>1676025000000</v>
       </c>
       <c r="B40">
-        <v>586300</v>
+        <v>590400</v>
       </c>
       <c r="C40">
-        <v>624800</v>
+        <v>624400</v>
       </c>
       <c r="D40">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>8868737000</v>
+        <v>7858311000</v>
       </c>
       <c r="F40">
-        <v>11041498000</v>
+        <v>10578413400</v>
       </c>
       <c r="G40">
-        <v>164250000</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>1214800</v>
       </c>
       <c r="I40">
-        <v>20074485000</v>
+        <v>18436724400</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-10T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1294558243000</v>
+        <v>1217027508000</v>
       </c>
       <c r="L40">
         <v>77432100</v>
       </c>
       <c r="M40">
-        <v>38500</v>
+        <v>34000</v>
       </c>
       <c r="N40">
-        <v>2172761000</v>
+        <v>2720102400</v>
       </c>
       <c r="O40">
-        <v>-2498900</v>
+        <v>-2904900</v>
       </c>
       <c r="P40">
-        <v>-11046431000</v>
+        <v>-10304805200</v>
       </c>
     </row>
     <row r="41">
@@ -2407,19 +2407,19 @@
         <v>1676025120000</v>
       </c>
       <c r="B41">
-        <v>777000</v>
+        <v>794000</v>
       </c>
       <c r="C41">
-        <v>677900</v>
+        <v>660900</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>11934014000</v>
+        <v>12266760000</v>
       </c>
       <c r="F41">
-        <v>14302194000</v>
+        <v>13286831300</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2428,28 +2428,28 @@
         <v>1454900</v>
       </c>
       <c r="I41">
-        <v>26236208000</v>
+        <v>25553591300</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-10T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1320794451000</v>
+        <v>1242581099300</v>
       </c>
       <c r="L41">
         <v>78887000</v>
       </c>
       <c r="M41">
-        <v>-99100</v>
+        <v>-133100</v>
       </c>
       <c r="N41">
-        <v>2368180000</v>
+        <v>1020071300</v>
       </c>
       <c r="O41">
-        <v>-2598000</v>
+        <v>-3038000</v>
       </c>
       <c r="P41">
-        <v>-8678251000</v>
+        <v>-9284733900</v>
       </c>
     </row>
     <row r="42">
@@ -2457,49 +2457,49 @@
         <v>1676025240000</v>
       </c>
       <c r="B42">
-        <v>836100</v>
+        <v>823900</v>
       </c>
       <c r="C42">
-        <v>590700</v>
+        <v>602400</v>
       </c>
       <c r="D42">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="E42">
-        <v>13615751000</v>
+        <v>13722164000</v>
       </c>
       <c r="F42">
-        <v>9965862000</v>
+        <v>9050344700</v>
       </c>
       <c r="G42">
-        <v>271557000</v>
+        <v>285757000</v>
       </c>
       <c r="H42">
         <v>1442300</v>
       </c>
       <c r="I42">
-        <v>23853170000</v>
+        <v>23058265700</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-10T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1344647621000</v>
+        <v>1265639365000</v>
       </c>
       <c r="L42">
         <v>80329300</v>
       </c>
       <c r="M42">
-        <v>-245400</v>
+        <v>-221500</v>
       </c>
       <c r="N42">
-        <v>-3649889000</v>
+        <v>-4671819300</v>
       </c>
       <c r="O42">
-        <v>-2843400</v>
+        <v>-3259500</v>
       </c>
       <c r="P42">
-        <v>-12328140000</v>
+        <v>-13956553200</v>
       </c>
     </row>
     <row r="43">
@@ -2507,49 +2507,49 @@
         <v>1676025360000</v>
       </c>
       <c r="B43">
-        <v>842700</v>
+        <v>828700</v>
       </c>
       <c r="C43">
-        <v>479500</v>
+        <v>492200</v>
       </c>
       <c r="D43">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E43">
-        <v>14086287000</v>
+        <v>11164062000</v>
       </c>
       <c r="F43">
-        <v>8696561000</v>
+        <v>7598904700</v>
       </c>
       <c r="G43">
-        <v>22800000</v>
+        <v>22805200</v>
       </c>
       <c r="H43">
         <v>1322700</v>
       </c>
       <c r="I43">
-        <v>22805648000</v>
+        <v>18785771900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-10T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1367453269000</v>
+        <v>1284425136900</v>
       </c>
       <c r="L43">
         <v>81652000</v>
       </c>
       <c r="M43">
-        <v>-363200</v>
+        <v>-336500</v>
       </c>
       <c r="N43">
-        <v>-5389726000</v>
+        <v>-3565157300</v>
       </c>
       <c r="O43">
-        <v>-3206600</v>
+        <v>-3596000</v>
       </c>
       <c r="P43">
-        <v>-17717866000</v>
+        <v>-17521710500</v>
       </c>
     </row>
     <row r="44">
@@ -2557,49 +2557,49 @@
         <v>1676025480000</v>
       </c>
       <c r="B44">
-        <v>650100</v>
+        <v>649700</v>
       </c>
       <c r="C44">
-        <v>815200</v>
+        <v>815100</v>
       </c>
       <c r="D44">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E44">
-        <v>14146545000</v>
+        <v>12513260700</v>
       </c>
       <c r="F44">
-        <v>12094159000</v>
+        <v>11101048300</v>
       </c>
       <c r="G44">
-        <v>980000.0000000001</v>
+        <v>19985000</v>
       </c>
       <c r="H44">
         <v>1465500</v>
       </c>
       <c r="I44">
-        <v>26241684000</v>
+        <v>23634294000</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-10T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1393694953000</v>
+        <v>1308059430900</v>
       </c>
       <c r="L44">
         <v>83117500</v>
       </c>
       <c r="M44">
-        <v>165100</v>
+        <v>165400</v>
       </c>
       <c r="N44">
-        <v>-2052386000</v>
+        <v>-1412212400</v>
       </c>
       <c r="O44">
-        <v>-3041500</v>
+        <v>-3430600</v>
       </c>
       <c r="P44">
-        <v>-19770252000</v>
+        <v>-18933922900</v>
       </c>
     </row>
     <row r="45">
@@ -2607,19 +2607,19 @@
         <v>1676025600000</v>
       </c>
       <c r="B45">
-        <v>595700</v>
+        <v>593300</v>
       </c>
       <c r="C45">
-        <v>640400</v>
+        <v>642800</v>
       </c>
       <c r="D45">
         <v>1200</v>
       </c>
       <c r="E45">
-        <v>11765195000</v>
+        <v>11453407400</v>
       </c>
       <c r="F45">
-        <v>10901254000</v>
+        <v>10736218900</v>
       </c>
       <c r="G45">
         <v>8268000</v>
@@ -2628,28 +2628,28 @@
         <v>1237300</v>
       </c>
       <c r="I45">
-        <v>22674717000</v>
+        <v>22197894300</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-10T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1416369670000</v>
+        <v>1330257325200</v>
       </c>
       <c r="L45">
         <v>84354800</v>
       </c>
       <c r="M45">
-        <v>44700</v>
+        <v>49500</v>
       </c>
       <c r="N45">
-        <v>-863941000</v>
+        <v>-717188500</v>
       </c>
       <c r="O45">
-        <v>-2996800</v>
+        <v>-3381100</v>
       </c>
       <c r="P45">
-        <v>-20634193000</v>
+        <v>-19651111400</v>
       </c>
     </row>
     <row r="46">
@@ -2657,49 +2657,49 @@
         <v>1676025720000</v>
       </c>
       <c r="B46">
-        <v>810800</v>
+        <v>818200</v>
       </c>
       <c r="C46">
-        <v>435200</v>
+        <v>427700</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46">
-        <v>12807344000</v>
+        <v>12761819200</v>
       </c>
       <c r="F46">
-        <v>8937010000</v>
+        <v>8152354600</v>
       </c>
       <c r="G46">
-        <v>1530000</v>
+        <v>2740000</v>
       </c>
       <c r="H46">
         <v>1246200</v>
       </c>
       <c r="I46">
-        <v>21745884000</v>
+        <v>20916913800</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-10T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1438115554000</v>
+        <v>1351174239000</v>
       </c>
       <c r="L46">
         <v>85601000</v>
       </c>
       <c r="M46">
-        <v>-375600</v>
+        <v>-390500</v>
       </c>
       <c r="N46">
-        <v>-3870334000</v>
+        <v>-4609464600</v>
       </c>
       <c r="O46">
-        <v>-3372400</v>
+        <v>-3771600</v>
       </c>
       <c r="P46">
-        <v>-24504527000</v>
+        <v>-24260576000</v>
       </c>
     </row>
     <row r="47">
@@ -2707,49 +2707,49 @@
         <v>1676025840000</v>
       </c>
       <c r="B47">
-        <v>722300</v>
+        <v>745500</v>
       </c>
       <c r="C47">
-        <v>420400</v>
+        <v>398200</v>
       </c>
       <c r="D47">
         <v>1500</v>
       </c>
       <c r="E47">
-        <v>10547247000</v>
+        <v>10697154200</v>
       </c>
       <c r="F47">
-        <v>10195991000</v>
+        <v>9439804400</v>
       </c>
       <c r="G47">
         <v>98885000</v>
       </c>
       <c r="H47">
-        <v>1144200</v>
+        <v>1145200</v>
       </c>
       <c r="I47">
-        <v>20842123000</v>
+        <v>20235843600</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-10T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1458957677000</v>
+        <v>1371410082600</v>
       </c>
       <c r="L47">
-        <v>86745200</v>
+        <v>86746200</v>
       </c>
       <c r="M47">
-        <v>-301900</v>
+        <v>-347300</v>
       </c>
       <c r="N47">
-        <v>-351256000</v>
+        <v>-1257349800</v>
       </c>
       <c r="O47">
-        <v>-3674300</v>
+        <v>-4118900</v>
       </c>
       <c r="P47">
-        <v>-24855783000</v>
+        <v>-25517925800</v>
       </c>
     </row>
     <row r="48">
@@ -2757,49 +2757,49 @@
         <v>1676025960000</v>
       </c>
       <c r="B48">
-        <v>708100</v>
+        <v>708200</v>
       </c>
       <c r="C48">
-        <v>477900</v>
+        <v>476900</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>10697212000</v>
+        <v>10420662500</v>
       </c>
       <c r="F48">
-        <v>10330479000</v>
+        <v>10216779100</v>
       </c>
       <c r="G48">
-        <v>3670000.0000000005</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1186100</v>
+        <v>1185100</v>
       </c>
       <c r="I48">
-        <v>21031361000</v>
+        <v>20637441600</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-10T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1479989038000</v>
+        <v>1392047524200</v>
       </c>
       <c r="L48">
         <v>87931300</v>
       </c>
       <c r="M48">
-        <v>-230200</v>
+        <v>-231300</v>
       </c>
       <c r="N48">
-        <v>-366733000</v>
+        <v>-203883400</v>
       </c>
       <c r="O48">
-        <v>-3904500</v>
+        <v>-4350200</v>
       </c>
       <c r="P48">
-        <v>-25222516000</v>
+        <v>-25721809200</v>
       </c>
     </row>
     <row r="49">
@@ -2807,49 +2807,49 @@
         <v>1676026080000</v>
       </c>
       <c r="B49">
-        <v>786600</v>
+        <v>786500</v>
       </c>
       <c r="C49">
         <v>441300</v>
       </c>
       <c r="D49">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E49">
-        <v>14718690000</v>
+        <v>14325941600</v>
       </c>
       <c r="F49">
-        <v>8578004000</v>
+        <v>8337444800</v>
       </c>
       <c r="G49">
-        <v>21000000</v>
+        <v>21541000</v>
       </c>
       <c r="H49">
         <v>1228800</v>
       </c>
       <c r="I49">
-        <v>23317694000</v>
+        <v>22684927400</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-10T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1503306732000</v>
+        <v>1414732451600</v>
       </c>
       <c r="L49">
         <v>89160100</v>
       </c>
       <c r="M49">
-        <v>-345300</v>
+        <v>-345200</v>
       </c>
       <c r="N49">
-        <v>-6140686000</v>
+        <v>-5988496800</v>
       </c>
       <c r="O49">
-        <v>-4249800</v>
+        <v>-4695400</v>
       </c>
       <c r="P49">
-        <v>-31363202000</v>
+        <v>-31710306000</v>
       </c>
     </row>
     <row r="50">
@@ -2857,49 +2857,49 @@
         <v>1676026200000</v>
       </c>
       <c r="B50">
-        <v>2655400</v>
+        <v>2584400</v>
       </c>
       <c r="C50">
-        <v>502900</v>
+        <v>494800</v>
       </c>
       <c r="D50">
-        <v>32600</v>
+        <v>111700</v>
       </c>
       <c r="E50">
-        <v>47129976000</v>
+        <v>37972977700</v>
       </c>
       <c r="F50">
-        <v>8818228000</v>
+        <v>5194634500</v>
       </c>
       <c r="G50">
-        <v>737640000</v>
+        <v>2649110000</v>
       </c>
       <c r="H50">
         <v>3190900</v>
       </c>
       <c r="I50">
-        <v>56685844000</v>
+        <v>45816722200</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-10T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>1559992576000</v>
+        <v>1460549173800</v>
       </c>
       <c r="L50">
         <v>92351000</v>
       </c>
       <c r="M50">
-        <v>-2152500</v>
+        <v>-2089600</v>
       </c>
       <c r="N50">
-        <v>-38311748000</v>
+        <v>-32778343200</v>
       </c>
       <c r="O50">
-        <v>-6402300</v>
+        <v>-6785000</v>
       </c>
       <c r="P50">
-        <v>-69674950000</v>
+        <v>-64488649200</v>
       </c>
     </row>
     <row r="51">
@@ -2907,19 +2907,19 @@
         <v>1676026320000</v>
       </c>
       <c r="B51">
-        <v>1406300</v>
+        <v>1408000</v>
       </c>
       <c r="C51">
-        <v>332200</v>
+        <v>330500</v>
       </c>
       <c r="D51">
         <v>2300</v>
       </c>
       <c r="E51">
-        <v>22531582000</v>
+        <v>20073712900</v>
       </c>
       <c r="F51">
-        <v>6857724000</v>
+        <v>5161451400</v>
       </c>
       <c r="G51">
         <v>139124000</v>
@@ -2928,28 +2928,28 @@
         <v>1740800</v>
       </c>
       <c r="I51">
-        <v>29528430000</v>
+        <v>25374288300</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-10T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>1589521006000</v>
+        <v>1485923462100</v>
       </c>
       <c r="L51">
         <v>94091800</v>
       </c>
       <c r="M51">
-        <v>-1074100</v>
+        <v>-1077500</v>
       </c>
       <c r="N51">
-        <v>-15673858000</v>
+        <v>-14912261500</v>
       </c>
       <c r="O51">
-        <v>-7476400</v>
+        <v>-7862500</v>
       </c>
       <c r="P51">
-        <v>-85348808000</v>
+        <v>-79400910700</v>
       </c>
     </row>
     <row r="52">
@@ -2957,49 +2957,49 @@
         <v>1676026440000</v>
       </c>
       <c r="B52">
-        <v>1388300</v>
+        <v>1405100</v>
       </c>
       <c r="C52">
-        <v>335100</v>
+        <v>337200</v>
       </c>
       <c r="D52">
-        <v>22800</v>
+        <v>3900</v>
       </c>
       <c r="E52">
-        <v>24874289000</v>
+        <v>23176816800</v>
       </c>
       <c r="F52">
-        <v>8554441000</v>
+        <v>6553619900</v>
       </c>
       <c r="G52">
-        <v>329071000</v>
+        <v>30665000</v>
       </c>
       <c r="H52">
         <v>1746200</v>
       </c>
       <c r="I52">
-        <v>33757801000</v>
+        <v>29761101700</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-10T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>1623278807000</v>
+        <v>1515684563800</v>
       </c>
       <c r="L52">
         <v>95838000</v>
       </c>
       <c r="M52">
-        <v>-1053200</v>
+        <v>-1067900</v>
       </c>
       <c r="N52">
-        <v>-16319848000</v>
+        <v>-16623196900</v>
       </c>
       <c r="O52">
-        <v>-8529600</v>
+        <v>-8930400</v>
       </c>
       <c r="P52">
-        <v>-101668656000</v>
+        <v>-96024107600</v>
       </c>
     </row>
     <row r="53">
@@ -3007,49 +3007,49 @@
         <v>1676026560000</v>
       </c>
       <c r="B53">
-        <v>750300</v>
+        <v>783700</v>
       </c>
       <c r="C53">
-        <v>482400</v>
+        <v>457900</v>
       </c>
       <c r="D53">
-        <v>9100</v>
+        <v>200</v>
       </c>
       <c r="E53">
-        <v>12404909000</v>
+        <v>12555855400</v>
       </c>
       <c r="F53">
-        <v>8731341000</v>
+        <v>7070437000</v>
       </c>
       <c r="G53">
-        <v>216370000</v>
+        <v>5650000</v>
       </c>
       <c r="H53">
         <v>1241800</v>
       </c>
       <c r="I53">
-        <v>21352620000</v>
+        <v>19631942400</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-10T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>1644631427000</v>
+        <v>1535316506200</v>
       </c>
       <c r="L53">
         <v>97079800</v>
       </c>
       <c r="M53">
-        <v>-267900</v>
+        <v>-325800</v>
       </c>
       <c r="N53">
-        <v>-3673568000</v>
+        <v>-5485418400</v>
       </c>
       <c r="O53">
-        <v>-8797500</v>
+        <v>-9256200</v>
       </c>
       <c r="P53">
-        <v>-105342224000</v>
+        <v>-101509526000</v>
       </c>
     </row>
     <row r="54">
@@ -3057,49 +3057,49 @@
         <v>1676026680000</v>
       </c>
       <c r="B54">
-        <v>954900</v>
+        <v>954400</v>
       </c>
       <c r="C54">
-        <v>360000</v>
+        <v>362800</v>
       </c>
       <c r="D54">
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="E54">
-        <v>17030090000</v>
+        <v>16956226800</v>
       </c>
       <c r="F54">
-        <v>7724154000</v>
+        <v>6585637800</v>
       </c>
       <c r="G54">
-        <v>167460000</v>
+        <v>60560000</v>
       </c>
       <c r="H54">
         <v>1319500</v>
       </c>
       <c r="I54">
-        <v>24921704000</v>
+        <v>23602424600</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-10T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>1669553131000</v>
+        <v>1558918930800</v>
       </c>
       <c r="L54">
         <v>98399300</v>
       </c>
       <c r="M54">
-        <v>-594900</v>
+        <v>-591600</v>
       </c>
       <c r="N54">
-        <v>-9305936000</v>
+        <v>-10370589000</v>
       </c>
       <c r="O54">
-        <v>-9392400</v>
+        <v>-9847800</v>
       </c>
       <c r="P54">
-        <v>-114648160000</v>
+        <v>-111880115000</v>
       </c>
     </row>
     <row r="55">
@@ -3107,49 +3107,49 @@
         <v>1676026800000</v>
       </c>
       <c r="B55">
-        <v>1053100</v>
+        <v>1062100</v>
       </c>
       <c r="C55">
-        <v>242100</v>
+        <v>228100</v>
       </c>
       <c r="D55">
-        <v>1700</v>
+        <v>6700</v>
       </c>
       <c r="E55">
-        <v>19708100000</v>
+        <v>19198105600</v>
       </c>
       <c r="F55">
-        <v>5394408000</v>
+        <v>4983172400</v>
       </c>
       <c r="G55">
-        <v>50405000</v>
+        <v>172405000</v>
       </c>
       <c r="H55">
         <v>1296900</v>
       </c>
       <c r="I55">
-        <v>25152913000</v>
+        <v>24353683000</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-10T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>1694706044000</v>
+        <v>1583272613800</v>
       </c>
       <c r="L55">
         <v>99696200</v>
       </c>
       <c r="M55">
-        <v>-811000</v>
+        <v>-834000</v>
       </c>
       <c r="N55">
-        <v>-14313692000</v>
+        <v>-14214933200</v>
       </c>
       <c r="O55">
-        <v>-10203400</v>
+        <v>-10681800</v>
       </c>
       <c r="P55">
-        <v>-128961852000</v>
+        <v>-126095048200</v>
       </c>
     </row>
     <row r="56">
@@ -3157,49 +3157,49 @@
         <v>1676026920000</v>
       </c>
       <c r="B56">
-        <v>1236600</v>
+        <v>1235300</v>
       </c>
       <c r="C56">
-        <v>207900</v>
+        <v>210800</v>
       </c>
       <c r="D56">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E56">
-        <v>20284693000</v>
+        <v>19831852000</v>
       </c>
       <c r="F56">
-        <v>4533608000</v>
+        <v>4391657700</v>
       </c>
       <c r="G56">
-        <v>9700000</v>
+        <v>12125000</v>
       </c>
       <c r="H56">
-        <v>1444900</v>
+        <v>1446600</v>
       </c>
       <c r="I56">
-        <v>24828001000</v>
+        <v>24235634700</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-10T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>1719534045000</v>
+        <v>1607508248500</v>
       </c>
       <c r="L56">
-        <v>101141100</v>
+        <v>101142800</v>
       </c>
       <c r="M56">
-        <v>-1028700</v>
+        <v>-1024500</v>
       </c>
       <c r="N56">
-        <v>-15751085000</v>
+        <v>-15440194300</v>
       </c>
       <c r="O56">
-        <v>-11232100</v>
+        <v>-11706300</v>
       </c>
       <c r="P56">
-        <v>-144712937000</v>
+        <v>-141535242500</v>
       </c>
     </row>
     <row r="57">
@@ -3207,49 +3207,49 @@
         <v>1676027040000</v>
       </c>
       <c r="B57">
-        <v>1651700</v>
+        <v>1634900</v>
       </c>
       <c r="C57">
-        <v>543900</v>
+        <v>567000</v>
       </c>
       <c r="D57">
-        <v>11600</v>
+        <v>3600</v>
       </c>
       <c r="E57">
-        <v>29713121000</v>
+        <v>28811102700</v>
       </c>
       <c r="F57">
-        <v>10288398000</v>
+        <v>10190602700</v>
       </c>
       <c r="G57">
-        <v>147825000</v>
+        <v>26680000</v>
       </c>
       <c r="H57">
-        <v>2207200</v>
+        <v>2205500</v>
       </c>
       <c r="I57">
-        <v>40149344000</v>
+        <v>39028385400</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-10T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>1759683389000</v>
+        <v>1646536633900</v>
       </c>
       <c r="L57">
         <v>103348300</v>
       </c>
       <c r="M57">
-        <v>-1107800</v>
+        <v>-1067900</v>
       </c>
       <c r="N57">
-        <v>-19424723000</v>
+        <v>-18620500000</v>
       </c>
       <c r="O57">
-        <v>-12339900</v>
+        <v>-12774200</v>
       </c>
       <c r="P57">
-        <v>-164137660000</v>
+        <v>-160155742500</v>
       </c>
     </row>
     <row r="58">
@@ -3257,49 +3257,49 @@
         <v>1676027160000</v>
       </c>
       <c r="B58">
-        <v>2424500</v>
+        <v>2441600</v>
       </c>
       <c r="C58">
-        <v>372200</v>
+        <v>355600</v>
       </c>
       <c r="D58">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="E58">
-        <v>42735319000</v>
+        <v>41011343600</v>
       </c>
       <c r="F58">
-        <v>6097217000</v>
+        <v>5125279400</v>
       </c>
       <c r="G58">
-        <v>440420000</v>
+        <v>101167200</v>
       </c>
       <c r="H58">
         <v>2806300</v>
       </c>
       <c r="I58">
-        <v>49272956000</v>
+        <v>46237790200</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-10T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>1808956345000</v>
+        <v>1692774424100</v>
       </c>
       <c r="L58">
         <v>106154600</v>
       </c>
       <c r="M58">
-        <v>-2052300</v>
+        <v>-2086000</v>
       </c>
       <c r="N58">
-        <v>-36638102000</v>
+        <v>-35886064200</v>
       </c>
       <c r="O58">
-        <v>-14392200</v>
+        <v>-14860200</v>
       </c>
       <c r="P58">
-        <v>-200775762000</v>
+        <v>-196041806700</v>
       </c>
     </row>
     <row r="59">
@@ -3307,49 +3307,49 @@
         <v>1676027280000</v>
       </c>
       <c r="B59">
-        <v>1469900</v>
+        <v>1489200</v>
       </c>
       <c r="C59">
-        <v>475700</v>
+        <v>457900</v>
       </c>
       <c r="D59">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="E59">
-        <v>23108487000</v>
+        <v>22312420500</v>
       </c>
       <c r="F59">
-        <v>8131849000</v>
+        <v>7447116200</v>
       </c>
       <c r="G59">
-        <v>75820000</v>
+        <v>42435000</v>
       </c>
       <c r="H59">
         <v>1948000</v>
       </c>
       <c r="I59">
-        <v>31316156000</v>
+        <v>29801971700</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-10T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>1840272501000</v>
+        <v>1722576395800</v>
       </c>
       <c r="L59">
         <v>108102600</v>
       </c>
       <c r="M59">
-        <v>-994200</v>
+        <v>-1031300</v>
       </c>
       <c r="N59">
-        <v>-14976638000</v>
+        <v>-14865304300</v>
       </c>
       <c r="O59">
-        <v>-15386400</v>
+        <v>-15891500</v>
       </c>
       <c r="P59">
-        <v>-215752400000</v>
+        <v>-210907111000</v>
       </c>
     </row>
     <row r="60">
@@ -3357,49 +3357,49 @@
         <v>1676027400000</v>
       </c>
       <c r="B60">
-        <v>978200</v>
+        <v>976700</v>
       </c>
       <c r="C60">
-        <v>571400</v>
+        <v>578100</v>
       </c>
       <c r="D60">
-        <v>7100</v>
+        <v>1900</v>
       </c>
       <c r="E60">
-        <v>15524646000</v>
+        <v>14711840100</v>
       </c>
       <c r="F60">
-        <v>10026104000</v>
+        <v>9659843200</v>
       </c>
       <c r="G60">
-        <v>307660000</v>
+        <v>84830000</v>
       </c>
       <c r="H60">
         <v>1556700</v>
       </c>
       <c r="I60">
-        <v>25858410000</v>
+        <v>24456513300</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-10T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>1866130911000</v>
+        <v>1747032909100</v>
       </c>
       <c r="L60">
         <v>109659300</v>
       </c>
       <c r="M60">
-        <v>-406800</v>
+        <v>-398600</v>
       </c>
       <c r="N60">
-        <v>-5498542000</v>
+        <v>-5051996900</v>
       </c>
       <c r="O60">
-        <v>-15793200</v>
+        <v>-16290100</v>
       </c>
       <c r="P60">
-        <v>-221250942000</v>
+        <v>-215959107900</v>
       </c>
     </row>
     <row r="61">
@@ -3407,49 +3407,49 @@
         <v>1676027520000</v>
       </c>
       <c r="B61">
-        <v>1357800</v>
+        <v>1364100</v>
       </c>
       <c r="C61">
-        <v>409000</v>
+        <v>402100</v>
       </c>
       <c r="D61">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E61">
-        <v>23830360000</v>
+        <v>21831969100</v>
       </c>
       <c r="F61">
-        <v>8073099000</v>
+        <v>7275625500</v>
       </c>
       <c r="G61">
-        <v>16785000</v>
+        <v>14850000</v>
       </c>
       <c r="H61">
         <v>1767700</v>
       </c>
       <c r="I61">
-        <v>31920244000</v>
+        <v>29122444600</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-10T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>1898051155000</v>
+        <v>1776155353700</v>
       </c>
       <c r="L61">
         <v>111427000</v>
       </c>
       <c r="M61">
-        <v>-948800</v>
+        <v>-962000</v>
       </c>
       <c r="N61">
-        <v>-15757261000</v>
+        <v>-14556343600</v>
       </c>
       <c r="O61">
-        <v>-16742000</v>
+        <v>-17252100</v>
       </c>
       <c r="P61">
-        <v>-237008203000</v>
+        <v>-230515451500</v>
       </c>
     </row>
     <row r="62">
@@ -3457,49 +3457,49 @@
         <v>1676027640000</v>
       </c>
       <c r="B62">
-        <v>3228700</v>
+        <v>3268400</v>
       </c>
       <c r="C62">
-        <v>404800</v>
+        <v>375200</v>
       </c>
       <c r="D62">
-        <v>17100</v>
+        <v>7000</v>
       </c>
       <c r="E62">
-        <v>52475913000</v>
+        <v>46873084100</v>
       </c>
       <c r="F62">
-        <v>8442169000</v>
+        <v>7364747400</v>
       </c>
       <c r="G62">
-        <v>322566000</v>
+        <v>32404000</v>
       </c>
       <c r="H62">
         <v>3650600</v>
       </c>
       <c r="I62">
-        <v>61240648000</v>
+        <v>54270235500</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-10T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>1959291803000</v>
+        <v>1830425589200</v>
       </c>
       <c r="L62">
         <v>115077600</v>
       </c>
       <c r="M62">
-        <v>-2823900</v>
+        <v>-2893200</v>
       </c>
       <c r="N62">
-        <v>-44033744000</v>
+        <v>-39508336700</v>
       </c>
       <c r="O62">
-        <v>-19565900</v>
+        <v>-20145300</v>
       </c>
       <c r="P62">
-        <v>-281041947000</v>
+        <v>-270023788200</v>
       </c>
     </row>
     <row r="63">
@@ -3507,49 +3507,49 @@
         <v>1676027760000</v>
       </c>
       <c r="B63">
-        <v>2559200</v>
+        <v>2592600</v>
       </c>
       <c r="C63">
-        <v>609800</v>
+        <v>585400</v>
       </c>
       <c r="D63">
-        <v>13100</v>
+        <v>8100</v>
       </c>
       <c r="E63">
-        <v>43536664000</v>
+        <v>38715582200</v>
       </c>
       <c r="F63">
-        <v>12247252000</v>
+        <v>11251837200</v>
       </c>
       <c r="G63">
-        <v>266198000</v>
+        <v>163125000</v>
       </c>
       <c r="H63">
-        <v>3182100</v>
+        <v>3186100</v>
       </c>
       <c r="I63">
-        <v>56050114000</v>
+        <v>50130544400</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-10T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2015341917000</v>
+        <v>1880556133600</v>
       </c>
       <c r="L63">
-        <v>118259700</v>
+        <v>118263700</v>
       </c>
       <c r="M63">
-        <v>-1949400</v>
+        <v>-2007200</v>
       </c>
       <c r="N63">
-        <v>-31289412000</v>
+        <v>-27463745000</v>
       </c>
       <c r="O63">
-        <v>-21515300</v>
+        <v>-22152500</v>
       </c>
       <c r="P63">
-        <v>-312331359000</v>
+        <v>-297487533200</v>
       </c>
     </row>
     <row r="64">
@@ -3557,49 +3557,49 @@
         <v>1676027880000</v>
       </c>
       <c r="B64">
-        <v>2413400</v>
+        <v>2452700</v>
       </c>
       <c r="C64">
-        <v>889400</v>
+        <v>852500</v>
       </c>
       <c r="D64">
-        <v>17300</v>
+        <v>10900</v>
       </c>
       <c r="E64">
-        <v>43935803000</v>
+        <v>40974205500</v>
       </c>
       <c r="F64">
-        <v>15251022000</v>
+        <v>13499938000</v>
       </c>
       <c r="G64">
-        <v>702494000</v>
+        <v>66165000</v>
       </c>
       <c r="H64">
-        <v>3320100</v>
+        <v>3316100</v>
       </c>
       <c r="I64">
-        <v>59889319000</v>
+        <v>54540308500</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-10T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2075231236000</v>
+        <v>1935096442100</v>
       </c>
       <c r="L64">
         <v>121579800</v>
       </c>
       <c r="M64">
-        <v>-1524000</v>
+        <v>-1600200</v>
       </c>
       <c r="N64">
-        <v>-28684781000</v>
+        <v>-27474267500</v>
       </c>
       <c r="O64">
-        <v>-23039300</v>
+        <v>-23752700</v>
       </c>
       <c r="P64">
-        <v>-341016140000</v>
+        <v>-324961800700</v>
       </c>
     </row>
     <row r="65">
@@ -3607,49 +3607,49 @@
         <v>1676028000000</v>
       </c>
       <c r="B65">
-        <v>1475100</v>
+        <v>1476800</v>
       </c>
       <c r="C65">
-        <v>479200</v>
+        <v>482200</v>
       </c>
       <c r="D65">
-        <v>14900</v>
+        <v>10200</v>
       </c>
       <c r="E65">
-        <v>23321820000</v>
+        <v>20917799900</v>
       </c>
       <c r="F65">
-        <v>9075623000</v>
+        <v>8469495000</v>
       </c>
       <c r="G65">
-        <v>442871000</v>
+        <v>232343000</v>
       </c>
       <c r="H65">
         <v>1969200</v>
       </c>
       <c r="I65">
-        <v>32840314000</v>
+        <v>29619637900</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-10T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2108071550000</v>
+        <v>1964716080000</v>
       </c>
       <c r="L65">
         <v>123549000</v>
       </c>
       <c r="M65">
-        <v>-995900</v>
+        <v>-994600</v>
       </c>
       <c r="N65">
-        <v>-14246197000</v>
+        <v>-12448304900</v>
       </c>
       <c r="O65">
-        <v>-24035200</v>
+        <v>-24747300</v>
       </c>
       <c r="P65">
-        <v>-355262337000</v>
+        <v>-337410105600</v>
       </c>
     </row>
     <row r="66">
@@ -3657,49 +3657,49 @@
         <v>1676028120000</v>
       </c>
       <c r="B66">
-        <v>1957800</v>
+        <v>2016300</v>
       </c>
       <c r="C66">
-        <v>601300</v>
+        <v>565600</v>
       </c>
       <c r="D66">
-        <v>27100</v>
+        <v>4300</v>
       </c>
       <c r="E66">
-        <v>35439451000</v>
+        <v>27318995700</v>
       </c>
       <c r="F66">
-        <v>10810918000</v>
+        <v>9646380600</v>
       </c>
       <c r="G66">
-        <v>947010000</v>
+        <v>139795000</v>
       </c>
       <c r="H66">
         <v>2586200</v>
       </c>
       <c r="I66">
-        <v>47197379000</v>
+        <v>37105171300</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-10T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2155268929000</v>
+        <v>2001821251300</v>
       </c>
       <c r="L66">
         <v>126135200</v>
       </c>
       <c r="M66">
-        <v>-1356500</v>
+        <v>-1450700</v>
       </c>
       <c r="N66">
-        <v>-24628533000</v>
+        <v>-17672615100</v>
       </c>
       <c r="O66">
-        <v>-25391700</v>
+        <v>-26198000</v>
       </c>
       <c r="P66">
-        <v>-379890870000</v>
+        <v>-355082720700</v>
       </c>
     </row>
     <row r="67">
@@ -3707,49 +3707,49 @@
         <v>1676028240000</v>
       </c>
       <c r="B67">
-        <v>2778800</v>
+        <v>2829800</v>
       </c>
       <c r="C67">
-        <v>695700</v>
+        <v>615300</v>
       </c>
       <c r="D67">
-        <v>2600</v>
+        <v>32000</v>
       </c>
       <c r="E67">
-        <v>44929945000</v>
+        <v>38596190000</v>
       </c>
       <c r="F67">
-        <v>11036137000</v>
+        <v>9854414500</v>
       </c>
       <c r="G67">
-        <v>84816000</v>
+        <v>499901000</v>
       </c>
       <c r="H67">
         <v>3477100</v>
       </c>
       <c r="I67">
-        <v>56050898000</v>
+        <v>48950505500</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-10T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2211319827000</v>
+        <v>2050771756800</v>
       </c>
       <c r="L67">
         <v>129612300</v>
       </c>
       <c r="M67">
-        <v>-2083100</v>
+        <v>-2214500</v>
       </c>
       <c r="N67">
-        <v>-33893808000</v>
+        <v>-28741775500</v>
       </c>
       <c r="O67">
-        <v>-27474800</v>
+        <v>-28412500</v>
       </c>
       <c r="P67">
-        <v>-413784678000</v>
+        <v>-383824496200</v>
       </c>
     </row>
     <row r="68">
@@ -3757,49 +3757,49 @@
         <v>1676028360000</v>
       </c>
       <c r="B68">
-        <v>1798800</v>
+        <v>1815000</v>
       </c>
       <c r="C68">
-        <v>926100</v>
+        <v>909000</v>
       </c>
       <c r="D68">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="E68">
-        <v>25098493000</v>
+        <v>23960613800</v>
       </c>
       <c r="F68">
-        <v>24275978000</v>
+        <v>21688601100</v>
       </c>
       <c r="G68">
-        <v>26052000</v>
+        <v>19144000</v>
       </c>
       <c r="H68">
         <v>2726200</v>
       </c>
       <c r="I68">
-        <v>49400523000</v>
+        <v>45668358900</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-10T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2260720350000</v>
+        <v>2096440115700</v>
       </c>
       <c r="L68">
         <v>132338500</v>
       </c>
       <c r="M68">
-        <v>-872700</v>
+        <v>-906000</v>
       </c>
       <c r="N68">
-        <v>-822515000</v>
+        <v>-2272012700</v>
       </c>
       <c r="O68">
-        <v>-28347500</v>
+        <v>-29318500</v>
       </c>
       <c r="P68">
-        <v>-414607193000</v>
+        <v>-386096508900</v>
       </c>
     </row>
     <row r="69">
@@ -3807,49 +3807,49 @@
         <v>1676028480000</v>
       </c>
       <c r="B69">
-        <v>1171000</v>
+        <v>1169800</v>
       </c>
       <c r="C69">
-        <v>1149400</v>
+        <v>1152500</v>
       </c>
       <c r="D69">
-        <v>4900</v>
+        <v>3000</v>
       </c>
       <c r="E69">
-        <v>18709551000</v>
+        <v>17093187700</v>
       </c>
       <c r="F69">
-        <v>19919681000</v>
+        <v>17147185500</v>
       </c>
       <c r="G69">
-        <v>66172000</v>
+        <v>30205000</v>
       </c>
       <c r="H69">
         <v>2325300</v>
       </c>
       <c r="I69">
-        <v>38695404000</v>
+        <v>34270578200</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-10T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2299415754000</v>
+        <v>2130710693900</v>
       </c>
       <c r="L69">
         <v>134663800</v>
       </c>
       <c r="M69">
-        <v>-21600</v>
+        <v>-17300</v>
       </c>
       <c r="N69">
-        <v>1210130000</v>
+        <v>53997800</v>
       </c>
       <c r="O69">
-        <v>-28369100</v>
+        <v>-29335800</v>
       </c>
       <c r="P69">
-        <v>-413397063000</v>
+        <v>-386042511100</v>
       </c>
     </row>
     <row r="70">
@@ -3869,7 +3869,7 @@
         <v>90192000</v>
       </c>
       <c r="F70">
-        <v>157583000</v>
+        <v>155185400</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>18700</v>
       </c>
       <c r="I70">
-        <v>247775000</v>
+        <v>245377400</v>
       </c>
       <c r="J70" t="str">
         <v>2023-02-10T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2299663529000</v>
+        <v>2130956071300</v>
       </c>
       <c r="L70">
         <v>134682500</v>
@@ -3893,13 +3893,13 @@
         <v>-4900</v>
       </c>
       <c r="N70">
-        <v>67391000</v>
+        <v>64993400</v>
       </c>
       <c r="O70">
-        <v>-28374000</v>
+        <v>-29340700</v>
       </c>
       <c r="P70">
-        <v>-413329672000</v>
+        <v>-385977517700</v>
       </c>
     </row>
     <row r="71">
@@ -3907,49 +3907,49 @@
         <v>1676034000000</v>
       </c>
       <c r="B71">
-        <v>5838700</v>
+        <v>5909500</v>
       </c>
       <c r="C71">
-        <v>2286900</v>
+        <v>2264800</v>
       </c>
       <c r="D71">
-        <v>360700</v>
+        <v>312000</v>
       </c>
       <c r="E71">
-        <v>87626713000</v>
+        <v>74062201100</v>
       </c>
       <c r="F71">
-        <v>38118858000</v>
+        <v>35864176700</v>
       </c>
       <c r="G71">
-        <v>5734986000</v>
+        <v>4517373400</v>
       </c>
       <c r="H71">
         <v>8486300</v>
       </c>
       <c r="I71">
-        <v>131480557000</v>
+        <v>114443751200</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-10T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>2431144086000</v>
+        <v>2245399822500</v>
       </c>
       <c r="L71">
         <v>143168800</v>
       </c>
       <c r="M71">
-        <v>-3551800</v>
+        <v>-3644700</v>
       </c>
       <c r="N71">
-        <v>-49507855000</v>
+        <v>-38198024400</v>
       </c>
       <c r="O71">
-        <v>-31925800</v>
+        <v>-32985400</v>
       </c>
       <c r="P71">
-        <v>-462837527000</v>
+        <v>-424175542100</v>
       </c>
     </row>
     <row r="72">
@@ -3957,49 +3957,49 @@
         <v>1676034120000</v>
       </c>
       <c r="B72">
-        <v>1973800</v>
+        <v>1961400</v>
       </c>
       <c r="C72">
-        <v>1151900</v>
+        <v>1174400</v>
       </c>
       <c r="D72">
-        <v>11900</v>
+        <v>1800</v>
       </c>
       <c r="E72">
-        <v>34067060000</v>
+        <v>30879624200</v>
       </c>
       <c r="F72">
-        <v>19902730000</v>
+        <v>18415977500</v>
       </c>
       <c r="G72">
-        <v>175607000</v>
+        <v>41808100</v>
       </c>
       <c r="H72">
         <v>3137600</v>
       </c>
       <c r="I72">
-        <v>54145397000</v>
+        <v>49337409800</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-10T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>2485289483000</v>
+        <v>2294737232300</v>
       </c>
       <c r="L72">
         <v>146306400</v>
       </c>
       <c r="M72">
-        <v>-821900</v>
+        <v>-787000</v>
       </c>
       <c r="N72">
-        <v>-14164330000</v>
+        <v>-12463646700</v>
       </c>
       <c r="O72">
-        <v>-32747700</v>
+        <v>-33772400</v>
       </c>
       <c r="P72">
-        <v>-477001857000</v>
+        <v>-436639188800</v>
       </c>
     </row>
     <row r="73">
@@ -4007,49 +4007,49 @@
         <v>1676034240000</v>
       </c>
       <c r="B73">
-        <v>1384800</v>
+        <v>1360300</v>
       </c>
       <c r="C73">
-        <v>1823900</v>
+        <v>1848900</v>
       </c>
       <c r="D73">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="E73">
-        <v>19973957000</v>
+        <v>19015490500</v>
       </c>
       <c r="F73">
-        <v>30651571000</v>
+        <v>29337608000</v>
       </c>
       <c r="G73">
-        <v>74727000</v>
+        <v>78927000</v>
       </c>
       <c r="H73">
         <v>3211500</v>
       </c>
       <c r="I73">
-        <v>50700255000</v>
+        <v>48432025500</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-10T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>2535989738000</v>
+        <v>2343169257800</v>
       </c>
       <c r="L73">
         <v>149517900</v>
       </c>
       <c r="M73">
-        <v>439100</v>
+        <v>488600</v>
       </c>
       <c r="N73">
-        <v>10677614000</v>
+        <v>10322117500</v>
       </c>
       <c r="O73">
-        <v>-32308600</v>
+        <v>-33283800</v>
       </c>
       <c r="P73">
-        <v>-466324243000</v>
+        <v>-426317071300</v>
       </c>
     </row>
     <row r="74">
@@ -4057,49 +4057,49 @@
         <v>1676034360000</v>
       </c>
       <c r="B74">
-        <v>1124300</v>
+        <v>1109300</v>
       </c>
       <c r="C74">
-        <v>1873300</v>
+        <v>1908000</v>
       </c>
       <c r="D74">
-        <v>26600</v>
+        <v>6900</v>
       </c>
       <c r="E74">
-        <v>16944412000</v>
+        <v>15413876100</v>
       </c>
       <c r="F74">
-        <v>31392396000</v>
+        <v>28798451100</v>
       </c>
       <c r="G74">
-        <v>374775000</v>
+        <v>133426000</v>
       </c>
       <c r="H74">
         <v>3024200</v>
       </c>
       <c r="I74">
-        <v>48711583000</v>
+        <v>44345753200</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-10T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>2584701321000</v>
+        <v>2387515011000</v>
       </c>
       <c r="L74">
         <v>152542100</v>
       </c>
       <c r="M74">
-        <v>749000</v>
+        <v>798700</v>
       </c>
       <c r="N74">
-        <v>14447984000</v>
+        <v>13384575000</v>
       </c>
       <c r="O74">
-        <v>-31559600</v>
+        <v>-32485100</v>
       </c>
       <c r="P74">
-        <v>-451876259000</v>
+        <v>-412932496300</v>
       </c>
     </row>
     <row r="75">
@@ -4107,49 +4107,49 @@
         <v>1676034480000</v>
       </c>
       <c r="B75">
-        <v>1694400</v>
+        <v>1742800</v>
       </c>
       <c r="C75">
-        <v>1143100</v>
+        <v>1076400</v>
       </c>
       <c r="D75">
-        <v>3700</v>
+        <v>22000</v>
       </c>
       <c r="E75">
-        <v>26767960000</v>
+        <v>25039646800</v>
       </c>
       <c r="F75">
-        <v>16936664000</v>
+        <v>15288278300</v>
       </c>
       <c r="G75">
-        <v>69970000</v>
+        <v>507516000</v>
       </c>
       <c r="H75">
         <v>2841200</v>
       </c>
       <c r="I75">
-        <v>43774594000</v>
+        <v>40835441100</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-10T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>2628475915000</v>
+        <v>2428350452100</v>
       </c>
       <c r="L75">
         <v>155383300</v>
       </c>
       <c r="M75">
-        <v>-551300</v>
+        <v>-666400</v>
       </c>
       <c r="N75">
-        <v>-9831296000</v>
+        <v>-9751368500</v>
       </c>
       <c r="O75">
-        <v>-32110900</v>
+        <v>-33151500</v>
       </c>
       <c r="P75">
-        <v>-461707555000</v>
+        <v>-422683864800</v>
       </c>
     </row>
     <row r="76">
@@ -4157,49 +4157,49 @@
         <v>1676034600000</v>
       </c>
       <c r="B76">
-        <v>1358600</v>
+        <v>1357200</v>
       </c>
       <c r="C76">
-        <v>1023200</v>
+        <v>1027300</v>
       </c>
       <c r="D76">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="E76">
-        <v>20904281000</v>
+        <v>18122669500</v>
       </c>
       <c r="F76">
-        <v>15835815000</v>
+        <v>15109219400</v>
       </c>
       <c r="G76">
-        <v>548033000</v>
+        <v>503672000</v>
       </c>
       <c r="H76">
         <v>2438900</v>
       </c>
       <c r="I76">
-        <v>37288129000</v>
+        <v>33735560900</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-10T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>2665764044000</v>
+        <v>2462086013000</v>
       </c>
       <c r="L76">
         <v>157822200</v>
       </c>
       <c r="M76">
-        <v>-335400</v>
+        <v>-329900</v>
       </c>
       <c r="N76">
-        <v>-5068466000</v>
+        <v>-3013450100</v>
       </c>
       <c r="O76">
-        <v>-32446300</v>
+        <v>-33481400</v>
       </c>
       <c r="P76">
-        <v>-466776021000</v>
+        <v>-425697314900</v>
       </c>
     </row>
     <row r="77">
@@ -4207,49 +4207,49 @@
         <v>1676034720000</v>
       </c>
       <c r="B77">
-        <v>1095500</v>
+        <v>1105800</v>
       </c>
       <c r="C77">
-        <v>828400</v>
+        <v>825000</v>
       </c>
       <c r="D77">
-        <v>7400</v>
+        <v>500</v>
       </c>
       <c r="E77">
-        <v>18085371000</v>
+        <v>16271412100</v>
       </c>
       <c r="F77">
-        <v>12240082000</v>
+        <v>10771841700</v>
       </c>
       <c r="G77">
-        <v>92156000</v>
+        <v>7925000</v>
       </c>
       <c r="H77">
         <v>1931300</v>
       </c>
       <c r="I77">
-        <v>30417609000</v>
+        <v>27051178800</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-10T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>2696181653000</v>
+        <v>2489137191800</v>
       </c>
       <c r="L77">
         <v>159753500</v>
       </c>
       <c r="M77">
-        <v>-267100</v>
+        <v>-280800</v>
       </c>
       <c r="N77">
-        <v>-5845289000</v>
+        <v>-5499570400</v>
       </c>
       <c r="O77">
-        <v>-32713400</v>
+        <v>-33762200</v>
       </c>
       <c r="P77">
-        <v>-472621310000</v>
+        <v>-431196885300</v>
       </c>
     </row>
     <row r="78">
@@ -4257,49 +4257,49 @@
         <v>1676034840000</v>
       </c>
       <c r="B78">
-        <v>1740000</v>
+        <v>1709300</v>
       </c>
       <c r="C78">
-        <v>994500</v>
+        <v>1022700</v>
       </c>
       <c r="D78">
-        <v>16400</v>
+        <v>18900</v>
       </c>
       <c r="E78">
-        <v>29590159000</v>
+        <v>23997535300</v>
       </c>
       <c r="F78">
-        <v>16361726000</v>
+        <v>16115683300</v>
       </c>
       <c r="G78">
-        <v>127872000</v>
+        <v>121789000</v>
       </c>
       <c r="H78">
         <v>2750900</v>
       </c>
       <c r="I78">
-        <v>46079757000</v>
+        <v>40235007600</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-10T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>2742261410000</v>
+        <v>2529372199400</v>
       </c>
       <c r="L78">
         <v>162504400</v>
       </c>
       <c r="M78">
-        <v>-745500</v>
+        <v>-686600</v>
       </c>
       <c r="N78">
-        <v>-13228433000</v>
+        <v>-7881852000</v>
       </c>
       <c r="O78">
-        <v>-33458900</v>
+        <v>-34448800</v>
       </c>
       <c r="P78">
-        <v>-485849743000</v>
+        <v>-439078737300</v>
       </c>
     </row>
     <row r="79">
@@ -4307,49 +4307,49 @@
         <v>1676034960000</v>
       </c>
       <c r="B79">
-        <v>2295100</v>
+        <v>2290700</v>
       </c>
       <c r="C79">
-        <v>789200</v>
+        <v>795900</v>
       </c>
       <c r="D79">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="E79">
-        <v>41261617000</v>
+        <v>35687536800</v>
       </c>
       <c r="F79">
-        <v>16591698000</v>
+        <v>16214893500</v>
       </c>
       <c r="G79">
-        <v>92667000</v>
+        <v>86687000</v>
       </c>
       <c r="H79">
-        <v>3099300</v>
+        <v>3101200</v>
       </c>
       <c r="I79">
-        <v>57945982000</v>
+        <v>51989117300</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-10T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>2800207392000</v>
+        <v>2581361316700</v>
       </c>
       <c r="L79">
-        <v>165603700</v>
+        <v>165605600</v>
       </c>
       <c r="M79">
-        <v>-1505900</v>
+        <v>-1494800</v>
       </c>
       <c r="N79">
-        <v>-24669919000</v>
+        <v>-19472643300</v>
       </c>
       <c r="O79">
-        <v>-34964800</v>
+        <v>-35943600</v>
       </c>
       <c r="P79">
-        <v>-510519662000</v>
+        <v>-458551380600</v>
       </c>
     </row>
     <row r="80">
@@ -4357,49 +4357,49 @@
         <v>1676035080000</v>
       </c>
       <c r="B80">
-        <v>2851200</v>
+        <v>2888600</v>
       </c>
       <c r="C80">
-        <v>1604400</v>
+        <v>1582200</v>
       </c>
       <c r="D80">
-        <v>41800</v>
+        <v>24700</v>
       </c>
       <c r="E80">
-        <v>47293309000</v>
+        <v>36327081700</v>
       </c>
       <c r="F80">
-        <v>27347734000</v>
+        <v>24293589000</v>
       </c>
       <c r="G80">
-        <v>685730000</v>
+        <v>438264900</v>
       </c>
       <c r="H80">
-        <v>4497400</v>
+        <v>4495500</v>
       </c>
       <c r="I80">
-        <v>75326773000</v>
+        <v>61058935600</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-10T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>2875534165000</v>
+        <v>2642420252300</v>
       </c>
       <c r="L80">
         <v>170101100</v>
       </c>
       <c r="M80">
-        <v>-1246800</v>
+        <v>-1306400</v>
       </c>
       <c r="N80">
-        <v>-19945575000</v>
+        <v>-12033492700</v>
       </c>
       <c r="O80">
-        <v>-36211600</v>
+        <v>-37250000</v>
       </c>
       <c r="P80">
-        <v>-530465237000</v>
+        <v>-470584873300</v>
       </c>
     </row>
     <row r="81">
@@ -4407,49 +4407,49 @@
         <v>1676035200000</v>
       </c>
       <c r="B81">
-        <v>4548600</v>
+        <v>4591500</v>
       </c>
       <c r="C81">
-        <v>1295300</v>
+        <v>1262600</v>
       </c>
       <c r="D81">
-        <v>22600</v>
+        <v>12400</v>
       </c>
       <c r="E81">
-        <v>78517014000</v>
+        <v>64915216900</v>
       </c>
       <c r="F81">
-        <v>19509137000</v>
+        <v>17232077600</v>
       </c>
       <c r="G81">
-        <v>419687000</v>
+        <v>91842300</v>
       </c>
       <c r="H81">
         <v>5866500</v>
       </c>
       <c r="I81">
-        <v>98445838000</v>
+        <v>82239136800</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-10T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>2973980003000</v>
+        <v>2724659389100</v>
       </c>
       <c r="L81">
         <v>175967600</v>
       </c>
       <c r="M81">
-        <v>-3253300</v>
+        <v>-3328900</v>
       </c>
       <c r="N81">
-        <v>-59007877000</v>
+        <v>-47683139300</v>
       </c>
       <c r="O81">
-        <v>-39464900</v>
+        <v>-40578900</v>
       </c>
       <c r="P81">
-        <v>-589473114000</v>
+        <v>-518268012600</v>
       </c>
     </row>
     <row r="82">
@@ -4457,49 +4457,49 @@
         <v>1676035320000</v>
       </c>
       <c r="B82">
-        <v>5745400</v>
+        <v>5819500</v>
       </c>
       <c r="C82">
-        <v>1661800</v>
+        <v>1590500</v>
       </c>
       <c r="D82">
-        <v>18300</v>
+        <v>15500</v>
       </c>
       <c r="E82">
-        <v>91446719000</v>
+        <v>84183823800</v>
       </c>
       <c r="F82">
-        <v>31786671000</v>
+        <v>28018436200</v>
       </c>
       <c r="G82">
-        <v>490522000</v>
+        <v>311853000</v>
       </c>
       <c r="H82">
         <v>7425500</v>
       </c>
       <c r="I82">
-        <v>123723912000</v>
+        <v>112514113000</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-10T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3097703915000</v>
+        <v>2837173502100</v>
       </c>
       <c r="L82">
         <v>183393100</v>
       </c>
       <c r="M82">
-        <v>-4083600</v>
+        <v>-4229000</v>
       </c>
       <c r="N82">
-        <v>-59660048000</v>
+        <v>-56165387600</v>
       </c>
       <c r="O82">
-        <v>-43548500</v>
+        <v>-44807900</v>
       </c>
       <c r="P82">
-        <v>-649133162000</v>
+        <v>-574433400200</v>
       </c>
     </row>
     <row r="83">
@@ -4507,49 +4507,49 @@
         <v>1676035440000</v>
       </c>
       <c r="B83">
-        <v>2459600</v>
+        <v>2465700</v>
       </c>
       <c r="C83">
-        <v>1871000</v>
+        <v>1871200</v>
       </c>
       <c r="D83">
-        <v>8800</v>
+        <v>2500</v>
       </c>
       <c r="E83">
-        <v>38342475000</v>
+        <v>33850021600</v>
       </c>
       <c r="F83">
-        <v>30011981000</v>
+        <v>22775197900</v>
       </c>
       <c r="G83">
-        <v>124190000</v>
+        <v>44747000</v>
       </c>
       <c r="H83">
         <v>4339400</v>
       </c>
       <c r="I83">
-        <v>68478646000</v>
+        <v>56669966500</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-10T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3166182561000</v>
+        <v>2893843468600</v>
       </c>
       <c r="L83">
         <v>187732500</v>
       </c>
       <c r="M83">
-        <v>-588600</v>
+        <v>-594500</v>
       </c>
       <c r="N83">
-        <v>-8330494000</v>
+        <v>-11074823700</v>
       </c>
       <c r="O83">
-        <v>-44137100</v>
+        <v>-45402400</v>
       </c>
       <c r="P83">
-        <v>-657463656000</v>
+        <v>-585508223900</v>
       </c>
     </row>
     <row r="84">
@@ -4557,49 +4557,49 @@
         <v>1676035560000</v>
       </c>
       <c r="B84">
-        <v>1887900</v>
+        <v>1855200</v>
       </c>
       <c r="C84">
-        <v>1217200</v>
+        <v>1197600</v>
       </c>
       <c r="D84">
-        <v>7300</v>
+        <v>1500</v>
       </c>
       <c r="E84">
-        <v>29290776000</v>
+        <v>26643587900</v>
       </c>
       <c r="F84">
-        <v>22364568000</v>
+        <v>16506791700</v>
       </c>
       <c r="G84">
-        <v>198408000</v>
+        <v>33319000</v>
       </c>
       <c r="H84">
-        <v>3112400</v>
+        <v>3054300</v>
       </c>
       <c r="I84">
-        <v>51853752000</v>
+        <v>43183698600</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-10T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>3218036313000</v>
+        <v>2937027167200</v>
       </c>
       <c r="L84">
-        <v>190844900</v>
+        <v>190786800</v>
       </c>
       <c r="M84">
-        <v>-670700</v>
+        <v>-657600</v>
       </c>
       <c r="N84">
-        <v>-6926208000</v>
+        <v>-10136796200</v>
       </c>
       <c r="O84">
-        <v>-44807800</v>
+        <v>-46060000</v>
       </c>
       <c r="P84">
-        <v>-664389864000</v>
+        <v>-595645020100</v>
       </c>
     </row>
     <row r="85">
@@ -4607,49 +4607,49 @@
         <v>1676035680000</v>
       </c>
       <c r="B85">
-        <v>1033500</v>
+        <v>1086700</v>
       </c>
       <c r="C85">
-        <v>3083400</v>
+        <v>3091700</v>
       </c>
       <c r="D85">
-        <v>6600</v>
+        <v>3200</v>
       </c>
       <c r="E85">
-        <v>15759818000</v>
+        <v>14401475000</v>
       </c>
       <c r="F85">
-        <v>49307723000</v>
+        <v>43626598300</v>
       </c>
       <c r="G85">
-        <v>71406000</v>
+        <v>38750000</v>
       </c>
       <c r="H85">
-        <v>4123500</v>
+        <v>4181600</v>
       </c>
       <c r="I85">
-        <v>65138947000</v>
+        <v>58066823300</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-10T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>3283175260000</v>
+        <v>2995093990500</v>
       </c>
       <c r="L85">
         <v>194968400</v>
       </c>
       <c r="M85">
-        <v>2049900</v>
+        <v>2005000</v>
       </c>
       <c r="N85">
-        <v>33547905000</v>
+        <v>29225123300</v>
       </c>
       <c r="O85">
-        <v>-42757900</v>
+        <v>-44055000</v>
       </c>
       <c r="P85">
-        <v>-630841959000</v>
+        <v>-566419896800</v>
       </c>
     </row>
     <row r="86">
@@ -4657,49 +4657,49 @@
         <v>1676035800000</v>
       </c>
       <c r="B86">
-        <v>1217800</v>
+        <v>1182400</v>
       </c>
       <c r="C86">
-        <v>3054700</v>
+        <v>3096300</v>
       </c>
       <c r="D86">
-        <v>8100</v>
+        <v>1900</v>
       </c>
       <c r="E86">
-        <v>20796413000</v>
+        <v>17873772000</v>
       </c>
       <c r="F86">
-        <v>52221861000</v>
+        <v>47884953000</v>
       </c>
       <c r="G86">
-        <v>167994000</v>
+        <v>39938000</v>
       </c>
       <c r="H86">
         <v>4280600</v>
       </c>
       <c r="I86">
-        <v>73186268000</v>
+        <v>65798663000</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-10T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>3356361528000</v>
+        <v>3060892653500</v>
       </c>
       <c r="L86">
         <v>199249000</v>
       </c>
       <c r="M86">
-        <v>1836900</v>
+        <v>1913900</v>
       </c>
       <c r="N86">
-        <v>31425448000</v>
+        <v>30011181000</v>
       </c>
       <c r="O86">
-        <v>-40921000</v>
+        <v>-42141100</v>
       </c>
       <c r="P86">
-        <v>-599416511000</v>
+        <v>-536408715800</v>
       </c>
     </row>
     <row r="87">
@@ -4707,49 +4707,49 @@
         <v>1676035920000</v>
       </c>
       <c r="B87">
-        <v>771400</v>
+        <v>780900</v>
       </c>
       <c r="C87">
-        <v>2422500</v>
+        <v>2412400</v>
       </c>
       <c r="D87">
-        <v>9600</v>
+        <v>10200</v>
       </c>
       <c r="E87">
-        <v>12455484000</v>
+        <v>11714719100</v>
       </c>
       <c r="F87">
-        <v>39536471000</v>
+        <v>38444772300</v>
       </c>
       <c r="G87">
-        <v>150821000</v>
+        <v>143726000</v>
       </c>
       <c r="H87">
         <v>3203500</v>
       </c>
       <c r="I87">
-        <v>52142776000</v>
+        <v>50303217400</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-10T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>3408504304000</v>
+        <v>3111195870900</v>
       </c>
       <c r="L87">
         <v>202452500</v>
       </c>
       <c r="M87">
-        <v>1651100</v>
+        <v>1631500</v>
       </c>
       <c r="N87">
-        <v>27080987000</v>
+        <v>26730053200</v>
       </c>
       <c r="O87">
-        <v>-39269900</v>
+        <v>-40509600</v>
       </c>
       <c r="P87">
-        <v>-572335524000</v>
+        <v>-509678662600</v>
       </c>
     </row>
     <row r="88">
@@ -4757,49 +4757,49 @@
         <v>1676036040000</v>
       </c>
       <c r="B88">
-        <v>925900</v>
+        <v>926500</v>
       </c>
       <c r="C88">
-        <v>2731300</v>
+        <v>2730000</v>
       </c>
       <c r="D88">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="E88">
-        <v>17204541000</v>
+        <v>15377075900</v>
       </c>
       <c r="F88">
-        <v>52051768000</v>
+        <v>47110893600</v>
       </c>
       <c r="G88">
-        <v>206365000</v>
+        <v>198987000</v>
       </c>
       <c r="H88">
         <v>3687800</v>
       </c>
       <c r="I88">
-        <v>69462674000</v>
+        <v>62686956500</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-10T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>3477966978000</v>
+        <v>3173882827400</v>
       </c>
       <c r="L88">
         <v>206140300</v>
       </c>
       <c r="M88">
-        <v>1805400</v>
+        <v>1803500</v>
       </c>
       <c r="N88">
-        <v>34847227000</v>
+        <v>31733817700</v>
       </c>
       <c r="O88">
-        <v>-37464500</v>
+        <v>-38706100</v>
       </c>
       <c r="P88">
-        <v>-537488297000</v>
+        <v>-477944844900</v>
       </c>
     </row>
     <row r="89">
@@ -4807,49 +4807,49 @@
         <v>1676036160000</v>
       </c>
       <c r="B89">
-        <v>1038200</v>
+        <v>1022600</v>
       </c>
       <c r="C89">
-        <v>2358200</v>
+        <v>2401600</v>
       </c>
       <c r="D89">
-        <v>38400</v>
+        <v>10600</v>
       </c>
       <c r="E89">
-        <v>16790223000</v>
+        <v>15420435300</v>
       </c>
       <c r="F89">
-        <v>40189248000</v>
+        <v>39348643000</v>
       </c>
       <c r="G89">
-        <v>937944000</v>
+        <v>152036000</v>
       </c>
       <c r="H89">
         <v>3434800</v>
       </c>
       <c r="I89">
-        <v>57917415000</v>
+        <v>54921114300</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-10T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>3535884393000</v>
+        <v>3228803941700</v>
       </c>
       <c r="L89">
         <v>209575100</v>
       </c>
       <c r="M89">
-        <v>1320000</v>
+        <v>1379000</v>
       </c>
       <c r="N89">
-        <v>23399025000</v>
+        <v>23928207700</v>
       </c>
       <c r="O89">
-        <v>-36144500</v>
+        <v>-37327100</v>
       </c>
       <c r="P89">
-        <v>-514089272000</v>
+        <v>-454016637200</v>
       </c>
     </row>
     <row r="90">
@@ -4857,49 +4857,49 @@
         <v>1676036280000</v>
       </c>
       <c r="B90">
-        <v>1627500</v>
+        <v>1621400</v>
       </c>
       <c r="C90">
-        <v>1012900</v>
+        <v>1015200</v>
       </c>
       <c r="D90">
-        <v>7700</v>
+        <v>11500</v>
       </c>
       <c r="E90">
-        <v>29209994000</v>
+        <v>27573761000</v>
       </c>
       <c r="F90">
-        <v>17577817000</v>
+        <v>17036188500</v>
       </c>
       <c r="G90">
-        <v>118569000</v>
+        <v>252976000</v>
       </c>
       <c r="H90">
         <v>2648100</v>
       </c>
       <c r="I90">
-        <v>46906380000</v>
+        <v>44862925500</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-10T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>3582790773000</v>
+        <v>3273666867200</v>
       </c>
       <c r="L90">
         <v>212223200</v>
       </c>
       <c r="M90">
-        <v>-614600</v>
+        <v>-606200</v>
       </c>
       <c r="N90">
-        <v>-11632177000</v>
+        <v>-10537572500</v>
       </c>
       <c r="O90">
-        <v>-36759100</v>
+        <v>-37933300</v>
       </c>
       <c r="P90">
-        <v>-525721449000</v>
+        <v>-464554209700</v>
       </c>
     </row>
     <row r="91">
@@ -4907,49 +4907,49 @@
         <v>1676036400000</v>
       </c>
       <c r="B91">
-        <v>2016900</v>
+        <v>2005600</v>
       </c>
       <c r="C91">
-        <v>763900</v>
+        <v>776600</v>
       </c>
       <c r="D91">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="E91">
-        <v>35075026000</v>
+        <v>32812603000</v>
       </c>
       <c r="F91">
-        <v>11546797000</v>
+        <v>11254760300</v>
       </c>
       <c r="G91">
-        <v>34726000</v>
+        <v>24453000</v>
       </c>
       <c r="H91">
         <v>2784700</v>
       </c>
       <c r="I91">
-        <v>46656549000</v>
+        <v>44091816300</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-10T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>3629447322000</v>
+        <v>3317758683500</v>
       </c>
       <c r="L91">
         <v>215007900</v>
       </c>
       <c r="M91">
-        <v>-1253000</v>
+        <v>-1229000</v>
       </c>
       <c r="N91">
-        <v>-23528229000</v>
+        <v>-21557842700</v>
       </c>
       <c r="O91">
-        <v>-38012100</v>
+        <v>-39162300</v>
       </c>
       <c r="P91">
-        <v>-549249678000</v>
+        <v>-486112052400</v>
       </c>
     </row>
     <row r="92">
@@ -4957,49 +4957,49 @@
         <v>1676036520000</v>
       </c>
       <c r="B92">
-        <v>1360300</v>
+        <v>1352500</v>
       </c>
       <c r="C92">
-        <v>792200</v>
+        <v>800800</v>
       </c>
       <c r="D92">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E92">
-        <v>22356184000</v>
+        <v>19579430200</v>
       </c>
       <c r="F92">
-        <v>14393502000</v>
+        <v>13831394400</v>
       </c>
       <c r="G92">
-        <v>48722000</v>
+        <v>2372000</v>
       </c>
       <c r="H92">
         <v>2153700</v>
       </c>
       <c r="I92">
-        <v>36798408000</v>
+        <v>33413196600</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-10T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>3666245730000</v>
+        <v>3351171880100</v>
       </c>
       <c r="L92">
         <v>217161600</v>
       </c>
       <c r="M92">
-        <v>-568100</v>
+        <v>-551700</v>
       </c>
       <c r="N92">
-        <v>-7962682000</v>
+        <v>-5748035800</v>
       </c>
       <c r="O92">
-        <v>-38580200</v>
+        <v>-39714000</v>
       </c>
       <c r="P92">
-        <v>-557212360000</v>
+        <v>-491860088200</v>
       </c>
     </row>
     <row r="93">
@@ -5007,49 +5007,49 @@
         <v>1676036640000</v>
       </c>
       <c r="B93">
-        <v>1221500</v>
+        <v>1243500</v>
       </c>
       <c r="C93">
-        <v>683300</v>
+        <v>668900</v>
       </c>
       <c r="D93">
-        <v>8100</v>
+        <v>500</v>
       </c>
       <c r="E93">
-        <v>18455984000</v>
+        <v>16728075400</v>
       </c>
       <c r="F93">
-        <v>10359634000</v>
+        <v>8728349300</v>
       </c>
       <c r="G93">
-        <v>113545000</v>
+        <v>5509000</v>
       </c>
       <c r="H93">
         <v>1912900</v>
       </c>
       <c r="I93">
-        <v>28929163000</v>
+        <v>25461933700</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-10T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>3695174893000</v>
+        <v>3376633813800</v>
       </c>
       <c r="L93">
         <v>219074500</v>
       </c>
       <c r="M93">
-        <v>-538200</v>
+        <v>-574600</v>
       </c>
       <c r="N93">
-        <v>-8096350000</v>
+        <v>-7999726100</v>
       </c>
       <c r="O93">
-        <v>-39118400</v>
+        <v>-40288600</v>
       </c>
       <c r="P93">
-        <v>-565308710000</v>
+        <v>-499859814300</v>
       </c>
     </row>
     <row r="94">
@@ -5057,49 +5057,49 @@
         <v>1676036760000</v>
       </c>
       <c r="B94">
-        <v>1103800</v>
+        <v>1095900</v>
       </c>
       <c r="C94">
-        <v>879900</v>
+        <v>873700</v>
       </c>
       <c r="D94">
-        <v>23700</v>
+        <v>37800</v>
       </c>
       <c r="E94">
-        <v>19975763000</v>
+        <v>17126940600</v>
       </c>
       <c r="F94">
-        <v>15173584000</v>
+        <v>14377854100</v>
       </c>
       <c r="G94">
-        <v>423645000</v>
+        <v>537947000</v>
       </c>
       <c r="H94">
         <v>2007400</v>
       </c>
       <c r="I94">
-        <v>35572992000</v>
+        <v>32042741700</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-10T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>3730747885000</v>
+        <v>3408676555500</v>
       </c>
       <c r="L94">
         <v>221081900</v>
       </c>
       <c r="M94">
-        <v>-223900</v>
+        <v>-222200</v>
       </c>
       <c r="N94">
-        <v>-4802179000</v>
+        <v>-2749086500</v>
       </c>
       <c r="O94">
-        <v>-39342300</v>
+        <v>-40510800</v>
       </c>
       <c r="P94">
-        <v>-570110889000</v>
+        <v>-502608900800</v>
       </c>
     </row>
     <row r="95">
@@ -5107,49 +5107,49 @@
         <v>1676036880000</v>
       </c>
       <c r="B95">
-        <v>925800</v>
+        <v>965000</v>
       </c>
       <c r="C95">
-        <v>1152300</v>
+        <v>1122200</v>
       </c>
       <c r="D95">
-        <v>9600</v>
+        <v>500</v>
       </c>
       <c r="E95">
-        <v>16446659000</v>
+        <v>15705701100</v>
       </c>
       <c r="F95">
-        <v>21623677000</v>
+        <v>18257564400</v>
       </c>
       <c r="G95">
-        <v>105656000</v>
+        <v>10233200</v>
       </c>
       <c r="H95">
         <v>2087700</v>
       </c>
       <c r="I95">
-        <v>38175992000</v>
+        <v>33973498700</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-10T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>3768923877000</v>
+        <v>3442650054200</v>
       </c>
       <c r="L95">
         <v>223169600</v>
       </c>
       <c r="M95">
-        <v>226500</v>
+        <v>157200</v>
       </c>
       <c r="N95">
-        <v>5177018000</v>
+        <v>2551863300</v>
       </c>
       <c r="O95">
-        <v>-39115800</v>
+        <v>-40353600</v>
       </c>
       <c r="P95">
-        <v>-564933871000</v>
+        <v>-500057037500</v>
       </c>
     </row>
     <row r="96">
@@ -5157,49 +5157,49 @@
         <v>1676037000000</v>
       </c>
       <c r="B96">
-        <v>1572700</v>
+        <v>1585400</v>
       </c>
       <c r="C96">
-        <v>1205700</v>
+        <v>1199400</v>
       </c>
       <c r="D96">
-        <v>7800</v>
+        <v>1400</v>
       </c>
       <c r="E96">
-        <v>26916099000</v>
+        <v>21415308400</v>
       </c>
       <c r="F96">
-        <v>20277859000</v>
+        <v>18579770400</v>
       </c>
       <c r="G96">
-        <v>103000000</v>
+        <v>31952000</v>
       </c>
       <c r="H96">
         <v>2786200</v>
       </c>
       <c r="I96">
-        <v>47296958000</v>
+        <v>40027030800</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-10T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>3816220835000</v>
+        <v>3482677085000</v>
       </c>
       <c r="L96">
         <v>225955800</v>
       </c>
       <c r="M96">
-        <v>-367000</v>
+        <v>-386000</v>
       </c>
       <c r="N96">
-        <v>-6638240000</v>
+        <v>-2835538000</v>
       </c>
       <c r="O96">
-        <v>-39482800</v>
+        <v>-40739600</v>
       </c>
       <c r="P96">
-        <v>-571572111000</v>
+        <v>-502892575500</v>
       </c>
     </row>
     <row r="97">
@@ -5207,49 +5207,49 @@
         <v>1676037120000</v>
       </c>
       <c r="B97">
-        <v>616800</v>
+        <v>612900</v>
       </c>
       <c r="C97">
-        <v>1312200</v>
+        <v>1316800</v>
       </c>
       <c r="D97">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="E97">
-        <v>11747010000</v>
+        <v>10552217400</v>
       </c>
       <c r="F97">
-        <v>23701285000</v>
+        <v>22857672600</v>
       </c>
       <c r="G97">
-        <v>171554000</v>
+        <v>173997000</v>
       </c>
       <c r="H97">
         <v>1936900</v>
       </c>
       <c r="I97">
-        <v>35619849000</v>
+        <v>33583887000</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-10T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>3851840684000</v>
+        <v>3516260972000</v>
       </c>
       <c r="L97">
         <v>227892700</v>
       </c>
       <c r="M97">
-        <v>695400</v>
+        <v>703900</v>
       </c>
       <c r="N97">
-        <v>11954275000</v>
+        <v>12305455200</v>
       </c>
       <c r="O97">
-        <v>-38787400</v>
+        <v>-40035700</v>
       </c>
       <c r="P97">
-        <v>-559617836000</v>
+        <v>-490587120300</v>
       </c>
     </row>
     <row r="98">
@@ -5257,49 +5257,49 @@
         <v>1676037240000</v>
       </c>
       <c r="B98">
-        <v>721400</v>
+        <v>725200</v>
       </c>
       <c r="C98">
-        <v>1637100</v>
+        <v>1662200</v>
       </c>
       <c r="D98">
-        <v>35000</v>
+        <v>6100</v>
       </c>
       <c r="E98">
-        <v>14221455000</v>
+        <v>12609314600</v>
       </c>
       <c r="F98">
-        <v>30131062000</v>
+        <v>30006252000</v>
       </c>
       <c r="G98">
-        <v>599729000</v>
+        <v>95522800</v>
       </c>
       <c r="H98">
         <v>2393500</v>
       </c>
       <c r="I98">
-        <v>44952246000</v>
+        <v>42711089400</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-10T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>3896792930000</v>
+        <v>3558972061400</v>
       </c>
       <c r="L98">
         <v>230286200</v>
       </c>
       <c r="M98">
-        <v>915700</v>
+        <v>937000</v>
       </c>
       <c r="N98">
-        <v>15909607000</v>
+        <v>17396937400</v>
       </c>
       <c r="O98">
-        <v>-37871700</v>
+        <v>-39098700</v>
       </c>
       <c r="P98">
-        <v>-543708229000</v>
+        <v>-473190182900</v>
       </c>
     </row>
     <row r="99">
@@ -5307,49 +5307,49 @@
         <v>1676037360000</v>
       </c>
       <c r="B99">
-        <v>963700</v>
+        <v>1111500</v>
       </c>
       <c r="C99">
-        <v>1879300</v>
+        <v>1726900</v>
       </c>
       <c r="D99">
-        <v>2600</v>
+        <v>7200</v>
       </c>
       <c r="E99">
-        <v>17616614000</v>
+        <v>16898551100</v>
       </c>
       <c r="F99">
-        <v>28173280000</v>
+        <v>25689505100</v>
       </c>
       <c r="G99">
-        <v>109014000</v>
+        <v>148817000</v>
       </c>
       <c r="H99">
         <v>2845600</v>
       </c>
       <c r="I99">
-        <v>45898908000</v>
+        <v>42736873200</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-10T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>3942691838000</v>
+        <v>3601708934600</v>
       </c>
       <c r="L99">
         <v>233131800</v>
       </c>
       <c r="M99">
-        <v>915600</v>
+        <v>615400</v>
       </c>
       <c r="N99">
-        <v>10556666000</v>
+        <v>8790954000</v>
       </c>
       <c r="O99">
-        <v>-36956100</v>
+        <v>-38483300</v>
       </c>
       <c r="P99">
-        <v>-533151563000</v>
+        <v>-464399228900</v>
       </c>
     </row>
     <row r="100">
@@ -5357,49 +5357,49 @@
         <v>1676037480000</v>
       </c>
       <c r="B100">
-        <v>635700</v>
+        <v>608100</v>
       </c>
       <c r="C100">
-        <v>3123200</v>
+        <v>3151900</v>
       </c>
       <c r="D100">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="E100">
-        <v>10308351000</v>
+        <v>9700019000</v>
       </c>
       <c r="F100">
-        <v>45875682000</v>
+        <v>45223317200</v>
       </c>
       <c r="G100">
-        <v>69720000</v>
+        <v>48515000</v>
       </c>
       <c r="H100">
         <v>3761700</v>
       </c>
       <c r="I100">
-        <v>56253753000</v>
+        <v>54971851200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-10T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>3998945591000</v>
+        <v>3656680785800</v>
       </c>
       <c r="L100">
         <v>236893500</v>
       </c>
       <c r="M100">
-        <v>2487500</v>
+        <v>2543800</v>
       </c>
       <c r="N100">
-        <v>35567331000</v>
+        <v>35523298200</v>
       </c>
       <c r="O100">
-        <v>-34468600</v>
+        <v>-35939500</v>
       </c>
       <c r="P100">
-        <v>-497584232000</v>
+        <v>-428875930700</v>
       </c>
     </row>
     <row r="101">
@@ -5407,49 +5407,49 @@
         <v>1676037600000</v>
       </c>
       <c r="B101">
-        <v>953600</v>
+        <v>943500</v>
       </c>
       <c r="C101">
-        <v>3545900</v>
+        <v>3560600</v>
       </c>
       <c r="D101">
-        <v>10500</v>
+        <v>5900</v>
       </c>
       <c r="E101">
-        <v>16182730000</v>
+        <v>15260324200</v>
       </c>
       <c r="F101">
-        <v>55047247000</v>
+        <v>52387416200</v>
       </c>
       <c r="G101">
-        <v>180066000</v>
+        <v>66806000</v>
       </c>
       <c r="H101">
         <v>4510000</v>
       </c>
       <c r="I101">
-        <v>71410043000</v>
+        <v>67714546400</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-10T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>4070355634000</v>
+        <v>3724395332200</v>
       </c>
       <c r="L101">
         <v>241403500</v>
       </c>
       <c r="M101">
-        <v>2592300</v>
+        <v>2617100</v>
       </c>
       <c r="N101">
-        <v>38864517000</v>
+        <v>37127092000</v>
       </c>
       <c r="O101">
-        <v>-31876300</v>
+        <v>-33322400</v>
       </c>
       <c r="P101">
-        <v>-458719715000</v>
+        <v>-391748838700</v>
       </c>
     </row>
     <row r="102">
@@ -5457,49 +5457,49 @@
         <v>1676037720000</v>
       </c>
       <c r="B102">
-        <v>1037000</v>
+        <v>1049000</v>
       </c>
       <c r="C102">
-        <v>4529000</v>
+        <v>4522500</v>
       </c>
       <c r="D102">
-        <v>7900</v>
+        <v>2400</v>
       </c>
       <c r="E102">
-        <v>17034958000</v>
+        <v>16995460700</v>
       </c>
       <c r="F102">
-        <v>68783199000</v>
+        <v>61713670000</v>
       </c>
       <c r="G102">
-        <v>119550000</v>
+        <v>82030000</v>
       </c>
       <c r="H102">
         <v>5573900</v>
       </c>
       <c r="I102">
-        <v>85937707000</v>
+        <v>78791160700</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-10T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>4156293341000</v>
+        <v>3803186492900</v>
       </c>
       <c r="L102">
         <v>246977400</v>
       </c>
       <c r="M102">
-        <v>3492000</v>
+        <v>3473500</v>
       </c>
       <c r="N102">
-        <v>51748241000</v>
+        <v>44718209300</v>
       </c>
       <c r="O102">
-        <v>-28384300</v>
+        <v>-29848900</v>
       </c>
       <c r="P102">
-        <v>-406971474000</v>
+        <v>-347030629400</v>
       </c>
     </row>
     <row r="103">
@@ -5507,49 +5507,49 @@
         <v>1676037840000</v>
       </c>
       <c r="B103">
-        <v>1562100</v>
+        <v>1566800</v>
       </c>
       <c r="C103">
-        <v>4268600</v>
+        <v>4299100</v>
       </c>
       <c r="D103">
-        <v>72800</v>
+        <v>37600</v>
       </c>
       <c r="E103">
-        <v>25787695000</v>
+        <v>21389377300</v>
       </c>
       <c r="F103">
-        <v>66896234000</v>
+        <v>64398788600</v>
       </c>
       <c r="G103">
-        <v>1377406000</v>
+        <v>964585000</v>
       </c>
       <c r="H103">
         <v>5903500</v>
       </c>
       <c r="I103">
-        <v>94061335000</v>
+        <v>86752750900</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-10T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>4250354676000</v>
+        <v>3889939243800</v>
       </c>
       <c r="L103">
         <v>252880900</v>
       </c>
       <c r="M103">
-        <v>2706500</v>
+        <v>2732300</v>
       </c>
       <c r="N103">
-        <v>41108539000</v>
+        <v>43009411300</v>
       </c>
       <c r="O103">
-        <v>-25677800</v>
+        <v>-27116600</v>
       </c>
       <c r="P103">
-        <v>-365862935000</v>
+        <v>-304021218100</v>
       </c>
     </row>
     <row r="104">
@@ -5557,49 +5557,49 @@
         <v>1676037960000</v>
       </c>
       <c r="B104">
-        <v>2147700</v>
+        <v>2144600</v>
       </c>
       <c r="C104">
-        <v>4062400</v>
+        <v>4064400</v>
       </c>
       <c r="D104">
-        <v>15300</v>
+        <v>16400</v>
       </c>
       <c r="E104">
-        <v>43908430000</v>
+        <v>39949691700</v>
       </c>
       <c r="F104">
-        <v>64644590000</v>
+        <v>63328249300</v>
       </c>
       <c r="G104">
-        <v>243813000</v>
+        <v>323712200</v>
       </c>
       <c r="H104">
         <v>6225400</v>
       </c>
       <c r="I104">
-        <v>108796833000</v>
+        <v>103601653200</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-10T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>4359151509000</v>
+        <v>3993540897000</v>
       </c>
       <c r="L104">
         <v>259106300</v>
       </c>
       <c r="M104">
-        <v>1914700</v>
+        <v>1919800</v>
       </c>
       <c r="N104">
-        <v>20736160000</v>
+        <v>23378557600</v>
       </c>
       <c r="O104">
-        <v>-23763100</v>
+        <v>-25196800</v>
       </c>
       <c r="P104">
-        <v>-345126775000</v>
+        <v>-280642660500</v>
       </c>
     </row>
     <row r="105">
@@ -5607,49 +5607,49 @@
         <v>1676038080000</v>
       </c>
       <c r="B105">
-        <v>6557900</v>
+        <v>6563000</v>
       </c>
       <c r="C105">
-        <v>1100500</v>
+        <v>1091000</v>
       </c>
       <c r="D105">
-        <v>37800</v>
+        <v>42200</v>
       </c>
       <c r="E105">
-        <v>124582647000</v>
+        <v>109259823600</v>
       </c>
       <c r="F105">
-        <v>18883633000</v>
+        <v>15842131100</v>
       </c>
       <c r="G105">
-        <v>744769000</v>
+        <v>647284500</v>
       </c>
       <c r="H105">
         <v>7696200</v>
       </c>
       <c r="I105">
-        <v>144211049000</v>
+        <v>125749239200</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-10T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>4503362558000</v>
+        <v>4119290136200</v>
       </c>
       <c r="L105">
         <v>266802500</v>
       </c>
       <c r="M105">
-        <v>-5457400</v>
+        <v>-5472000</v>
       </c>
       <c r="N105">
-        <v>-105699014000</v>
+        <v>-93417692500</v>
       </c>
       <c r="O105">
-        <v>-29220500</v>
+        <v>-30668800</v>
       </c>
       <c r="P105">
-        <v>-450825789000</v>
+        <v>-374060353000</v>
       </c>
     </row>
     <row r="106">
@@ -5657,49 +5657,49 @@
         <v>1676038200000</v>
       </c>
       <c r="B106">
-        <v>2691400</v>
+        <v>2757200</v>
       </c>
       <c r="C106">
-        <v>1249000</v>
+        <v>1178100</v>
       </c>
       <c r="D106">
-        <v>23000</v>
+        <v>28100</v>
       </c>
       <c r="E106">
-        <v>44211176000</v>
+        <v>39737593800</v>
       </c>
       <c r="F106">
-        <v>19699960000</v>
+        <v>17383646200</v>
       </c>
       <c r="G106">
-        <v>365246000</v>
+        <v>163175000</v>
       </c>
       <c r="H106">
         <v>3963400</v>
       </c>
       <c r="I106">
-        <v>64276382000</v>
+        <v>57284415000</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-10T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>4567638940000</v>
+        <v>4176574551200</v>
       </c>
       <c r="L106">
         <v>270765900</v>
       </c>
       <c r="M106">
-        <v>-1442400</v>
+        <v>-1579100</v>
       </c>
       <c r="N106">
-        <v>-24511216000</v>
+        <v>-22353947600</v>
       </c>
       <c r="O106">
-        <v>-30662900</v>
+        <v>-32247900</v>
       </c>
       <c r="P106">
-        <v>-475337005000</v>
+        <v>-396414300600</v>
       </c>
     </row>
     <row r="107">
@@ -5707,49 +5707,49 @@
         <v>1676038320000</v>
       </c>
       <c r="B107">
-        <v>2278300</v>
+        <v>2279100</v>
       </c>
       <c r="C107">
-        <v>1615500</v>
+        <v>1628600</v>
       </c>
       <c r="D107">
-        <v>36900</v>
+        <v>23000</v>
       </c>
       <c r="E107">
-        <v>41126068000</v>
+        <v>39221602900</v>
       </c>
       <c r="F107">
-        <v>26936583000</v>
+        <v>25595722100</v>
       </c>
       <c r="G107">
-        <v>1108299000</v>
+        <v>463469000</v>
       </c>
       <c r="H107">
         <v>3930700</v>
       </c>
       <c r="I107">
-        <v>69170950000</v>
+        <v>65280794000</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-10T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>4636809890000</v>
+        <v>4241855345200</v>
       </c>
       <c r="L107">
         <v>274696600</v>
       </c>
       <c r="M107">
-        <v>-662800</v>
+        <v>-650500</v>
       </c>
       <c r="N107">
-        <v>-14189485000</v>
+        <v>-13625880800</v>
       </c>
       <c r="O107">
-        <v>-31325700</v>
+        <v>-32898400</v>
       </c>
       <c r="P107">
-        <v>-489526490000</v>
+        <v>-410040181400</v>
       </c>
     </row>
     <row r="108">
@@ -5757,49 +5757,49 @@
         <v>1676038440000</v>
       </c>
       <c r="B108">
-        <v>7560700</v>
+        <v>7735900</v>
       </c>
       <c r="C108">
-        <v>1179000</v>
+        <v>1000200</v>
       </c>
       <c r="D108">
-        <v>216200</v>
+        <v>219800</v>
       </c>
       <c r="E108">
-        <v>143599607000</v>
+        <v>126915256900</v>
       </c>
       <c r="F108">
-        <v>19480403000</v>
+        <v>15549804400</v>
       </c>
       <c r="G108">
-        <v>4537223000</v>
+        <v>4057248800</v>
       </c>
       <c r="H108">
         <v>8955900</v>
       </c>
       <c r="I108">
-        <v>167617233000</v>
+        <v>146522310100</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-10T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>4804427123000</v>
+        <v>4388377655300</v>
       </c>
       <c r="L108">
         <v>283652500</v>
       </c>
       <c r="M108">
-        <v>-6381700</v>
+        <v>-6735700</v>
       </c>
       <c r="N108">
-        <v>-124119204000</v>
+        <v>-111365452500</v>
       </c>
       <c r="O108">
-        <v>-37707400</v>
+        <v>-39634100</v>
       </c>
       <c r="P108">
-        <v>-613645694000</v>
+        <v>-521405633900</v>
       </c>
     </row>
     <row r="109">
@@ -5807,49 +5807,49 @@
         <v>1676038560000</v>
       </c>
       <c r="B109">
-        <v>11667800</v>
+        <v>11390100</v>
       </c>
       <c r="C109">
-        <v>2567700</v>
+        <v>2844700</v>
       </c>
       <c r="D109">
-        <v>84200</v>
+        <v>84900</v>
       </c>
       <c r="E109">
-        <v>206439498000</v>
+        <v>173828425400</v>
       </c>
       <c r="F109">
-        <v>47949695000</v>
+        <v>50819476700</v>
       </c>
       <c r="G109">
-        <v>1941217000</v>
+        <v>1250290600</v>
       </c>
       <c r="H109">
         <v>14319700</v>
       </c>
       <c r="I109">
-        <v>256330410000</v>
+        <v>225898192700</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-10T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5060757533000</v>
+        <v>4614275848000</v>
       </c>
       <c r="L109">
         <v>297972200</v>
       </c>
       <c r="M109">
-        <v>-9100100</v>
+        <v>-8545400</v>
       </c>
       <c r="N109">
-        <v>-158489803000</v>
+        <v>-123008948700</v>
       </c>
       <c r="O109">
-        <v>-46807500</v>
+        <v>-48179500</v>
       </c>
       <c r="P109">
-        <v>-772135497000</v>
+        <v>-644414582600</v>
       </c>
     </row>
     <row r="110">
@@ -5857,49 +5857,49 @@
         <v>1676038680000</v>
       </c>
       <c r="B110">
-        <v>4806600</v>
+        <v>4782800</v>
       </c>
       <c r="C110">
-        <v>3770400</v>
+        <v>3839000</v>
       </c>
       <c r="D110">
-        <v>54800</v>
+        <v>10000</v>
       </c>
       <c r="E110">
-        <v>79502994000</v>
+        <v>66150545600</v>
       </c>
       <c r="F110">
-        <v>66544928000</v>
+        <v>53370603300</v>
       </c>
       <c r="G110">
-        <v>980391000</v>
+        <v>94887000</v>
       </c>
       <c r="H110">
         <v>8631800</v>
       </c>
       <c r="I110">
-        <v>147028313000</v>
+        <v>119616035900</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-10T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>5207785846000</v>
+        <v>4733891883900</v>
       </c>
       <c r="L110">
         <v>306604000</v>
       </c>
       <c r="M110">
-        <v>-1036200</v>
+        <v>-943800</v>
       </c>
       <c r="N110">
-        <v>-12958066000</v>
+        <v>-12779942300</v>
       </c>
       <c r="O110">
-        <v>-47843700</v>
+        <v>-49123300</v>
       </c>
       <c r="P110">
-        <v>-785093563000</v>
+        <v>-657194524900</v>
       </c>
     </row>
     <row r="111">
@@ -5907,49 +5907,49 @@
         <v>1676038800000</v>
       </c>
       <c r="B111">
-        <v>3189700</v>
+        <v>3208800</v>
       </c>
       <c r="C111">
-        <v>3545100</v>
+        <v>3526600</v>
       </c>
       <c r="D111">
-        <v>52500</v>
+        <v>51900</v>
       </c>
       <c r="E111">
-        <v>65333033000</v>
+        <v>61780755400</v>
       </c>
       <c r="F111">
-        <v>59663046000</v>
+        <v>52828811000</v>
       </c>
       <c r="G111">
-        <v>1100751000</v>
+        <v>840740000</v>
       </c>
       <c r="H111">
         <v>6787300</v>
       </c>
       <c r="I111">
-        <v>126096830000</v>
+        <v>115450306400</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-10T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>5333882676000</v>
+        <v>4849342190300</v>
       </c>
       <c r="L111">
         <v>313391300</v>
       </c>
       <c r="M111">
-        <v>355400</v>
+        <v>317800</v>
       </c>
       <c r="N111">
-        <v>-5669987000</v>
+        <v>-8951944400</v>
       </c>
       <c r="O111">
-        <v>-47488300</v>
+        <v>-48805500</v>
       </c>
       <c r="P111">
-        <v>-790763550000</v>
+        <v>-666146469300</v>
       </c>
     </row>
     <row r="112">
@@ -5957,49 +5957,49 @@
         <v>1676038920000</v>
       </c>
       <c r="B112">
-        <v>5086300</v>
+        <v>5046200</v>
       </c>
       <c r="C112">
-        <v>2124100</v>
+        <v>2135400</v>
       </c>
       <c r="D112">
-        <v>51700</v>
+        <v>80500</v>
       </c>
       <c r="E112">
-        <v>97050139000</v>
+        <v>82687667100</v>
       </c>
       <c r="F112">
-        <v>41016835000</v>
+        <v>35640509700</v>
       </c>
       <c r="G112">
-        <v>1499314000</v>
+        <v>1761046800</v>
       </c>
       <c r="H112">
         <v>7262100</v>
       </c>
       <c r="I112">
-        <v>139566288000</v>
+        <v>120089223600</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-10T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>5473448964000</v>
+        <v>4969431413900</v>
       </c>
       <c r="L112">
         <v>320653400</v>
       </c>
       <c r="M112">
-        <v>-2962200</v>
+        <v>-2910800</v>
       </c>
       <c r="N112">
-        <v>-56033304000</v>
+        <v>-47047157400</v>
       </c>
       <c r="O112">
-        <v>-50450500</v>
+        <v>-51716300</v>
       </c>
       <c r="P112">
-        <v>-846796854000</v>
+        <v>-713193626700</v>
       </c>
     </row>
     <row r="113">
@@ -6007,49 +6007,49 @@
         <v>1676039040000</v>
       </c>
       <c r="B113">
-        <v>3416800</v>
+        <v>3441600</v>
       </c>
       <c r="C113">
-        <v>2204700</v>
+        <v>2182900</v>
       </c>
       <c r="D113">
-        <v>66900</v>
+        <v>63900</v>
       </c>
       <c r="E113">
-        <v>62267966000</v>
+        <v>56327046200</v>
       </c>
       <c r="F113">
-        <v>43036765000</v>
+        <v>38497506100</v>
       </c>
       <c r="G113">
-        <v>1216579000</v>
+        <v>1034090000</v>
       </c>
       <c r="H113">
         <v>5688400</v>
       </c>
       <c r="I113">
-        <v>106521310000</v>
+        <v>95858642300</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-10T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>5579970274000</v>
+        <v>5065290056200</v>
       </c>
       <c r="L113">
         <v>326341800</v>
       </c>
       <c r="M113">
-        <v>-1212100</v>
+        <v>-1258700</v>
       </c>
       <c r="N113">
-        <v>-19231201000</v>
+        <v>-17829540100</v>
       </c>
       <c r="O113">
-        <v>-51662600</v>
+        <v>-52975000</v>
       </c>
       <c r="P113">
-        <v>-866028055000</v>
+        <v>-731023166800</v>
       </c>
     </row>
     <row r="114">
@@ -6057,49 +6057,49 @@
         <v>1676039160000</v>
       </c>
       <c r="B114">
-        <v>3957000</v>
+        <v>3918100</v>
       </c>
       <c r="C114">
-        <v>2636700</v>
+        <v>2695600</v>
       </c>
       <c r="D114">
-        <v>37600</v>
+        <v>17500</v>
       </c>
       <c r="E114">
-        <v>74401243000</v>
+        <v>68836876900</v>
       </c>
       <c r="F114">
-        <v>59437121000</v>
+        <v>52548503700</v>
       </c>
       <c r="G114">
-        <v>1033817000</v>
+        <v>530522700</v>
       </c>
       <c r="H114">
-        <v>6631300</v>
+        <v>6631200</v>
       </c>
       <c r="I114">
-        <v>134872181000</v>
+        <v>121915903300</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-10T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>5714842455000</v>
+        <v>5187205959500</v>
       </c>
       <c r="L114">
-        <v>332973100</v>
+        <v>332973000</v>
       </c>
       <c r="M114">
-        <v>-1320300</v>
+        <v>-1222500</v>
       </c>
       <c r="N114">
-        <v>-14964122000</v>
+        <v>-16288373200</v>
       </c>
       <c r="O114">
-        <v>-52982900</v>
+        <v>-54197500</v>
       </c>
       <c r="P114">
-        <v>-880992177000</v>
+        <v>-747311540000</v>
       </c>
     </row>
     <row r="115">
@@ -6107,49 +6107,49 @@
         <v>1676039280000</v>
       </c>
       <c r="B115">
-        <v>6580200</v>
+        <v>6587100</v>
       </c>
       <c r="C115">
-        <v>3229400</v>
+        <v>3216000</v>
       </c>
       <c r="D115">
-        <v>74500</v>
+        <v>81100</v>
       </c>
       <c r="E115">
-        <v>133763509000</v>
+        <v>110589316000</v>
       </c>
       <c r="F115">
-        <v>61286636000</v>
+        <v>56973829400</v>
       </c>
       <c r="G115">
-        <v>1186700000</v>
+        <v>1056415600</v>
       </c>
       <c r="H115">
-        <v>9884100</v>
+        <v>9884200</v>
       </c>
       <c r="I115">
-        <v>196236845000</v>
+        <v>168619561000</v>
       </c>
       <c r="J115" t="str">
         <v>2023-02-10T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>5911079300000</v>
+        <v>5355825520500</v>
       </c>
       <c r="L115">
         <v>342857200</v>
       </c>
       <c r="M115">
-        <v>-3350800</v>
+        <v>-3371100</v>
       </c>
       <c r="N115">
-        <v>-72476873000</v>
+        <v>-53615486600</v>
       </c>
       <c r="O115">
-        <v>-56333700</v>
+        <v>-57568600</v>
       </c>
       <c r="P115">
-        <v>-953469050000</v>
+        <v>-800927026600</v>
       </c>
     </row>
     <row r="116">
@@ -6169,7 +6169,7 @@
         <v>392637000</v>
       </c>
       <c r="F116">
-        <v>274406000</v>
+        <v>262617800</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>70700</v>
       </c>
       <c r="I116">
-        <v>667043000</v>
+        <v>655254800</v>
       </c>
       <c r="J116" t="str">
         <v>2023-02-10T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>5911746343000</v>
+        <v>5356480775300</v>
       </c>
       <c r="L116">
         <v>342927900</v>
@@ -6193,13 +6193,13 @@
         <v>-42300</v>
       </c>
       <c r="N116">
-        <v>-118231000</v>
+        <v>-130019200</v>
       </c>
       <c r="O116">
-        <v>-56376000</v>
+        <v>-57610900</v>
       </c>
       <c r="P116">
-        <v>-953587281000</v>
+        <v>-801057045800</v>
       </c>
     </row>
     <row r="117">
@@ -6207,49 +6207,49 @@
         <v>1676040240000</v>
       </c>
       <c r="B117">
-        <v>23643700</v>
+        <v>23830900</v>
       </c>
       <c r="C117">
-        <v>11435100</v>
+        <v>10671000</v>
       </c>
       <c r="D117">
-        <v>6049000</v>
+        <v>6625900</v>
       </c>
       <c r="E117">
-        <v>399739942000</v>
+        <v>358230797400</v>
       </c>
       <c r="F117">
-        <v>235349357000</v>
+        <v>162673094400</v>
       </c>
       <c r="G117">
-        <v>83937619000</v>
+        <v>96813337300</v>
       </c>
       <c r="H117">
         <v>41127800</v>
       </c>
       <c r="I117">
-        <v>719026918000</v>
+        <v>617717229100</v>
       </c>
       <c r="J117" t="str">
         <v>2023-02-10T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>6630773261000</v>
+        <v>5974198004400</v>
       </c>
       <c r="L117">
         <v>384055700</v>
       </c>
       <c r="M117">
-        <v>-12208600</v>
+        <v>-13159900</v>
       </c>
       <c r="N117">
-        <v>-164390585000</v>
+        <v>-195557703000</v>
       </c>
       <c r="O117">
-        <v>-68584600</v>
+        <v>-70770800</v>
       </c>
       <c r="P117">
-        <v>-1117977866000</v>
+        <v>-996614748800</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230210/VNINDEX_HOSE_5p_20230210.xlsx
+++ b/name/vnindex/20230210/VNINDEX_HOSE_5p_20230210.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>6281186200</v>
       </c>
+      <c r="Q2">
+        <v>22001891500</v>
+      </c>
+      <c r="R2">
+        <v>15720705300</v>
+      </c>
+      <c r="S2">
+        <v>1715400</v>
+      </c>
+      <c r="T2">
+        <v>1188000</v>
+      </c>
+      <c r="U2">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V2">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W2">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X2">
+        <v>3310825</v>
+      </c>
+      <c r="Y2">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z2">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA2">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB2">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>2543735900</v>
       </c>
+      <c r="Q3">
+        <v>35197368900</v>
+      </c>
+      <c r="R3">
+        <v>32653633000</v>
+      </c>
+      <c r="S3">
+        <v>2731100</v>
+      </c>
+      <c r="T3">
+        <v>2395700</v>
+      </c>
+      <c r="U3">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V3">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W3">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X3">
+        <v>3310825</v>
+      </c>
+      <c r="Y3">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z3">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA3">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB3">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC3">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>7892117100</v>
       </c>
+      <c r="Q4">
+        <v>52226245100</v>
+      </c>
+      <c r="R4">
+        <v>44334128000</v>
+      </c>
+      <c r="S4">
+        <v>3780900</v>
+      </c>
+      <c r="T4">
+        <v>3190900</v>
+      </c>
+      <c r="U4">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V4">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W4">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X4">
+        <v>3310825</v>
+      </c>
+      <c r="Y4">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z4">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA4">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB4">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>18569314900</v>
       </c>
+      <c r="Q5">
+        <v>72651824700</v>
+      </c>
+      <c r="R5">
+        <v>54082509800</v>
+      </c>
+      <c r="S5">
+        <v>4966900</v>
+      </c>
+      <c r="T5">
+        <v>3918400</v>
+      </c>
+      <c r="U5">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V5">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W5">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X5">
+        <v>3310825</v>
+      </c>
+      <c r="Y5">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z5">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA5">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB5">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC5">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>34771989100</v>
       </c>
+      <c r="Q6">
+        <v>97941971000</v>
+      </c>
+      <c r="R6">
+        <v>63169981900</v>
+      </c>
+      <c r="S6">
+        <v>6293000</v>
+      </c>
+      <c r="T6">
+        <v>4570600</v>
+      </c>
+      <c r="U6">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V6">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W6">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X6">
+        <v>3310825</v>
+      </c>
+      <c r="Y6">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z6">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA6">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB6">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC6">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>35521291500</v>
       </c>
+      <c r="Q7">
+        <v>112339236900</v>
+      </c>
+      <c r="R7">
+        <v>76817945400</v>
+      </c>
+      <c r="S7">
+        <v>7123200</v>
+      </c>
+      <c r="T7">
+        <v>5476300</v>
+      </c>
+      <c r="U7">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V7">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W7">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X7">
+        <v>3310825</v>
+      </c>
+      <c r="Y7">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z7">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA7">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB7">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC7">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>22845488300</v>
       </c>
+      <c r="Q8">
+        <v>124935891900</v>
+      </c>
+      <c r="R8">
+        <v>102090403600</v>
+      </c>
+      <c r="S8">
+        <v>7925900</v>
+      </c>
+      <c r="T8">
+        <v>7220800</v>
+      </c>
+      <c r="U8">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V8">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W8">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X8">
+        <v>3310825</v>
+      </c>
+      <c r="Y8">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z8">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA8">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB8">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>7182477200</v>
       </c>
+      <c r="Q9">
+        <v>134906457600</v>
+      </c>
+      <c r="R9">
+        <v>127723980400</v>
+      </c>
+      <c r="S9">
+        <v>8421500</v>
+      </c>
+      <c r="T9">
+        <v>8999000</v>
+      </c>
+      <c r="U9">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V9">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W9">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X9">
+        <v>3310825</v>
+      </c>
+      <c r="Y9">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z9">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA9">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB9">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC9">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-1076905500</v>
       </c>
+      <c r="Q10">
+        <v>151860038900</v>
+      </c>
+      <c r="R10">
+        <v>152936944400</v>
+      </c>
+      <c r="S10">
+        <v>9608900</v>
+      </c>
+      <c r="T10">
+        <v>10766900</v>
+      </c>
+      <c r="U10">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V10">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W10">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X10">
+        <v>3310825</v>
+      </c>
+      <c r="Y10">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z10">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA10">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB10">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-4884779600</v>
       </c>
+      <c r="Q11">
+        <v>165873015400</v>
+      </c>
+      <c r="R11">
+        <v>170757795000</v>
+      </c>
+      <c r="S11">
+        <v>10442400</v>
+      </c>
+      <c r="T11">
+        <v>11928500</v>
+      </c>
+      <c r="U11">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V11">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W11">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X11">
+        <v>3310825</v>
+      </c>
+      <c r="Y11">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z11">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA11">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB11">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC11">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-19304375000</v>
       </c>
+      <c r="Q12">
+        <v>179517707600</v>
+      </c>
+      <c r="R12">
+        <v>198822082600</v>
+      </c>
+      <c r="S12">
+        <v>11198300</v>
+      </c>
+      <c r="T12">
+        <v>13636100</v>
+      </c>
+      <c r="U12">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V12">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W12">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X12">
+        <v>3310825</v>
+      </c>
+      <c r="Y12">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z12">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA12">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB12">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC12">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-40239946400</v>
       </c>
+      <c r="Q13">
+        <v>190828834900</v>
+      </c>
+      <c r="R13">
+        <v>231068781300</v>
+      </c>
+      <c r="S13">
+        <v>11954600</v>
+      </c>
+      <c r="T13">
+        <v>15934600</v>
+      </c>
+      <c r="U13">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V13">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W13">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X13">
+        <v>3310825</v>
+      </c>
+      <c r="Y13">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z13">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA13">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB13">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC13">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-60673663200</v>
       </c>
+      <c r="Q14">
+        <v>205380293100</v>
+      </c>
+      <c r="R14">
+        <v>266053956300</v>
+      </c>
+      <c r="S14">
+        <v>12806100</v>
+      </c>
+      <c r="T14">
+        <v>18243900</v>
+      </c>
+      <c r="U14">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V14">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W14">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X14">
+        <v>3310825</v>
+      </c>
+      <c r="Y14">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z14">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA14">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB14">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC14">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-66819641700</v>
       </c>
+      <c r="Q15">
+        <v>216759949800</v>
+      </c>
+      <c r="R15">
+        <v>283579591500</v>
+      </c>
+      <c r="S15">
+        <v>13458900</v>
+      </c>
+      <c r="T15">
+        <v>19328500</v>
+      </c>
+      <c r="U15">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V15">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W15">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X15">
+        <v>3310825</v>
+      </c>
+      <c r="Y15">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z15">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA15">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB15">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC15">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-69599816700</v>
       </c>
+      <c r="Q16">
+        <v>229771596300</v>
+      </c>
+      <c r="R16">
+        <v>299371413000</v>
+      </c>
+      <c r="S16">
+        <v>14295700</v>
+      </c>
+      <c r="T16">
+        <v>20325500</v>
+      </c>
+      <c r="U16">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V16">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W16">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X16">
+        <v>3310825</v>
+      </c>
+      <c r="Y16">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z16">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA16">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB16">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC16">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-63024154200</v>
       </c>
+      <c r="Q17">
+        <v>251567363800</v>
+      </c>
+      <c r="R17">
+        <v>314591518000</v>
+      </c>
+      <c r="S17">
+        <v>15543400</v>
+      </c>
+      <c r="T17">
+        <v>21388200</v>
+      </c>
+      <c r="U17">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V17">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W17">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X17">
+        <v>3310825</v>
+      </c>
+      <c r="Y17">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z17">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA17">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB17">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC17">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-59008080700</v>
       </c>
+      <c r="Q18">
+        <v>270620751000</v>
+      </c>
+      <c r="R18">
+        <v>329628831700</v>
+      </c>
+      <c r="S18">
+        <v>16669500</v>
+      </c>
+      <c r="T18">
+        <v>22688100</v>
+      </c>
+      <c r="U18">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V18">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W18">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X18">
+        <v>3310825</v>
+      </c>
+      <c r="Y18">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z18">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA18">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB18">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-43103671600</v>
       </c>
+      <c r="Q19">
+        <v>295315819200</v>
+      </c>
+      <c r="R19">
+        <v>338419490800</v>
+      </c>
+      <c r="S19">
+        <v>18196300</v>
+      </c>
+      <c r="T19">
+        <v>23330000</v>
+      </c>
+      <c r="U19">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V19">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W19">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X19">
+        <v>3310825</v>
+      </c>
+      <c r="Y19">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z19">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA19">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB19">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC19">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-32381061800</v>
       </c>
+      <c r="Q20">
+        <v>314794779400</v>
+      </c>
+      <c r="R20">
+        <v>347175841200</v>
+      </c>
+      <c r="S20">
+        <v>19289400</v>
+      </c>
+      <c r="T20">
+        <v>23947300</v>
+      </c>
+      <c r="U20">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V20">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W20">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X20">
+        <v>3310825</v>
+      </c>
+      <c r="Y20">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z20">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA20">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB20">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC20">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-26559645000</v>
       </c>
+      <c r="Q21">
+        <v>335854558100</v>
+      </c>
+      <c r="R21">
+        <v>362414203100</v>
+      </c>
+      <c r="S21">
+        <v>20550300</v>
+      </c>
+      <c r="T21">
+        <v>24914900</v>
+      </c>
+      <c r="U21">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V21">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W21">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X21">
+        <v>3310825</v>
+      </c>
+      <c r="Y21">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z21">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA21">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB21">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC21">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-38678424300</v>
       </c>
+      <c r="Q22">
+        <v>347829787600</v>
+      </c>
+      <c r="R22">
+        <v>386508211900</v>
+      </c>
+      <c r="S22">
+        <v>21289600</v>
+      </c>
+      <c r="T22">
+        <v>26429700</v>
+      </c>
+      <c r="U22">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V22">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W22">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X22">
+        <v>3310825</v>
+      </c>
+      <c r="Y22">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z22">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA22">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB22">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC22">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-39556488500</v>
       </c>
+      <c r="Q23">
+        <v>360925225800</v>
+      </c>
+      <c r="R23">
+        <v>400481714300</v>
+      </c>
+      <c r="S23">
+        <v>22094400</v>
+      </c>
+      <c r="T23">
+        <v>27348100</v>
+      </c>
+      <c r="U23">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V23">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W23">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X23">
+        <v>3310825</v>
+      </c>
+      <c r="Y23">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z23">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA23">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB23">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC23">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-28192121200</v>
       </c>
+      <c r="Q24">
+        <v>378945215400</v>
+      </c>
+      <c r="R24">
+        <v>407137336600</v>
+      </c>
+      <c r="S24">
+        <v>23247000</v>
+      </c>
+      <c r="T24">
+        <v>27792300</v>
+      </c>
+      <c r="U24">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V24">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W24">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X24">
+        <v>3310825</v>
+      </c>
+      <c r="Y24">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z24">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA24">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB24">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC24">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-23454435100</v>
       </c>
+      <c r="Q25">
+        <v>392865243000</v>
+      </c>
+      <c r="R25">
+        <v>416319678100</v>
+      </c>
+      <c r="S25">
+        <v>24234100</v>
+      </c>
+      <c r="T25">
+        <v>28392200</v>
+      </c>
+      <c r="U25">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V25">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W25">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X25">
+        <v>3310825</v>
+      </c>
+      <c r="Y25">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z25">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA25">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB25">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC25">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-21507262600</v>
       </c>
+      <c r="Q26">
+        <v>402756027900</v>
+      </c>
+      <c r="R26">
+        <v>424263290500</v>
+      </c>
+      <c r="S26">
+        <v>24860900</v>
+      </c>
+      <c r="T26">
+        <v>28841800</v>
+      </c>
+      <c r="U26">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V26">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W26">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X26">
+        <v>3310825</v>
+      </c>
+      <c r="Y26">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z26">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA26">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB26">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC26">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-20990421400</v>
       </c>
+      <c r="Q27">
+        <v>413991686800</v>
+      </c>
+      <c r="R27">
+        <v>434982108200</v>
+      </c>
+      <c r="S27">
+        <v>25717400</v>
+      </c>
+      <c r="T27">
+        <v>29503700</v>
+      </c>
+      <c r="U27">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V27">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W27">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X27">
+        <v>3310825</v>
+      </c>
+      <c r="Y27">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z27">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA27">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB27">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC27">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-24740881400</v>
       </c>
+      <c r="Q28">
+        <v>426055165000</v>
+      </c>
+      <c r="R28">
+        <v>450796046400</v>
+      </c>
+      <c r="S28">
+        <v>26498400</v>
+      </c>
+      <c r="T28">
+        <v>30321700</v>
+      </c>
+      <c r="U28">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V28">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W28">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X28">
+        <v>3310825</v>
+      </c>
+      <c r="Y28">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z28">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA28">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB28">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC28">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-22623817300</v>
       </c>
+      <c r="Q29">
+        <v>439008578200</v>
+      </c>
+      <c r="R29">
+        <v>461632395500</v>
+      </c>
+      <c r="S29">
+        <v>27173200</v>
+      </c>
+      <c r="T29">
+        <v>31041000</v>
+      </c>
+      <c r="U29">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V29">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W29">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X29">
+        <v>3310825</v>
+      </c>
+      <c r="Y29">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z29">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA29">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB29">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC29">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-22053376600</v>
       </c>
+      <c r="Q30">
+        <v>448378758700</v>
+      </c>
+      <c r="R30">
+        <v>470432135300</v>
+      </c>
+      <c r="S30">
+        <v>27739100</v>
+      </c>
+      <c r="T30">
+        <v>31663600</v>
+      </c>
+      <c r="U30">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V30">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W30">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X30">
+        <v>3310825</v>
+      </c>
+      <c r="Y30">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z30">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA30">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB30">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC30">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-11521415300</v>
       </c>
+      <c r="Q31">
+        <v>465259229600</v>
+      </c>
+      <c r="R31">
+        <v>476780644900</v>
+      </c>
+      <c r="S31">
+        <v>28725700</v>
+      </c>
+      <c r="T31">
+        <v>32045900</v>
+      </c>
+      <c r="U31">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V31">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W31">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X31">
+        <v>3310825</v>
+      </c>
+      <c r="Y31">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z31">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA31">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB31">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC31">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-1406544000</v>
       </c>
+      <c r="Q32">
+        <v>483219659400</v>
+      </c>
+      <c r="R32">
+        <v>484626203400</v>
+      </c>
+      <c r="S32">
+        <v>29924100</v>
+      </c>
+      <c r="T32">
+        <v>32490000</v>
+      </c>
+      <c r="U32">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V32">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W32">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X32">
+        <v>3310825</v>
+      </c>
+      <c r="Y32">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z32">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA32">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB32">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC32">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>21750375100</v>
       </c>
+      <c r="Q33">
+        <v>513039463400</v>
+      </c>
+      <c r="R33">
+        <v>491289088300</v>
+      </c>
+      <c r="S33">
+        <v>31671300</v>
+      </c>
+      <c r="T33">
+        <v>32944200</v>
+      </c>
+      <c r="U33">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V33">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W33">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X33">
+        <v>3310825</v>
+      </c>
+      <c r="Y33">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z33">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA33">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB33">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC33">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>25059452700</v>
       </c>
+      <c r="Q34">
+        <v>532446509000</v>
+      </c>
+      <c r="R34">
+        <v>507387056300</v>
+      </c>
+      <c r="S34">
+        <v>32952700</v>
+      </c>
+      <c r="T34">
+        <v>33783800</v>
+      </c>
+      <c r="U34">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V34">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W34">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X34">
+        <v>3310825</v>
+      </c>
+      <c r="Y34">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z34">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA34">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB34">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC34">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>8412953800</v>
       </c>
+      <c r="Q35">
+        <v>543644232800</v>
+      </c>
+      <c r="R35">
+        <v>535231279000</v>
+      </c>
+      <c r="S35">
+        <v>33614700</v>
+      </c>
+      <c r="T35">
+        <v>35355800</v>
+      </c>
+      <c r="U35">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V35">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W35">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X35">
+        <v>3310825</v>
+      </c>
+      <c r="Y35">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z35">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA35">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB35">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC35">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-1159066000</v>
       </c>
+      <c r="Q36">
+        <v>551202490700</v>
+      </c>
+      <c r="R36">
+        <v>552361556700</v>
+      </c>
+      <c r="S36">
+        <v>34184100</v>
+      </c>
+      <c r="T36">
+        <v>36382800</v>
+      </c>
+      <c r="U36">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V36">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W36">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X36">
+        <v>3310825</v>
+      </c>
+      <c r="Y36">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z36">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA36">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB36">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC36">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-6659343400</v>
       </c>
+      <c r="Q37">
+        <v>558037682500</v>
+      </c>
+      <c r="R37">
+        <v>564697025900</v>
+      </c>
+      <c r="S37">
+        <v>34642100</v>
+      </c>
+      <c r="T37">
+        <v>37109800</v>
+      </c>
+      <c r="U37">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V37">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W37">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X37">
+        <v>3310825</v>
+      </c>
+      <c r="Y37">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z37">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA37">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB37">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC37">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-8548585600</v>
       </c>
+      <c r="Q38">
+        <v>565829235900</v>
+      </c>
+      <c r="R38">
+        <v>574377821500</v>
+      </c>
+      <c r="S38">
+        <v>35006300</v>
+      </c>
+      <c r="T38">
+        <v>37724600</v>
+      </c>
+      <c r="U38">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V38">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W38">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X38">
+        <v>3310825</v>
+      </c>
+      <c r="Y38">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z38">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA38">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB38">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC38">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-13024907600</v>
       </c>
+      <c r="Q39">
+        <v>574841672300</v>
+      </c>
+      <c r="R39">
+        <v>587866579900</v>
+      </c>
+      <c r="S39">
+        <v>35509000</v>
+      </c>
+      <c r="T39">
+        <v>38447900</v>
+      </c>
+      <c r="U39">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V39">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W39">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X39">
+        <v>3310825</v>
+      </c>
+      <c r="Y39">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z39">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA39">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB39">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC39">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-10304805200</v>
       </c>
+      <c r="Q40">
+        <v>585420085700</v>
+      </c>
+      <c r="R40">
+        <v>595724890900</v>
+      </c>
+      <c r="S40">
+        <v>36133400</v>
+      </c>
+      <c r="T40">
+        <v>39038300</v>
+      </c>
+      <c r="U40">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V40">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W40">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X40">
+        <v>3310825</v>
+      </c>
+      <c r="Y40">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z40">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA40">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB40">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC40">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-9284733900</v>
       </c>
+      <c r="Q41">
+        <v>598706917000</v>
+      </c>
+      <c r="R41">
+        <v>607991650900</v>
+      </c>
+      <c r="S41">
+        <v>36794300</v>
+      </c>
+      <c r="T41">
+        <v>39832300</v>
+      </c>
+      <c r="U41">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V41">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W41">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X41">
+        <v>3310825</v>
+      </c>
+      <c r="Y41">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z41">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA41">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB41">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC41">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-13956553200</v>
       </c>
+      <c r="Q42">
+        <v>607757261700</v>
+      </c>
+      <c r="R42">
+        <v>621713814900</v>
+      </c>
+      <c r="S42">
+        <v>37396700</v>
+      </c>
+      <c r="T42">
+        <v>40656200</v>
+      </c>
+      <c r="U42">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V42">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W42">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X42">
+        <v>3310825</v>
+      </c>
+      <c r="Y42">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z42">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA42">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB42">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC42">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-17521710500</v>
       </c>
+      <c r="Q43">
+        <v>615356166400</v>
+      </c>
+      <c r="R43">
+        <v>632877876900</v>
+      </c>
+      <c r="S43">
+        <v>37888900</v>
+      </c>
+      <c r="T43">
+        <v>41484900</v>
+      </c>
+      <c r="U43">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V43">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W43">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X43">
+        <v>3310825</v>
+      </c>
+      <c r="Y43">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z43">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA43">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB43">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC43">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-18933922900</v>
       </c>
+      <c r="Q44">
+        <v>626457214700</v>
+      </c>
+      <c r="R44">
+        <v>645391137600</v>
+      </c>
+      <c r="S44">
+        <v>38704000</v>
+      </c>
+      <c r="T44">
+        <v>42134600</v>
+      </c>
+      <c r="U44">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V44">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W44">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X44">
+        <v>3310825</v>
+      </c>
+      <c r="Y44">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z44">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA44">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB44">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC44">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-19651111400</v>
       </c>
+      <c r="Q45">
+        <v>637193433600</v>
+      </c>
+      <c r="R45">
+        <v>656844545000</v>
+      </c>
+      <c r="S45">
+        <v>39346800</v>
+      </c>
+      <c r="T45">
+        <v>42727900</v>
+      </c>
+      <c r="U45">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V45">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W45">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X45">
+        <v>3310825</v>
+      </c>
+      <c r="Y45">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z45">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA45">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB45">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC45">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-24260576000</v>
       </c>
+      <c r="Q46">
+        <v>645345788200</v>
+      </c>
+      <c r="R46">
+        <v>669606364200</v>
+      </c>
+      <c r="S46">
+        <v>39774500</v>
+      </c>
+      <c r="T46">
+        <v>43546100</v>
+      </c>
+      <c r="U46">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V46">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W46">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X46">
+        <v>3310825</v>
+      </c>
+      <c r="Y46">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z46">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA46">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB46">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC46">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-25517925800</v>
       </c>
+      <c r="Q47">
+        <v>654785592600</v>
+      </c>
+      <c r="R47">
+        <v>680303518400</v>
+      </c>
+      <c r="S47">
+        <v>40172700</v>
+      </c>
+      <c r="T47">
+        <v>44291600</v>
+      </c>
+      <c r="U47">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V47">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W47">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X47">
+        <v>3310825</v>
+      </c>
+      <c r="Y47">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z47">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA47">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB47">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC47">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-25721809200</v>
       </c>
+      <c r="Q48">
+        <v>665002371700</v>
+      </c>
+      <c r="R48">
+        <v>690724180900</v>
+      </c>
+      <c r="S48">
+        <v>40649600</v>
+      </c>
+      <c r="T48">
+        <v>44999800</v>
+      </c>
+      <c r="U48">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V48">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W48">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X48">
+        <v>3310825</v>
+      </c>
+      <c r="Y48">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z48">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA48">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB48">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-31710306000</v>
       </c>
+      <c r="Q49">
+        <v>673339816500</v>
+      </c>
+      <c r="R49">
+        <v>705050122500</v>
+      </c>
+      <c r="S49">
+        <v>41090900</v>
+      </c>
+      <c r="T49">
+        <v>45786300</v>
+      </c>
+      <c r="U49">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V49">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W49">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X49">
+        <v>3310825</v>
+      </c>
+      <c r="Y49">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z49">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA49">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB49">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC49">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-64488649200</v>
       </c>
+      <c r="Q50">
+        <v>678534451000</v>
+      </c>
+      <c r="R50">
+        <v>743023100200</v>
+      </c>
+      <c r="S50">
+        <v>41585700</v>
+      </c>
+      <c r="T50">
+        <v>48370700</v>
+      </c>
+      <c r="U50">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V50">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W50">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X50">
+        <v>3310825</v>
+      </c>
+      <c r="Y50">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z50">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA50">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB50">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC50">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-79400910700</v>
       </c>
+      <c r="Q51">
+        <v>683695902400</v>
+      </c>
+      <c r="R51">
+        <v>763096813100</v>
+      </c>
+      <c r="S51">
+        <v>41916200</v>
+      </c>
+      <c r="T51">
+        <v>49778700</v>
+      </c>
+      <c r="U51">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V51">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W51">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X51">
+        <v>3310825</v>
+      </c>
+      <c r="Y51">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z51">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA51">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB51">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC51">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-96024107600</v>
       </c>
+      <c r="Q52">
+        <v>690249522300</v>
+      </c>
+      <c r="R52">
+        <v>786273629900</v>
+      </c>
+      <c r="S52">
+        <v>42253400</v>
+      </c>
+      <c r="T52">
+        <v>51183800</v>
+      </c>
+      <c r="U52">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V52">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W52">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X52">
+        <v>3310825</v>
+      </c>
+      <c r="Y52">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z52">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA52">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB52">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC52">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-101509526000</v>
       </c>
+      <c r="Q53">
+        <v>697319959300</v>
+      </c>
+      <c r="R53">
+        <v>798829485300</v>
+      </c>
+      <c r="S53">
+        <v>42711300</v>
+      </c>
+      <c r="T53">
+        <v>51967500</v>
+      </c>
+      <c r="U53">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V53">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W53">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X53">
+        <v>3310825</v>
+      </c>
+      <c r="Y53">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z53">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA53">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB53">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC53">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-111880115000</v>
       </c>
+      <c r="Q54">
+        <v>703905597100</v>
+      </c>
+      <c r="R54">
+        <v>815785712100</v>
+      </c>
+      <c r="S54">
+        <v>43074100</v>
+      </c>
+      <c r="T54">
+        <v>52921900</v>
+      </c>
+      <c r="U54">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V54">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W54">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X54">
+        <v>3310825</v>
+      </c>
+      <c r="Y54">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z54">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA54">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB54">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC54">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-126095048200</v>
       </c>
+      <c r="Q55">
+        <v>708888769500</v>
+      </c>
+      <c r="R55">
+        <v>834983817700</v>
+      </c>
+      <c r="S55">
+        <v>43302200</v>
+      </c>
+      <c r="T55">
+        <v>53984000</v>
+      </c>
+      <c r="U55">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V55">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W55">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X55">
+        <v>3310825</v>
+      </c>
+      <c r="Y55">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z55">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA55">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB55">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-141535242500</v>
       </c>
+      <c r="Q56">
+        <v>713280427200</v>
+      </c>
+      <c r="R56">
+        <v>854815669700</v>
+      </c>
+      <c r="S56">
+        <v>43513000</v>
+      </c>
+      <c r="T56">
+        <v>55219300</v>
+      </c>
+      <c r="U56">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V56">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W56">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X56">
+        <v>3310825</v>
+      </c>
+      <c r="Y56">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z56">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA56">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB56">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC56">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-160155742500</v>
       </c>
+      <c r="Q57">
+        <v>723471029900</v>
+      </c>
+      <c r="R57">
+        <v>883626772400</v>
+      </c>
+      <c r="S57">
+        <v>44080000</v>
+      </c>
+      <c r="T57">
+        <v>56854200</v>
+      </c>
+      <c r="U57">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V57">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W57">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X57">
+        <v>3310825</v>
+      </c>
+      <c r="Y57">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z57">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA57">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB57">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC57">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-196041806700</v>
       </c>
+      <c r="Q58">
+        <v>728596309300</v>
+      </c>
+      <c r="R58">
+        <v>924638116000</v>
+      </c>
+      <c r="S58">
+        <v>44435600</v>
+      </c>
+      <c r="T58">
+        <v>59295800</v>
+      </c>
+      <c r="U58">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V58">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W58">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X58">
+        <v>3310825</v>
+      </c>
+      <c r="Y58">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z58">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA58">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB58">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC58">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-210907111000</v>
       </c>
+      <c r="Q59">
+        <v>736043425500</v>
+      </c>
+      <c r="R59">
+        <v>946950536500</v>
+      </c>
+      <c r="S59">
+        <v>44893500</v>
+      </c>
+      <c r="T59">
+        <v>60785000</v>
+      </c>
+      <c r="U59">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V59">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W59">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X59">
+        <v>3310825</v>
+      </c>
+      <c r="Y59">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z59">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA59">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB59">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC59">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-215959107900</v>
       </c>
+      <c r="Q60">
+        <v>745703268700</v>
+      </c>
+      <c r="R60">
+        <v>961662376600</v>
+      </c>
+      <c r="S60">
+        <v>45471600</v>
+      </c>
+      <c r="T60">
+        <v>61761700</v>
+      </c>
+      <c r="U60">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V60">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W60">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X60">
+        <v>3310825</v>
+      </c>
+      <c r="Y60">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z60">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA60">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB60">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC60">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-230515451500</v>
       </c>
+      <c r="Q61">
+        <v>752978894200</v>
+      </c>
+      <c r="R61">
+        <v>983494345700</v>
+      </c>
+      <c r="S61">
+        <v>45873700</v>
+      </c>
+      <c r="T61">
+        <v>63125800</v>
+      </c>
+      <c r="U61">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V61">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W61">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X61">
+        <v>3310825</v>
+      </c>
+      <c r="Y61">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z61">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA61">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB61">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC61">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-270023788200</v>
       </c>
+      <c r="Q62">
+        <v>760343641600</v>
+      </c>
+      <c r="R62">
+        <v>1030367429800</v>
+      </c>
+      <c r="S62">
+        <v>46248900</v>
+      </c>
+      <c r="T62">
+        <v>66394200</v>
+      </c>
+      <c r="U62">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V62">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W62">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X62">
+        <v>3310825</v>
+      </c>
+      <c r="Y62">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z62">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA62">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB62">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC62">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-297487533200</v>
       </c>
+      <c r="Q63">
+        <v>771595478800</v>
+      </c>
+      <c r="R63">
+        <v>1069083012000</v>
+      </c>
+      <c r="S63">
+        <v>46834300</v>
+      </c>
+      <c r="T63">
+        <v>68986800</v>
+      </c>
+      <c r="U63">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V63">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W63">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X63">
+        <v>3310825</v>
+      </c>
+      <c r="Y63">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z63">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA63">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB63">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC63">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-324961800700</v>
       </c>
+      <c r="Q64">
+        <v>785095416800</v>
+      </c>
+      <c r="R64">
+        <v>1110057217500</v>
+      </c>
+      <c r="S64">
+        <v>47686800</v>
+      </c>
+      <c r="T64">
+        <v>71439500</v>
+      </c>
+      <c r="U64">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V64">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W64">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X64">
+        <v>3310825</v>
+      </c>
+      <c r="Y64">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z64">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA64">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB64">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC64">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-337410105600</v>
       </c>
+      <c r="Q65">
+        <v>793564911800</v>
+      </c>
+      <c r="R65">
+        <v>1130975017400</v>
+      </c>
+      <c r="S65">
+        <v>48169000</v>
+      </c>
+      <c r="T65">
+        <v>72916300</v>
+      </c>
+      <c r="U65">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V65">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W65">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X65">
+        <v>3310825</v>
+      </c>
+      <c r="Y65">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z65">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA65">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB65">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC65">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-355082720700</v>
       </c>
+      <c r="Q66">
+        <v>803211292400</v>
+      </c>
+      <c r="R66">
+        <v>1158294013100</v>
+      </c>
+      <c r="S66">
+        <v>48734600</v>
+      </c>
+      <c r="T66">
+        <v>74932600</v>
+      </c>
+      <c r="U66">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V66">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W66">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X66">
+        <v>3310825</v>
+      </c>
+      <c r="Y66">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z66">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA66">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB66">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC66">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-383824496200</v>
       </c>
+      <c r="Q67">
+        <v>813065706900</v>
+      </c>
+      <c r="R67">
+        <v>1196890203100</v>
+      </c>
+      <c r="S67">
+        <v>49349900</v>
+      </c>
+      <c r="T67">
+        <v>77762400</v>
+      </c>
+      <c r="U67">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V67">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W67">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X67">
+        <v>3310825</v>
+      </c>
+      <c r="Y67">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z67">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA67">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB67">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC67">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-386096508900</v>
       </c>
+      <c r="Q68">
+        <v>834754308000</v>
+      </c>
+      <c r="R68">
+        <v>1220850816900</v>
+      </c>
+      <c r="S68">
+        <v>50258900</v>
+      </c>
+      <c r="T68">
+        <v>79577400</v>
+      </c>
+      <c r="U68">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V68">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W68">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X68">
+        <v>3310825</v>
+      </c>
+      <c r="Y68">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z68">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA68">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB68">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC68">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-386042511100</v>
       </c>
+      <c r="Q69">
+        <v>851901493500</v>
+      </c>
+      <c r="R69">
+        <v>1237944004600</v>
+      </c>
+      <c r="S69">
+        <v>51411400</v>
+      </c>
+      <c r="T69">
+        <v>80747200</v>
+      </c>
+      <c r="U69">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V69">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W69">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X69">
+        <v>3310825</v>
+      </c>
+      <c r="Y69">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z69">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA69">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB69">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-385977517700</v>
       </c>
+      <c r="Q70">
+        <v>852056678900</v>
+      </c>
+      <c r="R70">
+        <v>1238034196600</v>
+      </c>
+      <c r="S70">
+        <v>51418300</v>
+      </c>
+      <c r="T70">
+        <v>80759000</v>
+      </c>
+      <c r="U70">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V70">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W70">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X70">
+        <v>3310825</v>
+      </c>
+      <c r="Y70">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z70">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA70">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB70">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-424175542100</v>
       </c>
+      <c r="Q71">
+        <v>887920855600</v>
+      </c>
+      <c r="R71">
+        <v>1312096397700</v>
+      </c>
+      <c r="S71">
+        <v>53683100</v>
+      </c>
+      <c r="T71">
+        <v>86668500</v>
+      </c>
+      <c r="U71">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V71">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W71">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X71">
+        <v>3310825</v>
+      </c>
+      <c r="Y71">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z71">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA71">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB71">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC71">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-436639188800</v>
       </c>
+      <c r="Q72">
+        <v>906336833100</v>
+      </c>
+      <c r="R72">
+        <v>1342976021900</v>
+      </c>
+      <c r="S72">
+        <v>54857500</v>
+      </c>
+      <c r="T72">
+        <v>88629900</v>
+      </c>
+      <c r="U72">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V72">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W72">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X72">
+        <v>3310825</v>
+      </c>
+      <c r="Y72">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z72">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA72">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB72">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC72">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-426317071300</v>
       </c>
+      <c r="Q73">
+        <v>935674441100</v>
+      </c>
+      <c r="R73">
+        <v>1361991512400</v>
+      </c>
+      <c r="S73">
+        <v>56706400</v>
+      </c>
+      <c r="T73">
+        <v>89990200</v>
+      </c>
+      <c r="U73">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V73">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W73">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X73">
+        <v>3310825</v>
+      </c>
+      <c r="Y73">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z73">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA73">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB73">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC73">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-412932496300</v>
       </c>
+      <c r="Q74">
+        <v>964472892200</v>
+      </c>
+      <c r="R74">
+        <v>1377405388500</v>
+      </c>
+      <c r="S74">
+        <v>58614400</v>
+      </c>
+      <c r="T74">
+        <v>91099500</v>
+      </c>
+      <c r="U74">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V74">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W74">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X74">
+        <v>3310825</v>
+      </c>
+      <c r="Y74">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z74">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA74">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB74">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC74">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-422683864800</v>
       </c>
+      <c r="Q75">
+        <v>979761170500</v>
+      </c>
+      <c r="R75">
+        <v>1402445035300</v>
+      </c>
+      <c r="S75">
+        <v>59690800</v>
+      </c>
+      <c r="T75">
+        <v>92842300</v>
+      </c>
+      <c r="U75">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V75">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W75">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X75">
+        <v>3310825</v>
+      </c>
+      <c r="Y75">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z75">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA75">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB75">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC75">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-425697314900</v>
       </c>
+      <c r="Q76">
+        <v>994870389900</v>
+      </c>
+      <c r="R76">
+        <v>1420567704800</v>
+      </c>
+      <c r="S76">
+        <v>60718100</v>
+      </c>
+      <c r="T76">
+        <v>94199500</v>
+      </c>
+      <c r="U76">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V76">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W76">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X76">
+        <v>3310825</v>
+      </c>
+      <c r="Y76">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z76">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA76">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB76">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC76">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-431196885300</v>
       </c>
+      <c r="Q77">
+        <v>1005642231600</v>
+      </c>
+      <c r="R77">
+        <v>1436839116900</v>
+      </c>
+      <c r="S77">
+        <v>61543100</v>
+      </c>
+      <c r="T77">
+        <v>95305300</v>
+      </c>
+      <c r="U77">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V77">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W77">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X77">
+        <v>3310825</v>
+      </c>
+      <c r="Y77">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z77">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA77">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB77">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC77">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-439078737300</v>
       </c>
+      <c r="Q78">
+        <v>1021757914900</v>
+      </c>
+      <c r="R78">
+        <v>1460836652200</v>
+      </c>
+      <c r="S78">
+        <v>62565800</v>
+      </c>
+      <c r="T78">
+        <v>97014600</v>
+      </c>
+      <c r="U78">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V78">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W78">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X78">
+        <v>3310825</v>
+      </c>
+      <c r="Y78">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z78">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA78">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB78">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC78">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-458551380600</v>
       </c>
+      <c r="Q79">
+        <v>1037972808400</v>
+      </c>
+      <c r="R79">
+        <v>1496524189000</v>
+      </c>
+      <c r="S79">
+        <v>63361700</v>
+      </c>
+      <c r="T79">
+        <v>99305300</v>
+      </c>
+      <c r="U79">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V79">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W79">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X79">
+        <v>3310825</v>
+      </c>
+      <c r="Y79">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z79">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA79">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB79">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC79">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-470584873300</v>
       </c>
+      <c r="Q80">
+        <v>1062266397400</v>
+      </c>
+      <c r="R80">
+        <v>1532851270700</v>
+      </c>
+      <c r="S80">
+        <v>64943900</v>
+      </c>
+      <c r="T80">
+        <v>102193900</v>
+      </c>
+      <c r="U80">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V80">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W80">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X80">
+        <v>3310825</v>
+      </c>
+      <c r="Y80">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z80">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA80">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB80">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-518268012600</v>
       </c>
+      <c r="Q81">
+        <v>1079498475000</v>
+      </c>
+      <c r="R81">
+        <v>1597766487600</v>
+      </c>
+      <c r="S81">
+        <v>66206500</v>
+      </c>
+      <c r="T81">
+        <v>106785400</v>
+      </c>
+      <c r="U81">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V81">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W81">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X81">
+        <v>3310825</v>
+      </c>
+      <c r="Y81">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z81">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA81">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB81">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC81">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-574433400200</v>
       </c>
+      <c r="Q82">
+        <v>1107516911200</v>
+      </c>
+      <c r="R82">
+        <v>1681950311400</v>
+      </c>
+      <c r="S82">
+        <v>67797000</v>
+      </c>
+      <c r="T82">
+        <v>112604900</v>
+      </c>
+      <c r="U82">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V82">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W82">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X82">
+        <v>3310825</v>
+      </c>
+      <c r="Y82">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z82">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA82">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB82">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC82">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-585508223900</v>
       </c>
+      <c r="Q83">
+        <v>1130292109100</v>
+      </c>
+      <c r="R83">
+        <v>1715800333000</v>
+      </c>
+      <c r="S83">
+        <v>69668200</v>
+      </c>
+      <c r="T83">
+        <v>115070600</v>
+      </c>
+      <c r="U83">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V83">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W83">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X83">
+        <v>3310825</v>
+      </c>
+      <c r="Y83">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z83">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA83">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB83">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC83">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-595645020100</v>
       </c>
+      <c r="Q84">
+        <v>1146798900800</v>
+      </c>
+      <c r="R84">
+        <v>1742443920900</v>
+      </c>
+      <c r="S84">
+        <v>70865800</v>
+      </c>
+      <c r="T84">
+        <v>116925800</v>
+      </c>
+      <c r="U84">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V84">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W84">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X84">
+        <v>3310825</v>
+      </c>
+      <c r="Y84">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z84">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA84">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB84">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC84">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-566419896800</v>
       </c>
+      <c r="Q85">
+        <v>1190425499100</v>
+      </c>
+      <c r="R85">
+        <v>1756845395900</v>
+      </c>
+      <c r="S85">
+        <v>73957500</v>
+      </c>
+      <c r="T85">
+        <v>118012500</v>
+      </c>
+      <c r="U85">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V85">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W85">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X85">
+        <v>3310825</v>
+      </c>
+      <c r="Y85">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z85">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA85">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB85">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC85">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-536408715800</v>
       </c>
+      <c r="Q86">
+        <v>1238310452100</v>
+      </c>
+      <c r="R86">
+        <v>1774719167900</v>
+      </c>
+      <c r="S86">
+        <v>77053800</v>
+      </c>
+      <c r="T86">
+        <v>119194900</v>
+      </c>
+      <c r="U86">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V86">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W86">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X86">
+        <v>3310825</v>
+      </c>
+      <c r="Y86">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z86">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA86">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB86">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC86">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-509678662600</v>
       </c>
+      <c r="Q87">
+        <v>1276755224400</v>
+      </c>
+      <c r="R87">
+        <v>1786433887000</v>
+      </c>
+      <c r="S87">
+        <v>79466200</v>
+      </c>
+      <c r="T87">
+        <v>119975800</v>
+      </c>
+      <c r="U87">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V87">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W87">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X87">
+        <v>3310825</v>
+      </c>
+      <c r="Y87">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z87">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA87">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB87">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC87">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-477944844900</v>
       </c>
+      <c r="Q88">
+        <v>1323866118000</v>
+      </c>
+      <c r="R88">
+        <v>1801810962900</v>
+      </c>
+      <c r="S88">
+        <v>82196200</v>
+      </c>
+      <c r="T88">
+        <v>120902300</v>
+      </c>
+      <c r="U88">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V88">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W88">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X88">
+        <v>3310825</v>
+      </c>
+      <c r="Y88">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z88">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA88">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB88">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC88">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-454016637200</v>
       </c>
+      <c r="Q89">
+        <v>1363214761000</v>
+      </c>
+      <c r="R89">
+        <v>1817231398200</v>
+      </c>
+      <c r="S89">
+        <v>84597800</v>
+      </c>
+      <c r="T89">
+        <v>121924900</v>
+      </c>
+      <c r="U89">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V89">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W89">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X89">
+        <v>3310825</v>
+      </c>
+      <c r="Y89">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z89">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA89">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB89">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC89">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-464554209700</v>
       </c>
+      <c r="Q90">
+        <v>1380250949500</v>
+      </c>
+      <c r="R90">
+        <v>1844805159200</v>
+      </c>
+      <c r="S90">
+        <v>85613000</v>
+      </c>
+      <c r="T90">
+        <v>123546300</v>
+      </c>
+      <c r="U90">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V90">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W90">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X90">
+        <v>3310825</v>
+      </c>
+      <c r="Y90">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z90">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA90">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB90">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC90">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-486112052400</v>
       </c>
+      <c r="Q91">
+        <v>1391505709800</v>
+      </c>
+      <c r="R91">
+        <v>1877617762200</v>
+      </c>
+      <c r="S91">
+        <v>86389600</v>
+      </c>
+      <c r="T91">
+        <v>125551900</v>
+      </c>
+      <c r="U91">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V91">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W91">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X91">
+        <v>3310825</v>
+      </c>
+      <c r="Y91">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z91">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA91">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB91">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC91">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-491860088200</v>
       </c>
+      <c r="Q92">
+        <v>1405337104200</v>
+      </c>
+      <c r="R92">
+        <v>1897197192400</v>
+      </c>
+      <c r="S92">
+        <v>87190400</v>
+      </c>
+      <c r="T92">
+        <v>126904400</v>
+      </c>
+      <c r="U92">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V92">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W92">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X92">
+        <v>3310825</v>
+      </c>
+      <c r="Y92">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z92">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA92">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB92">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC92">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-499859814300</v>
       </c>
+      <c r="Q93">
+        <v>1414065453500</v>
+      </c>
+      <c r="R93">
+        <v>1913925267800</v>
+      </c>
+      <c r="S93">
+        <v>87859300</v>
+      </c>
+      <c r="T93">
+        <v>128147900</v>
+      </c>
+      <c r="U93">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V93">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W93">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X93">
+        <v>3310825</v>
+      </c>
+      <c r="Y93">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z93">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA93">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB93">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC93">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-502608900800</v>
       </c>
+      <c r="Q94">
+        <v>1428443307600</v>
+      </c>
+      <c r="R94">
+        <v>1931052208400</v>
+      </c>
+      <c r="S94">
+        <v>88733000</v>
+      </c>
+      <c r="T94">
+        <v>129243800</v>
+      </c>
+      <c r="U94">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V94">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W94">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X94">
+        <v>3310825</v>
+      </c>
+      <c r="Y94">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z94">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA94">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB94">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC94">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-500057037500</v>
       </c>
+      <c r="Q95">
+        <v>1446700872000</v>
+      </c>
+      <c r="R95">
+        <v>1946757909500</v>
+      </c>
+      <c r="S95">
+        <v>89855200</v>
+      </c>
+      <c r="T95">
+        <v>130208800</v>
+      </c>
+      <c r="U95">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V95">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W95">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X95">
+        <v>3310825</v>
+      </c>
+      <c r="Y95">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z95">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA95">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB95">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC95">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-502892575500</v>
       </c>
+      <c r="Q96">
+        <v>1465280642400</v>
+      </c>
+      <c r="R96">
+        <v>1968173217900</v>
+      </c>
+      <c r="S96">
+        <v>91054600</v>
+      </c>
+      <c r="T96">
+        <v>131794200</v>
+      </c>
+      <c r="U96">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V96">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W96">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X96">
+        <v>3310825</v>
+      </c>
+      <c r="Y96">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z96">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA96">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB96">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC96">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-490587120300</v>
       </c>
+      <c r="Q97">
+        <v>1488138315000</v>
+      </c>
+      <c r="R97">
+        <v>1978725435300</v>
+      </c>
+      <c r="S97">
+        <v>92371400</v>
+      </c>
+      <c r="T97">
+        <v>132407100</v>
+      </c>
+      <c r="U97">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V97">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W97">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X97">
+        <v>3310825</v>
+      </c>
+      <c r="Y97">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z97">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA97">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB97">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-473190182900</v>
       </c>
+      <c r="Q98">
+        <v>1518144567000</v>
+      </c>
+      <c r="R98">
+        <v>1991334749900</v>
+      </c>
+      <c r="S98">
+        <v>94033600</v>
+      </c>
+      <c r="T98">
+        <v>133132300</v>
+      </c>
+      <c r="U98">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V98">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W98">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X98">
+        <v>3310825</v>
+      </c>
+      <c r="Y98">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z98">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA98">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB98">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC98">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-464399228900</v>
       </c>
+      <c r="Q99">
+        <v>1543834072100</v>
+      </c>
+      <c r="R99">
+        <v>2008233301000</v>
+      </c>
+      <c r="S99">
+        <v>95760500</v>
+      </c>
+      <c r="T99">
+        <v>134243800</v>
+      </c>
+      <c r="U99">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V99">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W99">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X99">
+        <v>3310825</v>
+      </c>
+      <c r="Y99">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z99">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA99">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB99">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-428875930700</v>
       </c>
+      <c r="Q100">
+        <v>1589057389300</v>
+      </c>
+      <c r="R100">
+        <v>2017933320000</v>
+      </c>
+      <c r="S100">
+        <v>98912400</v>
+      </c>
+      <c r="T100">
+        <v>134851900</v>
+      </c>
+      <c r="U100">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V100">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W100">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X100">
+        <v>3310825</v>
+      </c>
+      <c r="Y100">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z100">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA100">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB100">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC100">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-391748838700</v>
       </c>
+      <c r="Q101">
+        <v>1641444805500</v>
+      </c>
+      <c r="R101">
+        <v>2033193644200</v>
+      </c>
+      <c r="S101">
+        <v>102473000</v>
+      </c>
+      <c r="T101">
+        <v>135795400</v>
+      </c>
+      <c r="U101">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V101">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W101">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X101">
+        <v>3310825</v>
+      </c>
+      <c r="Y101">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z101">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA101">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB101">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC101">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-347030629400</v>
       </c>
+      <c r="Q102">
+        <v>1703158475500</v>
+      </c>
+      <c r="R102">
+        <v>2050189104900</v>
+      </c>
+      <c r="S102">
+        <v>106995500</v>
+      </c>
+      <c r="T102">
+        <v>136844400</v>
+      </c>
+      <c r="U102">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V102">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W102">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X102">
+        <v>3310825</v>
+      </c>
+      <c r="Y102">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z102">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA102">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB102">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC102">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-304021218100</v>
       </c>
+      <c r="Q103">
+        <v>1767557264100</v>
+      </c>
+      <c r="R103">
+        <v>2071578482200</v>
+      </c>
+      <c r="S103">
+        <v>111294600</v>
+      </c>
+      <c r="T103">
+        <v>138411200</v>
+      </c>
+      <c r="U103">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V103">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W103">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X103">
+        <v>3310825</v>
+      </c>
+      <c r="Y103">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z103">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA103">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB103">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-280642660500</v>
       </c>
+      <c r="Q104">
+        <v>1830885513400</v>
+      </c>
+      <c r="R104">
+        <v>2111528173900</v>
+      </c>
+      <c r="S104">
+        <v>115359000</v>
+      </c>
+      <c r="T104">
+        <v>140555800</v>
+      </c>
+      <c r="U104">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V104">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W104">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X104">
+        <v>3310825</v>
+      </c>
+      <c r="Y104">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z104">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA104">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB104">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC104">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-374060353000</v>
       </c>
+      <c r="Q105">
+        <v>1846727644500</v>
+      </c>
+      <c r="R105">
+        <v>2220787997500</v>
+      </c>
+      <c r="S105">
+        <v>116450000</v>
+      </c>
+      <c r="T105">
+        <v>147118800</v>
+      </c>
+      <c r="U105">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V105">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W105">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X105">
+        <v>3310825</v>
+      </c>
+      <c r="Y105">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z105">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA105">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB105">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC105">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-396414300600</v>
       </c>
+      <c r="Q106">
+        <v>1864111290700</v>
+      </c>
+      <c r="R106">
+        <v>2260525591300</v>
+      </c>
+      <c r="S106">
+        <v>117628100</v>
+      </c>
+      <c r="T106">
+        <v>149876000</v>
+      </c>
+      <c r="U106">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V106">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W106">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X106">
+        <v>3310825</v>
+      </c>
+      <c r="Y106">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z106">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA106">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB106">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC106">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-410040181400</v>
       </c>
+      <c r="Q107">
+        <v>1889707012800</v>
+      </c>
+      <c r="R107">
+        <v>2299747194200</v>
+      </c>
+      <c r="S107">
+        <v>119256700</v>
+      </c>
+      <c r="T107">
+        <v>152155100</v>
+      </c>
+      <c r="U107">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V107">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W107">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X107">
+        <v>3310825</v>
+      </c>
+      <c r="Y107">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z107">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA107">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB107">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC107">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-521405633900</v>
       </c>
+      <c r="Q108">
+        <v>1905256817200</v>
+      </c>
+      <c r="R108">
+        <v>2426662451100</v>
+      </c>
+      <c r="S108">
+        <v>120256900</v>
+      </c>
+      <c r="T108">
+        <v>159891000</v>
+      </c>
+      <c r="U108">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V108">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W108">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X108">
+        <v>3310825</v>
+      </c>
+      <c r="Y108">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z108">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA108">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB108">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC108">
+        <v>13</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-644414582600</v>
       </c>
+      <c r="Q109">
+        <v>1956076293900</v>
+      </c>
+      <c r="R109">
+        <v>2600490876500</v>
+      </c>
+      <c r="S109">
+        <v>123101600</v>
+      </c>
+      <c r="T109">
+        <v>171281100</v>
+      </c>
+      <c r="U109">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V109">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W109">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X109">
+        <v>3310825</v>
+      </c>
+      <c r="Y109">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z109">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA109">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB109">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC109">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-657194524900</v>
       </c>
+      <c r="Q110">
+        <v>2009446897200</v>
+      </c>
+      <c r="R110">
+        <v>2666641422100</v>
+      </c>
+      <c r="S110">
+        <v>126940600</v>
+      </c>
+      <c r="T110">
+        <v>176063900</v>
+      </c>
+      <c r="U110">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V110">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W110">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X110">
+        <v>3310825</v>
+      </c>
+      <c r="Y110">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z110">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA110">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB110">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC110">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-666146469300</v>
       </c>
+      <c r="Q111">
+        <v>2062275708200</v>
+      </c>
+      <c r="R111">
+        <v>2728422177500</v>
+      </c>
+      <c r="S111">
+        <v>130467200</v>
+      </c>
+      <c r="T111">
+        <v>179272700</v>
+      </c>
+      <c r="U111">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V111">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W111">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X111">
+        <v>3310825</v>
+      </c>
+      <c r="Y111">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z111">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA111">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB111">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-713193626700</v>
       </c>
+      <c r="Q112">
+        <v>2097916217900</v>
+      </c>
+      <c r="R112">
+        <v>2811109844600</v>
+      </c>
+      <c r="S112">
+        <v>132602600</v>
+      </c>
+      <c r="T112">
+        <v>184318900</v>
+      </c>
+      <c r="U112">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V112">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W112">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X112">
+        <v>3310825</v>
+      </c>
+      <c r="Y112">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z112">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA112">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB112">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC112">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-731023166800</v>
       </c>
+      <c r="Q113">
+        <v>2136413724000</v>
+      </c>
+      <c r="R113">
+        <v>2867436890800</v>
+      </c>
+      <c r="S113">
+        <v>134785500</v>
+      </c>
+      <c r="T113">
+        <v>187760500</v>
+      </c>
+      <c r="U113">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V113">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W113">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X113">
+        <v>3310825</v>
+      </c>
+      <c r="Y113">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z113">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA113">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB113">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC113">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-747311540000</v>
       </c>
+      <c r="Q114">
+        <v>2188962227700</v>
+      </c>
+      <c r="R114">
+        <v>2936273767700</v>
+      </c>
+      <c r="S114">
+        <v>137481100</v>
+      </c>
+      <c r="T114">
+        <v>191678600</v>
+      </c>
+      <c r="U114">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V114">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W114">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X114">
+        <v>3310825</v>
+      </c>
+      <c r="Y114">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z114">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA114">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB114">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC114">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-800927026600</v>
       </c>
+      <c r="Q115">
+        <v>2245936057100</v>
+      </c>
+      <c r="R115">
+        <v>3046863083700</v>
+      </c>
+      <c r="S115">
+        <v>140697100</v>
+      </c>
+      <c r="T115">
+        <v>198265700</v>
+      </c>
+      <c r="U115">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V115">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W115">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X115">
+        <v>3310825</v>
+      </c>
+      <c r="Y115">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z115">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA115">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB115">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC115">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-801057045800</v>
       </c>
+      <c r="Q116">
+        <v>2246198674900</v>
+      </c>
+      <c r="R116">
+        <v>3047255720700</v>
+      </c>
+      <c r="S116">
+        <v>140711300</v>
+      </c>
+      <c r="T116">
+        <v>198322200</v>
+      </c>
+      <c r="U116">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V116">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W116">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X116">
+        <v>3310825</v>
+      </c>
+      <c r="Y116">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z116">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA116">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB116">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>-996614748800</v>
       </c>
+      <c r="Q117">
+        <v>2408871769300</v>
+      </c>
+      <c r="R117">
+        <v>3405486518100</v>
+      </c>
+      <c r="S117">
+        <v>151382300</v>
+      </c>
+      <c r="T117">
+        <v>222153100</v>
+      </c>
+      <c r="U117">
+        <v>20766135942.2</v>
+      </c>
+      <c r="V117">
+        <v>29357642397.4</v>
+      </c>
+      <c r="W117">
+        <v>51501706934.5</v>
+      </c>
+      <c r="X117">
+        <v>3310825</v>
+      </c>
+      <c r="Y117">
+        <v>1305019.8</v>
+      </c>
+      <c r="Z117">
+        <v>1915112.9</v>
+      </c>
+      <c r="AA117">
+        <v>-610093.1</v>
+      </c>
+      <c r="AB117">
+        <v>-8591506455.2</v>
+      </c>
+      <c r="AC117">
+        <v>22.8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>